--- a/Healthcare/Novo Nordisk.xlsx
+++ b/Healthcare/Novo Nordisk.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Healthcare/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68646E3A-1A5E-D841-BDBB-2446FDEEEDBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BBBE5A7-8A68-FF4B-BCC6-20C36902EEEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1030,6 +1030,18 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1041,18 +1053,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2551,7 +2551,7 @@
     <v>Powered by Refinitiv</v>
     <v>50.17</v>
     <v>49.155000000000001</v>
-    <v>0.76290000000000002</v>
+    <v>0.76349999999999996</v>
     <v>0.16</v>
     <v>3.2320000000000001E-3</v>
     <v>CHF</v>
@@ -2577,8 +2577,8 @@
     <v>1717564000</v>
     <v>NOVOB</v>
     <v>Novo Nordisk A/S (XSWX:NOVOB)</v>
-    <v>1878557</v>
-    <v>1902050</v>
+    <v>2478</v>
+    <v>1389170</v>
     <v>1931</v>
   </rv>
   <rv s="2">
@@ -2588,13 +2588,13 @@
     <v>https://www.bing.com/financeapi/forcetrigger?t=a1yvxm&amp;q=XNYS%3aNVO&amp;form=skydnc</v>
     <v>Learn more on Bing</v>
   </rv>
-  <rv s="1">
-    <v>0</v>
+  <rv s="3">
+    <v>5</v>
     <v>Novo Nordisk A/S (XNYS:NVO)</v>
     <v>2</v>
-    <v>5</v>
+    <v>6</v>
     <v>Finance</v>
-    <v>6</v>
+    <v>7</v>
     <v>en-US</v>
     <v>a1yvxm</v>
     <v>268435456</v>
@@ -2603,8 +2603,10 @@
     <v>172.97</v>
     <v>95.02</v>
     <v>0.48130000000000001</v>
-    <v>1.99</v>
-    <v>1.1807000000000002E-2</v>
+    <v>-3.16</v>
+    <v>-1.9390000000000001E-2</v>
+    <v>0.19</v>
+    <v>1.189E-3</v>
     <v>USD</v>
     <v>Novo Nordisk A/S is a global healthcare company engaged in diabetes care. The Company is also engaged in the discovery, development, manufacturing and marketing of pharmaceutical products. The Company operates through two business segments: diabetes and obesity care, and biopharmaceuticals. The Company's diabetes and obesity care segment covers insulin, GLP-1, other protein-related products, such as glucagon, protein-related delivery systems and needles, and oral anti-diabetic drugs. The Company's biopharmaceuticals segment covers the therapy areas of hemophilia care, growth hormone therapy and hormone replacement therapy. The Company also offers Saxenda product to treat obesity. It offers a range of products, including NovoLog/NovoRapid; NovoLog Mix/NovoMix; Prandin/NovoNorm; NovoSeven; Norditropin, and Vagifem. As of December 31, 2016, it marketed its products in over 180 countries. Its regional structure consists of two commercial units: North America and International Operations.</v>
     <v>57089</v>
@@ -2612,24 +2614,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>Novo Alle 1, BAGSVAERD, DENMARK-NA, 2880 DK</v>
-    <v>171.65</v>
+    <v>161.83000000000001</v>
     <v>Pharmaceuticals</v>
     <v>Stock</v>
-    <v>45065.992841909378</v>
+    <v>45076.994504421091</v>
     <v>3</v>
-    <v>169.32</v>
-    <v>288207100000</v>
+    <v>159.42500000000001</v>
+    <v>280764900000</v>
     <v>Novo Nordisk A/S</v>
     <v>Novo Nordisk A/S</v>
-    <v>169.99</v>
-    <v>43.589799999999997</v>
-    <v>168.55</v>
-    <v>170.54</v>
+    <v>161.80000000000001</v>
+    <v>41.655000000000001</v>
+    <v>162.97</v>
+    <v>159.81</v>
+    <v>160</v>
     <v>1717564000</v>
     <v>NVO</v>
     <v>Novo Nordisk A/S (XNYS:NVO)</v>
-    <v>1462</v>
-    <v>1330302</v>
+    <v>1257243</v>
+    <v>1386624</v>
     <v>1931</v>
   </rv>
   <rv s="2">
@@ -2639,7 +2642,7 @@
 </file>
 
 <file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
-<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="3">
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="4">
   <s t="_hyperlink">
     <k n="Address" t="s"/>
     <k n="Text" t="s"/>
@@ -2691,12 +2694,59 @@
   <s t="_linkedentity">
     <k n="%cvi" t="r"/>
   </s>
+  <s t="_linkedentitycore">
+    <k n="_Display" t="spb"/>
+    <k n="_DisplayString" t="s"/>
+    <k n="_Flags" t="spb"/>
+    <k n="_Format" t="spb"/>
+    <k n="_Icon" t="s"/>
+    <k n="_SubLabel" t="spb"/>
+    <k n="%EntityCulture" t="s"/>
+    <k n="%EntityId" t="s"/>
+    <k n="%EntityServiceId"/>
+    <k n="%IsRefreshable" t="b"/>
+    <k n="%ProviderInfo" t="s"/>
+    <k n="52 week high"/>
+    <k n="52 week low"/>
+    <k n="Beta"/>
+    <k n="Change"/>
+    <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
+    <k n="Currency" t="s"/>
+    <k n="Description" t="s"/>
+    <k n="Employees"/>
+    <k n="Exchange" t="s"/>
+    <k n="Exchange abbreviation" t="s"/>
+    <k n="ExchangeID" t="s"/>
+    <k n="Headquarters" t="s"/>
+    <k n="High"/>
+    <k n="Industry" t="s"/>
+    <k n="Instrument type" t="s"/>
+    <k n="Last trade time"/>
+    <k n="LearnMoreOnLink" t="r"/>
+    <k n="Low"/>
+    <k n="Market cap"/>
+    <k n="Name" t="s"/>
+    <k n="Official name" t="s"/>
+    <k n="Open"/>
+    <k n="P/E"/>
+    <k n="Previous close"/>
+    <k n="Price"/>
+    <k n="Price (Extended hours)"/>
+    <k n="Shares outstanding"/>
+    <k n="Ticker symbol" t="s"/>
+    <k n="UniqueName" t="s"/>
+    <k n="Volume"/>
+    <k n="Volume average"/>
+    <k n="Year incorporated"/>
+  </s>
 </rvStructures>
 </file>
 
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
-  <spbArrays count="1">
+  <spbArrays count="2">
     <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
@@ -2741,8 +2791,55 @@
       <v t="s">ExchangeID</v>
       <v t="s">%ProviderInfo</v>
     </a>
+    <a count="45">
+      <v t="s">%EntityServiceId</v>
+      <v t="s">_Format</v>
+      <v t="s">%IsRefreshable</v>
+      <v t="s">%EntityCulture</v>
+      <v t="s">%EntityId</v>
+      <v t="s">_Icon</v>
+      <v t="s">_Display</v>
+      <v t="s">Name</v>
+      <v t="s">_SubLabel</v>
+      <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
+      <v t="s">Exchange</v>
+      <v t="s">Official name</v>
+      <v t="s">Last trade time</v>
+      <v t="s">Ticker symbol</v>
+      <v t="s">Exchange abbreviation</v>
+      <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
+      <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
+      <v t="s">Currency</v>
+      <v t="s">Previous close</v>
+      <v t="s">Open</v>
+      <v t="s">High</v>
+      <v t="s">Low</v>
+      <v t="s">52 week high</v>
+      <v t="s">52 week low</v>
+      <v t="s">Volume</v>
+      <v t="s">Volume average</v>
+      <v t="s">Market cap</v>
+      <v t="s">Beta</v>
+      <v t="s">P/E</v>
+      <v t="s">Shares outstanding</v>
+      <v t="s">Description</v>
+      <v t="s">Employees</v>
+      <v t="s">Headquarters</v>
+      <v t="s">Industry</v>
+      <v t="s">Instrument type</v>
+      <v t="s">Year incorporated</v>
+      <v t="s">_Flags</v>
+      <v t="s">UniqueName</v>
+      <v t="s">_DisplayString</v>
+      <v t="s">LearnMoreOnLink</v>
+      <v t="s">ExchangeID</v>
+      <v t="s">%ProviderInfo</v>
+    </a>
   </spbArrays>
-  <spbData count="7">
+  <spbData count="8">
     <spb s="0">
       <v>0</v>
       <v>Name</v>
@@ -2787,7 +2884,12 @@
       <v>from previous close</v>
       <v>GMT</v>
     </spb>
-    <spb s="3">
+    <spb s="0">
+      <v>1</v>
+      <v>Name</v>
+      <v>LearnMoreOnLink</v>
+    </spb>
+    <spb s="5">
       <v>10</v>
       <v>2</v>
       <v>2</v>
@@ -2808,20 +2910,26 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>10</v>
+      <v>10</v>
+      <v>5</v>
     </spb>
-    <spb s="5">
-      <v>Real-Time Nasdaq Last Sale</v>
+    <spb s="6">
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
 </file>
 
 <file path=xl/richData/rdsupportingpropertybagstructure.xml><?xml version="1.0" encoding="utf-8"?>
-<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="6">
+<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="7">
   <s>
     <k n="^Order" t="spba"/>
     <k n="TitleProperty" t="s"/>
@@ -2867,11 +2975,39 @@
     <k n="Last trade time" t="s"/>
   </s>
   <s>
+    <k n="Low" t="i"/>
+    <k n="P/E" t="i"/>
+    <k n="Beta" t="i"/>
+    <k n="High" t="i"/>
+    <k n="Name" t="i"/>
+    <k n="Open" t="i"/>
+    <k n="Price" t="i"/>
+    <k n="Change" t="i"/>
+    <k n="Volume" t="i"/>
+    <k n="Employees" t="i"/>
+    <k n="Change (%)" t="i"/>
+    <k n="Market cap" t="i"/>
+    <k n="52 week low" t="i"/>
+    <k n="52 week high" t="i"/>
+    <k n="Previous close" t="i"/>
+    <k n="Volume average" t="i"/>
+    <k n="Last trade time" t="i"/>
+    <k n="Year incorporated" t="i"/>
+    <k n="`%EntityServiceId" t="i"/>
+    <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
+  </s>
+  <s>
     <k n="Price" t="s"/>
     <k n="Change" t="s"/>
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -3239,10 +3375,10 @@
   <dimension ref="A1:AV118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AK88" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AI90" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AN101" sqref="AN101"/>
+      <selection pane="bottomRight" activeCell="AO95" sqref="AO95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13590,10 +13726,10 @@
       <c r="AM83" s="1">
         <v>-4767000000</v>
       </c>
-      <c r="AT83" s="60" t="s">
+      <c r="AT83" s="64" t="s">
         <v>126</v>
       </c>
-      <c r="AU83" s="61"/>
+      <c r="AU83" s="65"/>
     </row>
     <row r="84" spans="1:47" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -13713,10 +13849,10 @@
       <c r="AM84" s="1">
         <v>6717000000</v>
       </c>
-      <c r="AT84" s="62" t="s">
+      <c r="AT84" s="66" t="s">
         <v>127</v>
       </c>
-      <c r="AU84" s="63"/>
+      <c r="AU84" s="67"/>
     </row>
     <row r="85" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -14882,10 +15018,10 @@
       <c r="AM93" s="1">
         <v>-2607000000</v>
       </c>
-      <c r="AT93" s="62" t="s">
+      <c r="AT93" s="66" t="s">
         <v>134</v>
       </c>
-      <c r="AU93" s="63"/>
+      <c r="AU93" s="67"/>
     </row>
     <row r="94" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -15135,7 +15271,7 @@
       </c>
       <c r="AU95" s="39" cm="1">
         <f t="array" ref="AU95">_FV(A1,"Beta")</f>
-        <v>0.76290000000000002</v>
+        <v>0.76349999999999996</v>
       </c>
     </row>
     <row r="96" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15386,7 +15522,7 @@
       </c>
       <c r="AU97" s="36">
         <f>(AU94)+((AU95)*(AU96-AU94))</f>
-        <v>7.3792844999999996E-2</v>
+        <v>7.3818675E-2</v>
       </c>
     </row>
     <row r="98" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -15507,11 +15643,11 @@
       <c r="AM98" s="1">
         <v>-25303000000</v>
       </c>
-      <c r="AT98" s="62" t="s">
+      <c r="AT98" s="66" t="s">
         <v>139</v>
       </c>
-      <c r="AU98" s="63"/>
-      <c r="AV98" s="66" t="e" vm="2">
+      <c r="AU98" s="67"/>
+      <c r="AV98" s="60" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
     </row>
@@ -15640,7 +15776,7 @@
         <f>AU86+AU87</f>
         <v>25784000000</v>
       </c>
-      <c r="AV99" s="66" t="s">
+      <c r="AV99" s="60" t="s">
         <v>160</v>
       </c>
     </row>
@@ -15769,7 +15905,7 @@
         <f>AU99/AU103</f>
         <v>3.204042481646717E-2</v>
       </c>
-      <c r="AV100" s="67">
+      <c r="AV100" s="61">
         <v>0.15</v>
       </c>
     </row>
@@ -15898,7 +16034,7 @@
         <f t="array" ref="AU101">_FV(A1,"Market cap",TRUE)</f>
         <v>778949400000</v>
       </c>
-      <c r="AV101" s="66">
+      <c r="AV101" s="60">
         <f>AU101*AV100</f>
         <v>116842410000</v>
       </c>
@@ -16273,10 +16409,10 @@
       <c r="AM104" s="11">
         <v>12653000000</v>
       </c>
-      <c r="AT104" s="62" t="s">
+      <c r="AT104" s="66" t="s">
         <v>145</v>
       </c>
-      <c r="AU104" s="63"/>
+      <c r="AU104" s="67"/>
     </row>
     <row r="105" spans="1:48" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -16442,7 +16578,7 @@
       </c>
       <c r="AU105" s="26">
         <f>(AU100*AU92)+(AU102*AU97)</f>
-        <v>7.1806140636946722E-2</v>
+        <v>7.1831143032773728E-2</v>
       </c>
     </row>
     <row r="106" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -16640,7 +16776,7 @@
       <c r="AQ107" s="43"/>
       <c r="AR107" s="46">
         <f>AR106*(1+AU107)/(AU108-AU107)</f>
-        <v>2744286544734.5688</v>
+        <v>2742821414182.3174</v>
       </c>
       <c r="AS107" s="47" t="s">
         <v>148</v>
@@ -16671,7 +16807,7 @@
       </c>
       <c r="AR108" s="46">
         <f>AR107+AR106</f>
-        <v>2869603092989.1318</v>
+        <v>2868137962436.8799</v>
       </c>
       <c r="AS108" s="47" t="s">
         <v>144</v>
@@ -16681,14 +16817,14 @@
       </c>
       <c r="AU108" s="51">
         <f>AU105</f>
-        <v>7.1806140636946722E-2</v>
+        <v>7.1831143032773728E-2</v>
       </c>
     </row>
     <row r="109" spans="1:48" ht="19" x14ac:dyDescent="0.25">
-      <c r="AN109" s="64" t="s">
+      <c r="AN109" s="62" t="s">
         <v>151</v>
       </c>
-      <c r="AO109" s="65"/>
+      <c r="AO109" s="63"/>
     </row>
     <row r="110" spans="1:48" ht="20" x14ac:dyDescent="0.25">
       <c r="AN110" s="52" t="s">
@@ -16696,7 +16832,7 @@
       </c>
       <c r="AO110" s="40">
         <f>NPV(AU108,AN108,AO108,AP108,AQ108,AR108)</f>
-        <v>2331115327036.8975</v>
+        <v>2329824786865.9023</v>
       </c>
     </row>
     <row r="111" spans="1:48" ht="20" x14ac:dyDescent="0.25">
@@ -16723,7 +16859,7 @@
       </c>
       <c r="AO113" s="40">
         <f>AO110+AO111-AO112</f>
-        <v>2328905327036.8975</v>
+        <v>2327614786865.9023</v>
       </c>
     </row>
     <row r="114" spans="40:41" ht="20" x14ac:dyDescent="0.25">
@@ -16741,7 +16877,7 @@
       </c>
       <c r="AO115" s="55">
         <f>AO113/AO114*AV100</f>
-        <v>168.1628177412274</v>
+        <v>168.06963195602466</v>
       </c>
     </row>
     <row r="116" spans="40:41" ht="20" x14ac:dyDescent="0.25">
@@ -16750,7 +16886,7 @@
       </c>
       <c r="AO116" s="56" cm="1">
         <f t="array" ref="AO116">_FV(AV98,"Price")</f>
-        <v>170.54</v>
+        <v>159.81</v>
       </c>
     </row>
     <row r="117" spans="40:41" ht="20" x14ac:dyDescent="0.25">
@@ -16759,7 +16895,7 @@
       </c>
       <c r="AO117" s="58">
         <f>AO115/AO116-1</f>
-        <v>-1.3939147758722847E-2</v>
+        <v>5.1684074563698612E-2</v>
       </c>
     </row>
     <row r="118" spans="40:41" ht="20" x14ac:dyDescent="0.25">
@@ -16768,7 +16904,7 @@
       </c>
       <c r="AO118" s="59" t="str">
         <f>IF(AO115&gt;AO116,"BUY","SELL")</f>
-        <v>SELL</v>
+        <v>BUY</v>
       </c>
     </row>
   </sheetData>

--- a/Healthcare/Novo Nordisk.xlsx
+++ b/Healthcare/Novo Nordisk.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Healthcare/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BBBE5A7-8A68-FF4B-BCC6-20C36902EEEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F898730-A59A-FF4F-9149-583519D7F6DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="22540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -2551,7 +2551,7 @@
     <v>Powered by Refinitiv</v>
     <v>50.17</v>
     <v>49.155000000000001</v>
-    <v>0.76349999999999996</v>
+    <v>0.7611</v>
     <v>0.16</v>
     <v>3.2320000000000001E-3</v>
     <v>CHF</v>
@@ -2578,7 +2578,7 @@
     <v>NOVOB</v>
     <v>Novo Nordisk A/S (XSWX:NOVOB)</v>
     <v>2478</v>
-    <v>1389170</v>
+    <v>1307830</v>
     <v>1931</v>
   </rv>
   <rv s="2">
@@ -2602,11 +2602,11 @@
     <v>Powered by Refinitiv</v>
     <v>172.97</v>
     <v>95.02</v>
-    <v>0.48130000000000001</v>
-    <v>-3.16</v>
-    <v>-1.9390000000000001E-2</v>
-    <v>0.19</v>
-    <v>1.189E-3</v>
+    <v>0.7611</v>
+    <v>-1.24</v>
+    <v>-7.6290000000000004E-3</v>
+    <v>0.7</v>
+    <v>4.3400000000000001E-3</v>
     <v>USD</v>
     <v>Novo Nordisk A/S is a global healthcare company engaged in diabetes care. The Company is also engaged in the discovery, development, manufacturing and marketing of pharmaceutical products. The Company operates through two business segments: diabetes and obesity care, and biopharmaceuticals. The Company's diabetes and obesity care segment covers insulin, GLP-1, other protein-related products, such as glucagon, protein-related delivery systems and needles, and oral anti-diabetic drugs. The Company's biopharmaceuticals segment covers the therapy areas of hemophilia care, growth hormone therapy and hormone replacement therapy. The Company also offers Saxenda product to treat obesity. It offers a range of products, including NovoLog/NovoRapid; NovoLog Mix/NovoMix; Prandin/NovoNorm; NovoSeven; Norditropin, and Vagifem. As of December 31, 2016, it marketed its products in over 180 countries. Its regional structure consists of two commercial units: North America and International Operations.</v>
     <v>57089</v>
@@ -2614,25 +2614,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>Novo Alle 1, BAGSVAERD, DENMARK-NA, 2880 DK</v>
-    <v>161.83000000000001</v>
+    <v>162.69999999999999</v>
     <v>Pharmaceuticals</v>
     <v>Stock</v>
-    <v>45076.994504421091</v>
+    <v>45093.999837430471</v>
     <v>3</v>
-    <v>159.42500000000001</v>
-    <v>280764900000</v>
+    <v>161.22</v>
+    <v>1896878000000</v>
     <v>Novo Nordisk A/S</v>
     <v>Novo Nordisk A/S</v>
-    <v>161.80000000000001</v>
-    <v>41.655000000000001</v>
-    <v>162.97</v>
-    <v>159.81</v>
-    <v>160</v>
+    <v>162.54</v>
+    <v>41.542499999999997</v>
+    <v>162.53</v>
+    <v>161.29</v>
+    <v>161.99</v>
     <v>1717564000</v>
     <v>NVO</v>
     <v>Novo Nordisk A/S (XNYS:NVO)</v>
-    <v>1257243</v>
-    <v>1386624</v>
+    <v>1051903</v>
+    <v>1305264</v>
     <v>1931</v>
   </rv>
   <rv s="2">
@@ -2901,7 +2901,7 @@
       <v>4</v>
       <v>4</v>
       <v>5</v>
-      <v>11</v>
+      <v>6</v>
       <v>10</v>
       <v>10</v>
       <v>10</v>
@@ -3067,9 +3067,6 @@
     </rSty>
     <rSty dxfid="1">
       <rpv i="0">_([$$-en-US]* #,##0.00_);_([$$-en-US]* (#,##0.00);_([$$-en-US]* "-"??_);_(@_)</rpv>
-    </rSty>
-    <rSty dxfid="1">
-      <rpv i="0">_([$$-en-US]* #,##0_);_([$$-en-US]* (#,##0);_([$$-en-US]* "-"_);_(@_)</rpv>
     </rSty>
   </richStyles>
 </richStyleSheet>
@@ -3378,7 +3375,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="AI90" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AO95" sqref="AO95"/>
+      <selection pane="bottomRight" activeCell="AO99" sqref="AO99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15271,7 +15268,7 @@
       </c>
       <c r="AU95" s="39" cm="1">
         <f t="array" ref="AU95">_FV(A1,"Beta")</f>
-        <v>0.76349999999999996</v>
+        <v>0.7611</v>
       </c>
     </row>
     <row r="96" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15522,7 +15519,7 @@
       </c>
       <c r="AU97" s="36">
         <f>(AU94)+((AU95)*(AU96-AU94))</f>
-        <v>7.3818675E-2</v>
+        <v>7.371535500000001E-2</v>
       </c>
     </row>
     <row r="98" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -16578,7 +16575,7 @@
       </c>
       <c r="AU105" s="26">
         <f>(AU100*AU92)+(AU102*AU97)</f>
-        <v>7.1831143032773728E-2</v>
+        <v>7.1731133449465773E-2</v>
       </c>
     </row>
     <row r="106" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -16776,7 +16773,7 @@
       <c r="AQ107" s="43"/>
       <c r="AR107" s="46">
         <f>AR106*(1+AU107)/(AU108-AU107)</f>
-        <v>2742821414182.3174</v>
+        <v>2748691342995.7739</v>
       </c>
       <c r="AS107" s="47" t="s">
         <v>148</v>
@@ -16807,7 +16804,7 @@
       </c>
       <c r="AR108" s="46">
         <f>AR107+AR106</f>
-        <v>2868137962436.8799</v>
+        <v>2874007891250.3369</v>
       </c>
       <c r="AS108" s="47" t="s">
         <v>144</v>
@@ -16817,7 +16814,7 @@
       </c>
       <c r="AU108" s="51">
         <f>AU105</f>
-        <v>7.1831143032773728E-2</v>
+        <v>7.1731133449465773E-2</v>
       </c>
     </row>
     <row r="109" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -16832,7 +16829,7 @@
       </c>
       <c r="AO110" s="40">
         <f>NPV(AU108,AN108,AO108,AP108,AQ108,AR108)</f>
-        <v>2329824786865.9023</v>
+        <v>2334995259446.3267</v>
       </c>
     </row>
     <row r="111" spans="1:48" ht="20" x14ac:dyDescent="0.25">
@@ -16859,7 +16856,7 @@
       </c>
       <c r="AO113" s="40">
         <f>AO110+AO111-AO112</f>
-        <v>2327614786865.9023</v>
+        <v>2332785259446.3267</v>
       </c>
     </row>
     <row r="114" spans="40:41" ht="20" x14ac:dyDescent="0.25">
@@ -16877,7 +16874,7 @@
       </c>
       <c r="AO115" s="55">
         <f>AO113/AO114*AV100</f>
-        <v>168.06963195602466</v>
+        <v>168.44297527233888</v>
       </c>
     </row>
     <row r="116" spans="40:41" ht="20" x14ac:dyDescent="0.25">
@@ -16886,7 +16883,7 @@
       </c>
       <c r="AO116" s="56" cm="1">
         <f t="array" ref="AO116">_FV(AV98,"Price")</f>
-        <v>159.81</v>
+        <v>161.29</v>
       </c>
     </row>
     <row r="117" spans="40:41" ht="20" x14ac:dyDescent="0.25">
@@ -16895,7 +16892,7 @@
       </c>
       <c r="AO117" s="58">
         <f>AO115/AO116-1</f>
-        <v>5.1684074563698612E-2</v>
+        <v>4.434853538557193E-2</v>
       </c>
     </row>
     <row r="118" spans="40:41" ht="20" x14ac:dyDescent="0.25">

--- a/Healthcare/Novo Nordisk.xlsx
+++ b/Healthcare/Novo Nordisk.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Healthcare/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F898730-A59A-FF4F-9149-583519D7F6DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2636CD69-81AA-9943-A671-E11AE193A8A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="22540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -80,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1198" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1205" uniqueCount="168">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -352,9 +355,6 @@
     <t>Cash at the End of Period</t>
   </si>
   <si>
-    <t>Free Cash Flow</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -520,9 +520,6 @@
     <t>WACC Calculation</t>
   </si>
   <si>
-    <t>Proj. Free Cash Flow</t>
-  </si>
-  <si>
     <t>FCF Growth Rate</t>
   </si>
   <si>
@@ -564,16 +561,45 @@
   <si>
     <t>DKK to USD</t>
   </si>
+  <si>
+    <t>Forward P/S</t>
+  </si>
+  <si>
+    <t>Forward P/E</t>
+  </si>
+  <si>
+    <t>Forward P/FCF</t>
+  </si>
+  <si>
+    <t>Dividend Yield</t>
+  </si>
+  <si>
+    <t>FCF Yield</t>
+  </si>
+  <si>
+    <t>Unlevered FCF</t>
+  </si>
+  <si>
+    <t>Levered FCF</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Proj</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Forecast</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="170" formatCode="0.0"/>
+    <numFmt numFmtId="171" formatCode="0.0%"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -742,7 +768,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -906,12 +932,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -998,7 +1033,6 @@
     <xf numFmtId="10" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1054,6 +1088,33 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1104,7 +1165,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="2400"/>
-              <a:t>NOVOB</a:t>
+              <a:t>Novo</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="2400" baseline="0"/>
+              <a:t> Nordisk</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -1144,7 +1209,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="9.2871287128712871E-2"/>
-          <c:y val="0.13106027126602043"/>
+          <c:y val="0.11292475502865972"/>
           <c:w val="0.85960396039603948"/>
           <c:h val="0.73900887772471324"/>
         </c:manualLayout>
@@ -1510,11 +1575,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$106</c:f>
+              <c:f>'Sheet 1'!$A$107</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Free Cash Flow</c:v>
+                  <c:v>Levered FCF</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1554,7 +1619,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$106:$AM$106</c:f>
+              <c:f>'Sheet 1'!$B$107:$AM$107</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
                 <c:ptCount val="38"/>
@@ -2393,13 +2458,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>41</xdr:col>
-      <xdr:colOff>15875</xdr:colOff>
+      <xdr:colOff>47625</xdr:colOff>
       <xdr:row>108</xdr:row>
       <xdr:rowOff>33337</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>47</xdr:col>
-      <xdr:colOff>15875</xdr:colOff>
+      <xdr:colOff>47625</xdr:colOff>
       <xdr:row>133</xdr:row>
       <xdr:rowOff>15875</xdr:rowOff>
     </xdr:to>
@@ -2427,6 +2492,68 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Factor Scoring"/>
+      <sheetName val="Factor Investing"/>
+      <sheetName val="Concentrated"/>
+      <sheetName val="Hardware"/>
+      <sheetName val="Software"/>
+      <sheetName val="Consumer"/>
+      <sheetName val="Financial Services"/>
+      <sheetName val="Healthcare"/>
+      <sheetName val="Industrials"/>
+      <sheetName val="Real Estate"/>
+      <sheetName val="Fashion + Beauty"/>
+      <sheetName val="Treasuries"/>
+      <sheetName val="All Stars"/>
+      <sheetName val="ROIC Port"/>
+      <sheetName val="To Be Modeled"/>
+      <sheetName val="My Holdings"/>
+      <sheetName val="Stable Growth"/>
+      <sheetName val="High Growth"/>
+      <sheetName val="Compounders"/>
+      <sheetName val="Small Cap Gems"/>
+      <sheetName val="Private Companies"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11">
+        <row r="8">
+          <cell r="C8">
+            <v>3.739E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2551,7 +2678,7 @@
     <v>Powered by Refinitiv</v>
     <v>50.17</v>
     <v>49.155000000000001</v>
-    <v>0.7611</v>
+    <v>0.76639999999999997</v>
     <v>0.16</v>
     <v>3.2320000000000001E-3</v>
     <v>CHF</v>
@@ -2578,7 +2705,7 @@
     <v>NOVOB</v>
     <v>Novo Nordisk A/S (XSWX:NOVOB)</v>
     <v>2478</v>
-    <v>1307830</v>
+    <v>1241560</v>
     <v>1931</v>
   </rv>
   <rv s="2">
@@ -2588,13 +2715,13 @@
     <v>https://www.bing.com/financeapi/forcetrigger?t=a1yvxm&amp;q=XNYS%3aNVO&amp;form=skydnc</v>
     <v>Learn more on Bing</v>
   </rv>
-  <rv s="3">
-    <v>5</v>
+  <rv s="1">
+    <v>0</v>
     <v>Novo Nordisk A/S (XNYS:NVO)</v>
     <v>2</v>
+    <v>5</v>
+    <v>Finance</v>
     <v>6</v>
-    <v>Finance</v>
-    <v>7</v>
     <v>en-US</v>
     <v>a1yvxm</v>
     <v>268435456</v>
@@ -2602,11 +2729,9 @@
     <v>Powered by Refinitiv</v>
     <v>172.97</v>
     <v>95.02</v>
-    <v>0.7611</v>
-    <v>-1.24</v>
-    <v>-7.6290000000000004E-3</v>
-    <v>0.7</v>
-    <v>4.3400000000000001E-3</v>
+    <v>0.4738</v>
+    <v>-0.95</v>
+    <v>-5.9370000000000004E-3</v>
     <v>USD</v>
     <v>Novo Nordisk A/S is a global healthcare company engaged in diabetes care. The Company is also engaged in the discovery, development, manufacturing and marketing of pharmaceutical products. The Company operates through two business segments: diabetes and obesity care, and biopharmaceuticals. The Company's diabetes and obesity care segment covers insulin, GLP-1, other protein-related products, such as glucagon, protein-related delivery systems and needles, and oral anti-diabetic drugs. The Company's biopharmaceuticals segment covers the therapy areas of hemophilia care, growth hormone therapy and hormone replacement therapy. The Company also offers Saxenda product to treat obesity. It offers a range of products, including NovoLog/NovoRapid; NovoLog Mix/NovoMix; Prandin/NovoNorm; NovoSeven; Norditropin, and Vagifem. As of December 31, 2016, it marketed its products in over 180 countries. Its regional structure consists of two commercial units: North America and International Operations.</v>
     <v>57089</v>
@@ -2614,25 +2739,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>Novo Alle 1, BAGSVAERD, DENMARK-NA, 2880 DK</v>
-    <v>162.69999999999999</v>
+    <v>159.80009999999999</v>
     <v>Pharmaceuticals</v>
     <v>Stock</v>
-    <v>45093.999837430471</v>
+    <v>45100.999335925779</v>
     <v>3</v>
-    <v>161.22</v>
-    <v>1896878000000</v>
+    <v>158.18</v>
+    <v>275016400000</v>
     <v>Novo Nordisk A/S</v>
     <v>Novo Nordisk A/S</v>
-    <v>162.54</v>
-    <v>41.542499999999997</v>
-    <v>162.53</v>
-    <v>161.29</v>
-    <v>161.99</v>
+    <v>158.47999999999999</v>
+    <v>40.658099999999997</v>
+    <v>160.02000000000001</v>
+    <v>159.07</v>
     <v>1717564000</v>
     <v>NVO</v>
     <v>Novo Nordisk A/S (XNYS:NVO)</v>
-    <v>1051903</v>
-    <v>1305264</v>
+    <v>6391</v>
+    <v>1381259</v>
     <v>1931</v>
   </rv>
   <rv s="2">
@@ -2642,7 +2766,7 @@
 </file>
 
 <file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
-<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="4">
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="3">
   <s t="_hyperlink">
     <k n="Address" t="s"/>
     <k n="Text" t="s"/>
@@ -2694,59 +2818,12 @@
   <s t="_linkedentity">
     <k n="%cvi" t="r"/>
   </s>
-  <s t="_linkedentitycore">
-    <k n="_Display" t="spb"/>
-    <k n="_DisplayString" t="s"/>
-    <k n="_Flags" t="spb"/>
-    <k n="_Format" t="spb"/>
-    <k n="_Icon" t="s"/>
-    <k n="_SubLabel" t="spb"/>
-    <k n="%EntityCulture" t="s"/>
-    <k n="%EntityId" t="s"/>
-    <k n="%EntityServiceId"/>
-    <k n="%IsRefreshable" t="b"/>
-    <k n="%ProviderInfo" t="s"/>
-    <k n="52 week high"/>
-    <k n="52 week low"/>
-    <k n="Beta"/>
-    <k n="Change"/>
-    <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
-    <k n="Currency" t="s"/>
-    <k n="Description" t="s"/>
-    <k n="Employees"/>
-    <k n="Exchange" t="s"/>
-    <k n="Exchange abbreviation" t="s"/>
-    <k n="ExchangeID" t="s"/>
-    <k n="Headquarters" t="s"/>
-    <k n="High"/>
-    <k n="Industry" t="s"/>
-    <k n="Instrument type" t="s"/>
-    <k n="Last trade time"/>
-    <k n="LearnMoreOnLink" t="r"/>
-    <k n="Low"/>
-    <k n="Market cap"/>
-    <k n="Name" t="s"/>
-    <k n="Official name" t="s"/>
-    <k n="Open"/>
-    <k n="P/E"/>
-    <k n="Previous close"/>
-    <k n="Price"/>
-    <k n="Price (Extended hours)"/>
-    <k n="Shares outstanding"/>
-    <k n="Ticker symbol" t="s"/>
-    <k n="UniqueName" t="s"/>
-    <k n="Volume"/>
-    <k n="Volume average"/>
-    <k n="Year incorporated"/>
-  </s>
 </rvStructures>
 </file>
 
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
-  <spbArrays count="2">
+  <spbArrays count="1">
     <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
@@ -2791,55 +2868,8 @@
       <v t="s">ExchangeID</v>
       <v t="s">%ProviderInfo</v>
     </a>
-    <a count="45">
-      <v t="s">%EntityServiceId</v>
-      <v t="s">_Format</v>
-      <v t="s">%IsRefreshable</v>
-      <v t="s">%EntityCulture</v>
-      <v t="s">%EntityId</v>
-      <v t="s">_Icon</v>
-      <v t="s">_Display</v>
-      <v t="s">Name</v>
-      <v t="s">_SubLabel</v>
-      <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
-      <v t="s">Exchange</v>
-      <v t="s">Official name</v>
-      <v t="s">Last trade time</v>
-      <v t="s">Ticker symbol</v>
-      <v t="s">Exchange abbreviation</v>
-      <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
-      <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
-      <v t="s">Currency</v>
-      <v t="s">Previous close</v>
-      <v t="s">Open</v>
-      <v t="s">High</v>
-      <v t="s">Low</v>
-      <v t="s">52 week high</v>
-      <v t="s">52 week low</v>
-      <v t="s">Volume</v>
-      <v t="s">Volume average</v>
-      <v t="s">Market cap</v>
-      <v t="s">Beta</v>
-      <v t="s">P/E</v>
-      <v t="s">Shares outstanding</v>
-      <v t="s">Description</v>
-      <v t="s">Employees</v>
-      <v t="s">Headquarters</v>
-      <v t="s">Industry</v>
-      <v t="s">Instrument type</v>
-      <v t="s">Year incorporated</v>
-      <v t="s">_Flags</v>
-      <v t="s">UniqueName</v>
-      <v t="s">_DisplayString</v>
-      <v t="s">LearnMoreOnLink</v>
-      <v t="s">ExchangeID</v>
-      <v t="s">%ProviderInfo</v>
-    </a>
   </spbArrays>
-  <spbData count="8">
+  <spbData count="7">
     <spb s="0">
       <v>0</v>
       <v>Name</v>
@@ -2884,12 +2914,7 @@
       <v>from previous close</v>
       <v>GMT</v>
     </spb>
-    <spb s="0">
-      <v>1</v>
-      <v>Name</v>
-      <v>LearnMoreOnLink</v>
-    </spb>
-    <spb s="5">
+    <spb s="3">
       <v>10</v>
       <v>2</v>
       <v>2</v>
@@ -2901,7 +2926,7 @@
       <v>4</v>
       <v>4</v>
       <v>5</v>
-      <v>6</v>
+      <v>11</v>
       <v>10</v>
       <v>10</v>
       <v>10</v>
@@ -2910,26 +2935,20 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>10</v>
-      <v>10</v>
-      <v>5</v>
     </spb>
-    <spb s="6">
-      <v>at close</v>
+    <spb s="5">
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
 </file>
 
 <file path=xl/richData/rdsupportingpropertybagstructure.xml><?xml version="1.0" encoding="utf-8"?>
-<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="7">
+<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="6">
   <s>
     <k n="^Order" t="spba"/>
     <k n="TitleProperty" t="s"/>
@@ -2975,39 +2994,11 @@
     <k n="Last trade time" t="s"/>
   </s>
   <s>
-    <k n="Low" t="i"/>
-    <k n="P/E" t="i"/>
-    <k n="Beta" t="i"/>
-    <k n="High" t="i"/>
-    <k n="Name" t="i"/>
-    <k n="Open" t="i"/>
-    <k n="Price" t="i"/>
-    <k n="Change" t="i"/>
-    <k n="Volume" t="i"/>
-    <k n="Employees" t="i"/>
-    <k n="Change (%)" t="i"/>
-    <k n="Market cap" t="i"/>
-    <k n="52 week low" t="i"/>
-    <k n="52 week high" t="i"/>
-    <k n="Previous close" t="i"/>
-    <k n="Volume average" t="i"/>
-    <k n="Last trade time" t="i"/>
-    <k n="Year incorporated" t="i"/>
-    <k n="`%EntityServiceId" t="i"/>
-    <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
-  </s>
-  <s>
     <k n="Price" t="s"/>
     <k n="Change" t="s"/>
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -3067,6 +3058,9 @@
     </rSty>
     <rSty dxfid="1">
       <rpv i="0">_([$$-en-US]* #,##0.00_);_([$$-en-US]* (#,##0.00);_([$$-en-US]* "-"??_);_(@_)</rpv>
+    </rSty>
+    <rSty dxfid="1">
+      <rpv i="0">_([$$-en-US]* #,##0_);_([$$-en-US]* (#,##0);_([$$-en-US]* "-"_);_(@_)</rpv>
     </rSty>
   </richStyles>
 </richStyleSheet>
@@ -3372,10 +3366,10 @@
   <dimension ref="A1:AV118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AI90" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AJ98" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AO99" sqref="AO99"/>
+      <selection pane="bottomRight" activeCell="AR100" sqref="AR100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3524,127 +3518,127 @@
         <v>0</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Y2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AA2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AB2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AC2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AD2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AE2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AF2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AG2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AI2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AJ2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AK2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AL2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AM2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AN2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AO2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AP2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AQ2" s="9"/>
       <c r="AR2" s="9"/>
@@ -3771,33 +3765,33 @@
         <v>222520000000</v>
       </c>
       <c r="AO3" s="28">
-        <v>256414000000</v>
+        <v>257800000000</v>
       </c>
       <c r="AP3" s="28">
-        <v>289664000000</v>
+        <v>291400000000</v>
       </c>
       <c r="AQ3" s="28">
-        <v>312764000000</v>
+        <v>321900000000</v>
       </c>
       <c r="AR3" s="28">
-        <v>343281000000</v>
+        <v>361200000000</v>
       </c>
       <c r="AS3" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="AT3" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="AT3" s="19" t="s">
+      <c r="AU3" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="AU3" s="19" t="s">
+      <c r="AV3" s="19" t="s">
         <v>111</v>
-      </c>
-      <c r="AV3" s="19" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="15">
@@ -3954,19 +3948,19 @@
       </c>
       <c r="AO4" s="16">
         <f t="shared" si="0"/>
-        <v>0.15231889268380372</v>
+        <v>0.15854754628797418</v>
       </c>
       <c r="AP4" s="16">
         <f t="shared" si="0"/>
-        <v>0.1296731067726411</v>
+        <v>0.13033359193173011</v>
       </c>
       <c r="AQ4" s="16">
         <f t="shared" si="0"/>
-        <v>7.9747569597878876E-2</v>
+        <v>0.10466712422786539</v>
       </c>
       <c r="AR4" s="16">
         <f t="shared" si="0"/>
-        <v>9.7571971198731289E-2</v>
+        <v>0.12208760484622561</v>
       </c>
       <c r="AS4" s="17">
         <f>(AM4+AL4+AK4)/3</f>
@@ -3981,7 +3975,7 @@
         <v>0.12594170156923759</v>
       </c>
       <c r="AV4" s="17">
-        <f>(AM105+AL105+AK105)/3</f>
+        <f>(AM106+AL106+AK106)/3</f>
         <v>0.26040140392943534</v>
       </c>
     </row>
@@ -4223,16 +4217,16 @@
         <v>148506000000</v>
       </c>
       <c r="AS6" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="AT6" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="AT6" s="19" t="s">
+      <c r="AU6" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="AU6" s="19" t="s">
+      <c r="AV6" s="19" t="s">
         <v>115</v>
-      </c>
-      <c r="AV6" s="19" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -4366,7 +4360,7 @@
         <v>0.31380000000000002</v>
       </c>
       <c r="AV7" s="20">
-        <f>AM106/AM3</f>
+        <f>AM107/AM3</f>
         <v>0.36243317472337444</v>
       </c>
     </row>
@@ -4375,40 +4369,40 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N8" s="1">
         <v>2769619590</v>
@@ -4491,7 +4485,7 @@
     </row>
     <row r="9" spans="1:48" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B9" s="15" t="e">
         <f>B8/B3</f>
@@ -4646,16 +4640,16 @@
         <v>0.13589407416616747</v>
       </c>
       <c r="AS9" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="AT9" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="AT9" s="19" t="s">
+      <c r="AU9" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="AU9" s="19" t="s">
+      <c r="AV9" s="19" t="s">
         <v>98</v>
-      </c>
-      <c r="AV9" s="19" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -4663,76 +4657,76 @@
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z10" s="1">
         <v>2764000000</v>
@@ -4798,76 +4792,76 @@
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z11" s="1">
         <v>15420000000</v>
@@ -4917,76 +4911,76 @@
         <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V12" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W12" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X12" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y12" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z12" s="1">
         <v>18184000000</v>
@@ -5031,21 +5025,21 @@
         <v>50684000000</v>
       </c>
       <c r="AS12" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="AT12" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="AT12" s="19" t="s">
+      <c r="AU12" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="AU12" s="19" t="s">
+      <c r="AV12" s="19" t="s">
         <v>119</v>
-      </c>
-      <c r="AV12" s="19" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B13" s="15" t="e">
         <f>B12/B3</f>
@@ -5293,13 +5287,13 @@
         <v>15250569200</v>
       </c>
       <c r="Z14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA14" s="1">
         <v>-1314000000</v>
       </c>
       <c r="AB14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC14" s="1">
         <v>-666000000</v>
@@ -5454,16 +5448,16 @@
         <v>73697000000</v>
       </c>
       <c r="AS15" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="AT15" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="AT15" s="19" t="s">
+      <c r="AU15" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="AU15" s="19" t="s">
+      <c r="AV15" s="19" t="s">
         <v>123</v>
-      </c>
-      <c r="AV15" s="19" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -5597,85 +5591,85 @@
         <v>14.028805042773525</v>
       </c>
       <c r="AV16" s="31">
-        <f>AU101/AM106</f>
+        <f>AU101/AM107</f>
         <v>12.145654411076809</v>
       </c>
     </row>
-    <row r="17" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z17" s="1">
         <v>1265000000</v>
@@ -5720,7 +5714,7 @@
         <v>378000000</v>
       </c>
     </row>
-    <row r="18" spans="1:45" ht="20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:48" ht="20" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>13</v>
       </c>
@@ -5803,7 +5797,7 @@
         <v>2467000000</v>
       </c>
       <c r="AB18" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC18" s="1">
         <v>2693000000</v>
@@ -5839,10 +5833,19 @@
         <v>7362000000</v>
       </c>
       <c r="AS18" s="18" t="s">
-        <v>125</v>
+        <v>124</v>
+      </c>
+      <c r="AT18" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="AU18" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="AV18" s="19" t="s">
+        <v>161</v>
       </c>
     </row>
-    <row r="19" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>14</v>
       </c>
@@ -5959,15 +5962,42 @@
       </c>
       <c r="AM19" s="10">
         <v>76802000000</v>
+      </c>
+      <c r="AN19" s="80">
+        <v>104100000000</v>
+      </c>
+      <c r="AO19" s="80">
+        <v>122600000000</v>
+      </c>
+      <c r="AP19" s="80">
+        <v>140100000000</v>
+      </c>
+      <c r="AQ19" s="80">
+        <v>159100000000</v>
+      </c>
+      <c r="AR19" s="80">
+        <v>180100000000</v>
       </c>
       <c r="AS19" s="32">
         <f>AM40-AM56-AM61</f>
         <v>-2210000000</v>
       </c>
+      <c r="AT19" s="67">
+        <f>AU101/AN3</f>
+        <v>3.5005815207621787</v>
+      </c>
+      <c r="AU19" s="67">
+        <f>AU101/AN28</f>
+        <v>9.8405624265699814</v>
+      </c>
+      <c r="AV19" s="68">
+        <f>AU101/AN106</f>
+        <v>11.032808804158464</v>
+      </c>
     </row>
-    <row r="20" spans="1:45" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:48" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="15">
@@ -6114,12 +6144,32 @@
         <f t="shared" si="3"/>
         <v>0.10326792974878951</v>
       </c>
-      <c r="AM20" s="15">
+      <c r="AM20" s="75">
         <f t="shared" si="3"/>
         <v>0.17445025537511083</v>
       </c>
+      <c r="AN20" s="81">
+        <f t="shared" ref="AN20" si="4">(AN19/AM19)-1</f>
+        <v>0.35543345225384759</v>
+      </c>
+      <c r="AO20" s="81">
+        <f t="shared" ref="AO20" si="5">(AO19/AN19)-1</f>
+        <v>0.17771373679154667</v>
+      </c>
+      <c r="AP20" s="81">
+        <f t="shared" ref="AP20" si="6">(AP19/AO19)-1</f>
+        <v>0.14274061990212061</v>
+      </c>
+      <c r="AQ20" s="81">
+        <f t="shared" ref="AQ20" si="7">(AQ19/AP19)-1</f>
+        <v>0.13561741613133482</v>
+      </c>
+      <c r="AR20" s="81">
+        <f t="shared" ref="AR20" si="8">(AR19/AQ19)-1</f>
+        <v>0.13199245757385292</v>
+      </c>
     </row>
-    <row r="21" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:48" ht="20" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
@@ -6234,11 +6284,37 @@
       <c r="AL21" s="2">
         <v>0.46439999999999998</v>
       </c>
-      <c r="AM21" s="2">
+      <c r="AM21" s="76">
         <v>0.434</v>
       </c>
+      <c r="AN21" s="82">
+        <f>AN19/AN3</f>
+        <v>0.46782311702318891</v>
+      </c>
+      <c r="AO21" s="82">
+        <f t="shared" ref="AO21:AR21" si="9">AO19/AO3</f>
+        <v>0.47556245151280063</v>
+      </c>
+      <c r="AP21" s="82">
+        <f t="shared" si="9"/>
+        <v>0.4807824296499657</v>
+      </c>
+      <c r="AQ21" s="82">
+        <f t="shared" si="9"/>
+        <v>0.4942528735632184</v>
+      </c>
+      <c r="AR21" s="82">
+        <f t="shared" si="9"/>
+        <v>0.49861572535991139</v>
+      </c>
+      <c r="AU21" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="AV21" s="19" t="s">
+        <v>163</v>
+      </c>
     </row>
-    <row r="22" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>16</v>
       </c>
@@ -6353,11 +6429,19 @@
       <c r="AL22" s="10">
         <v>58644000000</v>
       </c>
-      <c r="AM22" s="10">
+      <c r="AM22" s="74">
         <v>74809000000</v>
       </c>
+      <c r="AU22" s="69">
+        <f>(-1*AM98)/AU101</f>
+        <v>3.248349636061084E-2</v>
+      </c>
+      <c r="AV22" s="70">
+        <f>AM107/AU101</f>
+        <v>8.2333974453282846E-2</v>
+      </c>
     </row>
-    <row r="23" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>17</v>
       </c>
@@ -6476,7 +6560,7 @@
         <v>0.42280000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>18</v>
       </c>
@@ -6595,7 +6679,7 @@
         <v>-5747000000</v>
       </c>
     </row>
-    <row r="25" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>19</v>
       </c>
@@ -6714,7 +6798,7 @@
         <v>69062000000</v>
       </c>
     </row>
-    <row r="26" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>20</v>
       </c>
@@ -6833,7 +6917,7 @@
         <v>0.39029999999999998</v>
       </c>
     </row>
-    <row r="27" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>21</v>
       </c>
@@ -6952,7 +7036,7 @@
         <v>13537000000</v>
       </c>
     </row>
-    <row r="28" spans="1:45" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:48" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>22</v>
       </c>
@@ -7070,10 +7154,25 @@
       <c r="AM28" s="11">
         <v>55525000000</v>
       </c>
+      <c r="AN28" s="77">
+        <v>79157000000</v>
+      </c>
+      <c r="AO28" s="77">
+        <v>90647000000</v>
+      </c>
+      <c r="AP28" s="77">
+        <v>103700000000</v>
+      </c>
+      <c r="AQ28" s="77">
+        <v>115200000000</v>
+      </c>
+      <c r="AR28" s="77">
+        <v>126100000000</v>
+      </c>
     </row>
-    <row r="29" spans="1:45" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:48" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="15">
@@ -7089,143 +7188,163 @@
         <v>0.32785516862675212</v>
       </c>
       <c r="F29" s="15">
-        <f t="shared" ref="F29:AM29" si="4">(F28/E28)-1</f>
+        <f t="shared" ref="F29:AM29" si="10">(F28/E28)-1</f>
         <v>0.1694283275059445</v>
       </c>
       <c r="G29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>1.8947856647587802E-2</v>
       </c>
       <c r="H29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.22374308268571763</v>
       </c>
       <c r="I29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.36819939248127453</v>
       </c>
       <c r="J29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.12387715706944413</v>
       </c>
       <c r="K29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>7.6649905005599095E-4</v>
       </c>
       <c r="L29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>9.1021201488125314E-2</v>
       </c>
       <c r="M29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.1541842972651708</v>
       </c>
       <c r="N29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.23111310925984307</v>
       </c>
       <c r="O29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>8.5459214420868346E-2</v>
       </c>
       <c r="P29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>5.6373158953437752E-4</v>
       </c>
       <c r="Q29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.28133055014833563</v>
       </c>
       <c r="R29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.24708438546941514</v>
       </c>
       <c r="S29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>6.2241975622233658E-2</v>
       </c>
       <c r="T29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.19095041668556845</v>
       </c>
       <c r="U29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>3.6272177660691129E-2</v>
       </c>
       <c r="V29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.15996169137874983</v>
       </c>
       <c r="W29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.10186941513952097</v>
       </c>
       <c r="X29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.32268488698842823</v>
       </c>
       <c r="Y29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.13247840196193073</v>
       </c>
       <c r="Z29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.11400735551082519</v>
       </c>
       <c r="AA29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.33757429420505192</v>
       </c>
       <c r="AB29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.1870443657571339</v>
       </c>
       <c r="AC29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.25355325495701009</v>
       </c>
       <c r="AD29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.17506532288167231</v>
       </c>
       <c r="AE29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>5.1500952986022863E-2</v>
       </c>
       <c r="AF29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.31641554321966692</v>
       </c>
       <c r="AG29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>8.7923121055651254E-2</v>
       </c>
       <c r="AH29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>5.4054054054053502E-3</v>
       </c>
       <c r="AI29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>1.3060582218725303E-2</v>
       </c>
       <c r="AJ29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>8.3618100859479405E-3</v>
       </c>
       <c r="AK29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>8.1820749146363392E-2</v>
       </c>
       <c r="AL29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.13334757226256588</v>
       </c>
       <c r="AM29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.16265678329878352</v>
       </c>
+      <c r="AN29" s="16">
+        <f t="shared" ref="AN29" si="11">(AN28/AM28)-1</f>
+        <v>0.42561008554705082</v>
+      </c>
+      <c r="AO29" s="16">
+        <f t="shared" ref="AO29" si="12">(AO28/AN28)-1</f>
+        <v>0.14515456624177259</v>
+      </c>
+      <c r="AP29" s="16">
+        <f t="shared" ref="AP29" si="13">(AP28/AO28)-1</f>
+        <v>0.14399814665681165</v>
+      </c>
+      <c r="AQ29" s="16">
+        <f t="shared" ref="AQ29" si="14">(AQ28/AP28)-1</f>
+        <v>0.11089681774349081</v>
+      </c>
+      <c r="AR29" s="16">
+        <f t="shared" ref="AR29" si="15">(AR28/AQ28)-1</f>
+        <v>9.461805555555558E-2</v>
+      </c>
     </row>
-    <row r="30" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>23</v>
       </c>
@@ -7343,8 +7462,28 @@
       <c r="AM30" s="2">
         <v>0.31380000000000002</v>
       </c>
+      <c r="AN30" s="78">
+        <f>AN28/AN3</f>
+        <v>0.35572982203846848</v>
+      </c>
+      <c r="AO30" s="78">
+        <f t="shared" ref="AO30:AR30" si="16">AO28/AO3</f>
+        <v>0.35161753297129555</v>
+      </c>
+      <c r="AP30" s="78">
+        <f t="shared" si="16"/>
+        <v>0.35586822237474264</v>
+      </c>
+      <c r="AQ30" s="78">
+        <f t="shared" si="16"/>
+        <v>0.35787511649580617</v>
+      </c>
+      <c r="AR30" s="78">
+        <f t="shared" si="16"/>
+        <v>0.3491140642303433</v>
+      </c>
     </row>
-    <row r="31" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>24</v>
       </c>
@@ -7462,8 +7601,23 @@
       <c r="AM31" s="12">
         <v>24.51</v>
       </c>
+      <c r="AN31" s="79">
+        <v>35.31</v>
+      </c>
+      <c r="AO31" s="79">
+        <v>40.43</v>
+      </c>
+      <c r="AP31" s="79">
+        <v>46.27</v>
+      </c>
+      <c r="AQ31" s="79">
+        <v>51.37</v>
+      </c>
+      <c r="AR31" s="79">
+        <v>56.26</v>
+      </c>
     </row>
-    <row r="32" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>25</v>
       </c>
@@ -7822,7 +7976,7 @@
     </row>
     <row r="35" spans="1:39" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="22">
@@ -7830,147 +7984,147 @@
         <v>9.7977245579556511E-3</v>
       </c>
       <c r="D35" s="22">
-        <f t="shared" ref="D35:AM35" si="5">(D34-C34)/C34</f>
+        <f t="shared" ref="D35:AM35" si="17">(D34-C34)/C34</f>
         <v>2.4534301969066558E-3</v>
       </c>
       <c r="E35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>1.4100394846999979E-2</v>
       </c>
       <c r="F35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>0.56419334956343159</v>
       </c>
       <c r="G35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>-0.22291113084935027</v>
       </c>
       <c r="H35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>-7.0330969156418191E-2</v>
       </c>
       <c r="I35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>0.28989192609930209</v>
       </c>
       <c r="J35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>4.0484404144360063E-4</v>
       </c>
       <c r="K35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>-5.9646342239579632E-3</v>
       </c>
       <c r="L35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>5.5734917069975437E-3</v>
       </c>
       <c r="M35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>-5.7303577010051768E-3</v>
       </c>
       <c r="N35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>8.7804915469153512E-3</v>
       </c>
       <c r="O35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>-1.6123079926645242E-2</v>
       </c>
       <c r="P35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>-3.5710865348832582E-2</v>
       </c>
       <c r="Q35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>-2.3353578015036697E-2</v>
       </c>
       <c r="R35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>-6.8402306721917433E-3</v>
       </c>
       <c r="S35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>6.58470515755262E-3</v>
       </c>
       <c r="T35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>-1.4568952429014757E-2</v>
       </c>
       <c r="U35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>-1.3096228056373803E-2</v>
       </c>
       <c r="V35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>-2.9530204770563007E-2</v>
       </c>
       <c r="W35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>-1.9784737262642241E-2</v>
       </c>
       <c r="X35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>-1.5806926419427103E-2</v>
       </c>
       <c r="Y35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>-2.0537015244363289E-2</v>
       </c>
       <c r="Z35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>-2.9514501883423559E-2</v>
       </c>
       <c r="AA35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>-3.1074231022110831E-2</v>
       </c>
       <c r="AB35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>-2.6227369168253595E-2</v>
       </c>
       <c r="AC35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>-3.2385482660155895E-2</v>
       </c>
       <c r="AD35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>-2.3461574715227276E-2</v>
       </c>
       <c r="AE35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>-2.3734872151839993E-2</v>
       </c>
       <c r="AF35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>-1.9504103513591688E-2</v>
       </c>
       <c r="AG35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>-1.6938150367436424E-2</v>
       </c>
       <c r="AH35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>-2.2344006006164763E-2</v>
       </c>
       <c r="AI35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>-2.1660204035926011E-2</v>
       </c>
       <c r="AJ35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>-1.8874228319633132E-2</v>
       </c>
       <c r="AK35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>-1.6252021097610501E-2</v>
       </c>
       <c r="AL35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>-2.6068376068376069E-3</v>
       </c>
       <c r="AM35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>-2.6393590128111745E-2</v>
       </c>
     </row>
@@ -7979,118 +8133,118 @@
         <v>28</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="U36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="V36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="W36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="X36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Y36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Z36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AA36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AB36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AC36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AD36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AE36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AF36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AG36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AH36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AI36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AK36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AL36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AM36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:39" ht="21" x14ac:dyDescent="0.25">
@@ -8098,118 +8252,118 @@
         <v>29</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Y37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AA37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AB37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AC37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AD37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AE37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AF37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AG37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AI37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AJ37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AK37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AL37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AM37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -8336,52 +8490,52 @@
         <v>31</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R39" s="1">
         <v>1395119670</v>
@@ -8432,16 +8586,16 @@
         <v>2009000000</v>
       </c>
       <c r="AH39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL39" s="1">
         <v>6765000000</v>
@@ -8812,7 +8966,7 @@
         <v>35</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C43" s="1">
         <v>-734250</v>
@@ -8824,28 +8978,28 @@
         <v>687400</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N43" s="1">
         <v>4234197168</v>
@@ -8860,7 +9014,7 @@
         <v>2574805200</v>
       </c>
       <c r="R43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S43" s="1">
         <v>1401382620</v>
@@ -9169,67 +9323,67 @@
         <v>38</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W46" s="1">
         <v>16951800</v>
@@ -9238,43 +9392,43 @@
         <v>66482000</v>
       </c>
       <c r="Y46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA46" s="1">
         <v>70000000</v>
       </c>
       <c r="AB46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL46" s="1">
         <v>4346000000</v>
@@ -9526,76 +9680,76 @@
         <v>41</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z49" s="1">
         <v>176000000</v>
@@ -9645,61 +9799,61 @@
         <v>42</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U50" s="1">
         <v>773781210</v>
@@ -9845,25 +9999,25 @@
         <v>234000000</v>
       </c>
       <c r="AC51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ51" s="1">
         <v>841000000</v>
@@ -10002,118 +10156,118 @@
         <v>45</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="54" spans="1:39" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -10240,19 +10394,19 @@
         <v>47</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G55" s="1">
         <v>653265600</v>
@@ -10478,76 +10632,76 @@
         <v>49</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z57" s="1">
         <v>701000000</v>
@@ -10597,118 +10751,118 @@
         <v>50</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="59" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -11035,25 +11189,25 @@
         <v>502000000</v>
       </c>
       <c r="AC61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ61" s="1">
         <v>3009000000</v>
@@ -11073,118 +11227,118 @@
         <v>50</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="63" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -11195,40 +11349,40 @@
         <v>46612800</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O63" s="1">
         <v>1554040880</v>
@@ -11549,118 +11703,118 @@
         <v>57</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="67" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -11787,43 +11941,43 @@
         <v>59</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O68" s="1">
         <v>754091968</v>
@@ -12097,7 +12251,7 @@
         <v>-1064490800</v>
       </c>
       <c r="Z70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA70" s="1">
         <v>-17711000000</v>
@@ -12255,7 +12409,7 @@
         <v>-6000000</v>
       </c>
       <c r="AM71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="72" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -12501,118 +12655,118 @@
         <v>28</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="U74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="V74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="W74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="X74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Y74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Z74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AA74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AB74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AC74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AD74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AE74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AF74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AG74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AH74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AI74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AK74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AL74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AM74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="75" spans="1:39" ht="21" x14ac:dyDescent="0.25">
@@ -12620,118 +12774,118 @@
         <v>65</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Y75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AA75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AB75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AC75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AD75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AE75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AF75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AG75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AI75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AJ75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AK75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AL75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AM75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -12739,19 +12893,19 @@
         <v>66</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G76" s="1">
         <v>760121600</v>
@@ -12858,19 +13012,19 @@
         <v>13</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G77" s="1">
         <v>520417600</v>
@@ -12936,7 +13090,7 @@
         <v>2467000000</v>
       </c>
       <c r="AB77" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC77" s="1">
         <v>2693000000</v>
@@ -12977,19 +13131,19 @@
         <v>67</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G78" s="1">
         <v>-26569600</v>
@@ -13010,52 +13164,52 @@
         <v>592439800</v>
       </c>
       <c r="M78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N78" s="1">
         <v>-143102718</v>
       </c>
       <c r="O78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC78" s="1">
         <v>6379000000</v>
@@ -13096,85 +13250,85 @@
         <v>68</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC79" s="1">
         <v>308000000</v>
@@ -13212,158 +13366,158 @@
     </row>
     <row r="80" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B80" s="15" t="e">
-        <f t="shared" ref="B80:AM80" si="6">B79/B3</f>
+        <f t="shared" ref="B80:AM80" si="18">B79/B3</f>
         <v>#VALUE!</v>
       </c>
       <c r="C80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
       <c r="D80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
       <c r="E80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
       <c r="F80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
       <c r="G80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
       <c r="H80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
       <c r="I80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
       <c r="J80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
       <c r="K80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
       <c r="L80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
       <c r="M80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
       <c r="N80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
       <c r="O80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
       <c r="P80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
       <c r="Q80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
       <c r="R80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
       <c r="S80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
       <c r="T80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
       <c r="U80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
       <c r="V80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
       <c r="W80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
       <c r="X80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
       <c r="Y80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
       <c r="Z80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
       <c r="AB80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
       <c r="AC80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>3.9474021480019484E-3</v>
       </c>
       <c r="AD80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>4.8939836308811565E-3</v>
       </c>
       <c r="AE80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>4.1776456545728896E-3</v>
       </c>
       <c r="AF80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>4.0953607531016333E-3</v>
       </c>
       <c r="AG80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>3.2921810699588477E-3</v>
       </c>
       <c r="AH80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>2.6142386477582009E-3</v>
       </c>
       <c r="AI80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>3.7020146471014297E-3</v>
       </c>
       <c r="AJ80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>2.9748977634997255E-3</v>
       </c>
       <c r="AK80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>6.4830715422305547E-3</v>
       </c>
       <c r="AL80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>7.3863636363636362E-3</v>
       </c>
       <c r="AM80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>8.6971755371452464E-3</v>
       </c>
     </row>
@@ -13372,19 +13526,19 @@
         <v>69</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G81" s="1">
         <v>294576000</v>
@@ -13491,76 +13645,76 @@
         <v>70</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z82" s="1">
         <v>-740000000</v>
@@ -13610,19 +13764,19 @@
         <v>34</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G83" s="1">
         <v>140934400</v>
@@ -13723,86 +13877,86 @@
       <c r="AM83" s="1">
         <v>-4767000000</v>
       </c>
-      <c r="AT83" s="64" t="s">
-        <v>126</v>
-      </c>
-      <c r="AU83" s="65"/>
+      <c r="AT83" s="63" t="s">
+        <v>125</v>
+      </c>
+      <c r="AU83" s="64"/>
     </row>
     <row r="84" spans="1:47" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z84" s="1">
         <v>921000000</v>
@@ -13846,89 +14000,89 @@
       <c r="AM84" s="1">
         <v>6717000000</v>
       </c>
-      <c r="AT84" s="66" t="s">
-        <v>127</v>
-      </c>
-      <c r="AU84" s="67"/>
+      <c r="AT84" s="65" t="s">
+        <v>126</v>
+      </c>
+      <c r="AU84" s="66"/>
     </row>
     <row r="85" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>71</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA85" s="1">
         <v>43000000</v>
@@ -13970,7 +14124,7 @@
         <v>1160000000</v>
       </c>
       <c r="AT85" s="23" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AU85" s="24">
         <f>AM17</f>
@@ -13982,19 +14136,19 @@
         <v>72</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G86" s="1">
         <v>-44475200</v>
@@ -14096,7 +14250,7 @@
         <v>6260000000</v>
       </c>
       <c r="AT86" s="23" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AU86" s="24">
         <f>AM56</f>
@@ -14108,19 +14262,19 @@
         <v>73</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E87" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F87" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G87" s="10">
         <v>1504070400</v>
@@ -14222,7 +14376,7 @@
         <v>78887000000</v>
       </c>
       <c r="AT87" s="23" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AU87" s="24">
         <f>AM61</f>
@@ -14234,19 +14388,19 @@
         <v>74</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G88" s="1">
         <v>-1171372800</v>
@@ -14348,7 +14502,7 @@
         <v>-12146000000</v>
       </c>
       <c r="AT88" s="33" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AU88" s="34">
         <f>AU85/(AU86+AU87)</f>
@@ -14357,162 +14511,162 @@
     </row>
     <row r="89" spans="1:47" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B89" s="15" t="e">
+        <f t="shared" ref="B89:AM89" si="19">(-1*B88)/B3</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C89" s="15" t="e">
+        <f t="shared" si="19"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D89" s="15" t="e">
+        <f t="shared" si="19"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E89" s="15" t="e">
+        <f t="shared" si="19"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F89" s="15" t="e">
+        <f t="shared" si="19"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G89" s="15">
+        <f t="shared" si="19"/>
+        <v>0.14058925476603121</v>
+      </c>
+      <c r="H89" s="15">
+        <f t="shared" si="19"/>
+        <v>0.13734809288894237</v>
+      </c>
+      <c r="I89" s="15">
+        <f t="shared" si="19"/>
+        <v>0.18292969668469317</v>
+      </c>
+      <c r="J89" s="15">
+        <f t="shared" si="19"/>
+        <v>0.18251835004652125</v>
+      </c>
+      <c r="K89" s="15">
+        <f t="shared" si="19"/>
+        <v>0.12852001799370222</v>
+      </c>
+      <c r="L89" s="15">
+        <f t="shared" si="19"/>
+        <v>0.10919818946007114</v>
+      </c>
+      <c r="M89" s="15">
+        <f t="shared" si="19"/>
+        <v>0.13741007194244603</v>
+      </c>
+      <c r="N89" s="15">
+        <f t="shared" si="19"/>
+        <v>0.15367869381173149</v>
+      </c>
+      <c r="O89" s="15">
+        <f t="shared" si="19"/>
+        <v>0.1194167852062589</v>
+      </c>
+      <c r="P89" s="15">
+        <f t="shared" si="19"/>
+        <v>9.21284857042005E-2</v>
+      </c>
+      <c r="Q89" s="15">
+        <f t="shared" si="19"/>
+        <v>0.11368015414258188</v>
+      </c>
+      <c r="R89" s="15">
+        <f t="shared" si="19"/>
+        <v>0.16590348714336034</v>
+      </c>
+      <c r="S89" s="15">
+        <f t="shared" si="19"/>
+        <v>0.1570061902082161</v>
+      </c>
+      <c r="T89" s="15">
+        <f t="shared" si="19"/>
+        <v>9.4423461453010449E-2</v>
+      </c>
+      <c r="U89" s="15">
+        <f t="shared" si="19"/>
+        <v>0.10812840247794256</v>
+      </c>
+      <c r="V89" s="15">
+        <f t="shared" si="19"/>
+        <v>0.11555721765145849</v>
+      </c>
+      <c r="W89" s="15">
+        <f t="shared" si="19"/>
+        <v>8.5593467483231267E-2</v>
+      </c>
+      <c r="X89" s="15">
+        <f t="shared" si="19"/>
+        <v>5.7990477353192529E-2</v>
+      </c>
+      <c r="Y89" s="15">
+        <f t="shared" si="19"/>
+        <v>4.4746398032095583E-2</v>
+      </c>
+      <c r="Z89" s="15">
+        <f t="shared" si="19"/>
+        <v>5.1529034026391009E-2</v>
+      </c>
+      <c r="AA89" s="15">
+        <f t="shared" si="19"/>
+        <v>5.5548242727392394E-2</v>
+      </c>
+      <c r="AB89" s="15">
+        <f t="shared" si="19"/>
+        <v>4.6317788562987974E-2</v>
+      </c>
+      <c r="AC89" s="15">
+        <f t="shared" si="19"/>
+        <v>4.3216363776177172E-2</v>
+      </c>
+      <c r="AD89" s="15">
+        <f t="shared" si="19"/>
+        <v>3.8745034221988224E-2</v>
+      </c>
+      <c r="AE89" s="15">
+        <f t="shared" si="19"/>
+        <v>4.4929396662387676E-2</v>
+      </c>
+      <c r="AF89" s="15">
+        <f t="shared" si="19"/>
+        <v>4.840308727195234E-2</v>
+      </c>
+      <c r="AG89" s="15">
+        <f t="shared" si="19"/>
+        <v>6.3231347289318299E-2</v>
+      </c>
+      <c r="AH89" s="15">
+        <f t="shared" si="19"/>
+        <v>6.8274602492479589E-2</v>
+      </c>
+      <c r="AI89" s="15">
+        <f t="shared" si="19"/>
+        <v>8.6165732220940525E-2</v>
+      </c>
+      <c r="AJ89" s="15">
+        <f t="shared" si="19"/>
+        <v>7.3200514665508393E-2</v>
+      </c>
+      <c r="AK89" s="15">
+        <f t="shared" si="19"/>
+        <v>4.5885652167063161E-2</v>
+      </c>
+      <c r="AL89" s="15">
+        <f t="shared" si="19"/>
+        <v>4.4992897727272725E-2</v>
+      </c>
+      <c r="AM89" s="15">
+        <f t="shared" si="19"/>
+        <v>6.8639307390621296E-2</v>
+      </c>
+      <c r="AT89" s="23" t="s">
         <v>105</v>
-      </c>
-      <c r="B89" s="15" t="e">
-        <f t="shared" ref="B89:AM89" si="7">(-1*B88)/B3</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C89" s="15" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D89" s="15" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E89" s="15" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F89" s="15" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.14058925476603121</v>
-      </c>
-      <c r="H89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.13734809288894237</v>
-      </c>
-      <c r="I89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.18292969668469317</v>
-      </c>
-      <c r="J89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.18251835004652125</v>
-      </c>
-      <c r="K89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.12852001799370222</v>
-      </c>
-      <c r="L89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.10919818946007114</v>
-      </c>
-      <c r="M89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.13741007194244603</v>
-      </c>
-      <c r="N89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.15367869381173149</v>
-      </c>
-      <c r="O89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.1194167852062589</v>
-      </c>
-      <c r="P89" s="15">
-        <f t="shared" si="7"/>
-        <v>9.21284857042005E-2</v>
-      </c>
-      <c r="Q89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.11368015414258188</v>
-      </c>
-      <c r="R89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.16590348714336034</v>
-      </c>
-      <c r="S89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.1570061902082161</v>
-      </c>
-      <c r="T89" s="15">
-        <f t="shared" si="7"/>
-        <v>9.4423461453010449E-2</v>
-      </c>
-      <c r="U89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.10812840247794256</v>
-      </c>
-      <c r="V89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.11555721765145849</v>
-      </c>
-      <c r="W89" s="15">
-        <f t="shared" si="7"/>
-        <v>8.5593467483231267E-2</v>
-      </c>
-      <c r="X89" s="15">
-        <f t="shared" si="7"/>
-        <v>5.7990477353192529E-2</v>
-      </c>
-      <c r="Y89" s="15">
-        <f t="shared" si="7"/>
-        <v>4.4746398032095583E-2</v>
-      </c>
-      <c r="Z89" s="15">
-        <f t="shared" si="7"/>
-        <v>5.1529034026391009E-2</v>
-      </c>
-      <c r="AA89" s="15">
-        <f t="shared" si="7"/>
-        <v>5.5548242727392394E-2</v>
-      </c>
-      <c r="AB89" s="15">
-        <f t="shared" si="7"/>
-        <v>4.6317788562987974E-2</v>
-      </c>
-      <c r="AC89" s="15">
-        <f t="shared" si="7"/>
-        <v>4.3216363776177172E-2</v>
-      </c>
-      <c r="AD89" s="15">
-        <f t="shared" si="7"/>
-        <v>3.8745034221988224E-2</v>
-      </c>
-      <c r="AE89" s="15">
-        <f t="shared" si="7"/>
-        <v>4.4929396662387676E-2</v>
-      </c>
-      <c r="AF89" s="15">
-        <f t="shared" si="7"/>
-        <v>4.840308727195234E-2</v>
-      </c>
-      <c r="AG89" s="15">
-        <f t="shared" si="7"/>
-        <v>6.3231347289318299E-2</v>
-      </c>
-      <c r="AH89" s="15">
-        <f t="shared" si="7"/>
-        <v>6.8274602492479589E-2</v>
-      </c>
-      <c r="AI89" s="15">
-        <f t="shared" si="7"/>
-        <v>8.6165732220940525E-2</v>
-      </c>
-      <c r="AJ89" s="15">
-        <f t="shared" si="7"/>
-        <v>7.3200514665508393E-2</v>
-      </c>
-      <c r="AK89" s="15">
-        <f t="shared" si="7"/>
-        <v>4.5885652167063161E-2</v>
-      </c>
-      <c r="AL89" s="15">
-        <f t="shared" si="7"/>
-        <v>4.4992897727272725E-2</v>
-      </c>
-      <c r="AM89" s="15">
-        <f t="shared" si="7"/>
-        <v>6.8639307390621296E-2</v>
-      </c>
-      <c r="AT89" s="23" t="s">
-        <v>106</v>
       </c>
       <c r="AU89" s="24">
         <f>AM27</f>
@@ -14524,112 +14678,112 @@
         <v>75</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL90" s="1">
         <v>-18283000000</v>
@@ -14650,94 +14804,94 @@
         <v>76</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R91" s="1">
         <v>-300744360</v>
       </c>
       <c r="S91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V91" s="1">
         <v>-1027548740</v>
       </c>
       <c r="W91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X91" s="1">
         <v>-542084000</v>
       </c>
       <c r="Y91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA91" s="1">
         <v>-2913000000</v>
       </c>
       <c r="AB91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC91" s="1">
         <v>-501000000</v>
       </c>
       <c r="AD91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF91" s="1">
         <v>-3542000000</v>
@@ -14755,7 +14909,7 @@
         <v>-350000000</v>
       </c>
       <c r="AK91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL91" s="1">
         <v>-7113000000</v>
@@ -14764,7 +14918,7 @@
         <v>-9735000000</v>
       </c>
       <c r="AT91" s="33" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AU91" s="34">
         <f>AU89/AU90</f>
@@ -14776,88 +14930,88 @@
         <v>77</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R92" s="1">
         <v>16708020</v>
       </c>
       <c r="S92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U92" s="1">
         <v>1317074400</v>
       </c>
       <c r="V92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W92" s="1">
         <v>514204600</v>
       </c>
       <c r="X92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y92" s="1">
         <v>465380400</v>
       </c>
       <c r="Z92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD92" s="1">
         <v>840000000</v>
@@ -14890,7 +15044,7 @@
         <v>6645000000</v>
       </c>
       <c r="AT92" s="35" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AU92" s="36">
         <f>AU88*(1-AU91)</f>
@@ -14902,19 +15056,19 @@
         <v>78</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G93" s="1">
         <v>-539478400</v>
@@ -15015,29 +15169,29 @@
       <c r="AM93" s="1">
         <v>-2607000000</v>
       </c>
-      <c r="AT93" s="66" t="s">
-        <v>134</v>
-      </c>
-      <c r="AU93" s="67"/>
+      <c r="AT93" s="65" t="s">
+        <v>133</v>
+      </c>
+      <c r="AU93" s="66"/>
     </row>
     <row r="94" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
         <v>79</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E94" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F94" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G94" s="10">
         <v>-1710851200</v>
@@ -15139,10 +15293,11 @@
         <v>-24918000000</v>
       </c>
       <c r="AT94" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="AU94" s="37">
-        <v>4.095E-2</v>
+        <v>134</v>
+      </c>
+      <c r="AU94" s="71">
+        <f>[1]Treasuries!$C$8</f>
+        <v>3.739E-2</v>
       </c>
     </row>
     <row r="95" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15150,82 +15305,82 @@
         <v>80</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB95" s="1">
         <v>-507000000</v>
@@ -15234,22 +15389,22 @@
         <v>-502000000</v>
       </c>
       <c r="AD95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ95" s="1">
         <v>-741000000</v>
@@ -15264,11 +15419,11 @@
         <v>-13623000000</v>
       </c>
       <c r="AT95" s="38" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AU95" s="39" cm="1">
         <f t="array" ref="AU95">_FV(A1,"Beta")</f>
-        <v>0.7611</v>
+        <v>0.76639999999999997</v>
       </c>
     </row>
     <row r="96" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15276,22 +15431,22 @@
         <v>81</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H96" s="1">
         <v>1724376600</v>
@@ -15303,16 +15458,16 @@
         <v>205209000</v>
       </c>
       <c r="K96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O96" s="1">
         <v>29934394</v>
@@ -15348,49 +15503,49 @@
         <v>294206000</v>
       </c>
       <c r="Z96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA96" s="1">
         <v>678000000</v>
       </c>
       <c r="AB96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AT96" s="23" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AU96" s="37">
         <v>8.4000000000000005E-2</v>
@@ -15401,43 +15556,43 @@
         <v>82</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O97" s="1">
         <v>-1969937886</v>
@@ -15515,11 +15670,11 @@
         <v>-24086000000</v>
       </c>
       <c r="AT97" s="35" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AU97" s="36">
         <f>(AU94)+((AU95)*(AU96-AU94))</f>
-        <v>7.371535500000001E-2</v>
+        <v>7.3111904000000005E-2</v>
       </c>
     </row>
     <row r="98" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -15527,34 +15682,34 @@
         <v>83</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L98" s="1">
         <v>-185657000</v>
@@ -15599,7 +15754,7 @@
         <v>-2802980800</v>
       </c>
       <c r="Z98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA98" s="1">
         <v>-4400000000</v>
@@ -15640,11 +15795,11 @@
       <c r="AM98" s="1">
         <v>-25303000000</v>
       </c>
-      <c r="AT98" s="66" t="s">
-        <v>139</v>
-      </c>
-      <c r="AU98" s="67"/>
-      <c r="AV98" s="60" t="e" vm="2">
+      <c r="AT98" s="65" t="s">
+        <v>138</v>
+      </c>
+      <c r="AU98" s="66"/>
+      <c r="AV98" s="59" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
     </row>
@@ -15653,19 +15808,19 @@
         <v>84</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G99" s="1">
         <v>418760000</v>
@@ -15728,34 +15883,34 @@
         <v>-3533000000</v>
       </c>
       <c r="AA99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI99" s="1">
         <v>94000000</v>
       </c>
       <c r="AJ99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK99" s="1">
         <v>5682000000</v>
@@ -15767,14 +15922,14 @@
         <v>11215000000</v>
       </c>
       <c r="AT99" s="23" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AU99" s="24">
         <f>AU86+AU87</f>
         <v>25784000000</v>
       </c>
-      <c r="AV99" s="60" t="s">
-        <v>160</v>
+      <c r="AV99" s="59" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="100" spans="1:48" ht="20" x14ac:dyDescent="0.25">
@@ -15782,19 +15937,19 @@
         <v>85</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D100" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E100" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F100" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G100" s="10">
         <v>418760000</v>
@@ -15896,13 +16051,13 @@
         <v>-51797000000</v>
       </c>
       <c r="AT100" s="33" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AU100" s="34">
         <f>AU99/AU103</f>
         <v>3.204042481646717E-2</v>
       </c>
-      <c r="AV100" s="61">
+      <c r="AV100" s="60">
         <v>0.15</v>
       </c>
     </row>
@@ -15911,34 +16066,34 @@
         <v>86</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L101" s="1">
         <v>-106960600</v>
@@ -15950,13 +16105,13 @@
         <v>25333974</v>
       </c>
       <c r="O101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R101" s="1">
         <v>-25062030</v>
@@ -15980,7 +16135,7 @@
         <v>-5114000</v>
       </c>
       <c r="Y101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z101" s="1">
         <v>21000000</v>
@@ -16025,13 +16180,13 @@
         <v>-238000000</v>
       </c>
       <c r="AT101" s="38" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AU101" s="40" cm="1">
         <f t="array" ref="AU101">_FV(A1,"Market cap",TRUE)</f>
         <v>778949400000</v>
       </c>
-      <c r="AV101" s="60">
+      <c r="AV101" s="59">
         <f>AU101*AV100</f>
         <v>116842410000</v>
       </c>
@@ -16041,43 +16196,43 @@
         <v>87</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D102" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E102" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F102" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G102" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H102" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I102" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J102" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K102" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L102" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M102" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N102" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O102" s="10">
         <v>-938156646</v>
@@ -16155,7 +16310,7 @@
         <v>1934000000</v>
       </c>
       <c r="AT102" s="33" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AU102" s="34">
         <f>AU101/AU103</f>
@@ -16167,19 +16322,19 @@
         <v>88</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G103" s="1">
         <v>4125796800</v>
@@ -16281,7 +16436,7 @@
         <v>10719000000</v>
       </c>
       <c r="AT103" s="35" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AU103" s="41">
         <f>AU99+AU101</f>
@@ -16293,43 +16448,43 @@
         <v>89</v>
       </c>
       <c r="B104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O104" s="11">
         <v>1850837212</v>
@@ -16406,435 +16561,563 @@
       <c r="AM104" s="11">
         <v>12653000000</v>
       </c>
-      <c r="AT104" s="66" t="s">
-        <v>145</v>
-      </c>
-      <c r="AU104" s="67"/>
+      <c r="AT104" s="65" t="s">
+        <v>144</v>
+      </c>
+      <c r="AU104" s="66"/>
     </row>
     <row r="105" spans="1:48" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="B105" s="1" t="e">
+        <f t="shared" ref="B105:AL105" si="20">(B22*(1-$AU$91))+B77+B88+B81</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C105" s="1" t="e">
+        <f t="shared" si="20"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D105" s="1" t="e">
+        <f t="shared" si="20"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E105" s="1" t="e">
+        <f t="shared" si="20"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F105" s="1" t="e">
+        <f t="shared" si="20"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G105" s="1">
+        <f t="shared" si="20"/>
+        <v>489727186.72497177</v>
+      </c>
+      <c r="H105" s="1">
+        <f t="shared" si="20"/>
+        <v>-216631108.20711827</v>
+      </c>
+      <c r="I105" s="1">
+        <f t="shared" si="20"/>
+        <v>-981040752.39277744</v>
+      </c>
+      <c r="J105" s="1">
+        <f t="shared" si="20"/>
+        <v>-579471572.63762951</v>
+      </c>
+      <c r="K105" s="1">
+        <f t="shared" si="20"/>
+        <v>841515589.34117174</v>
+      </c>
+      <c r="L105" s="1">
+        <f t="shared" si="20"/>
+        <v>1201879413.3648028</v>
+      </c>
+      <c r="M105" s="1">
+        <f t="shared" si="20"/>
+        <v>-191538136.82731438</v>
+      </c>
+      <c r="N105" s="1">
+        <f t="shared" si="20"/>
+        <v>171034548.27062654</v>
+      </c>
+      <c r="O105" s="1">
+        <f t="shared" si="20"/>
+        <v>755327656.74173927</v>
+      </c>
+      <c r="P105" s="1">
+        <f t="shared" si="20"/>
+        <v>2233797939.385335</v>
+      </c>
+      <c r="Q105" s="1">
+        <f t="shared" si="20"/>
+        <v>2994390197.5210686</v>
+      </c>
+      <c r="R105" s="1">
+        <f t="shared" si="20"/>
+        <v>189400219.94121265</v>
+      </c>
+      <c r="S105" s="1">
+        <f t="shared" si="20"/>
+        <v>1469085231.0332747</v>
+      </c>
+      <c r="T105" s="1">
+        <f t="shared" si="20"/>
+        <v>2990162969.5273819</v>
+      </c>
+      <c r="U105" s="1">
+        <f t="shared" si="20"/>
+        <v>4504988617.738699</v>
+      </c>
+      <c r="V105" s="1">
+        <f t="shared" si="20"/>
+        <v>4134832621.1412935</v>
+      </c>
+      <c r="W105" s="1">
+        <f t="shared" si="20"/>
+        <v>5128689009.9041443</v>
+      </c>
+      <c r="X105" s="1">
+        <f t="shared" si="20"/>
+        <v>6754481703.8892593</v>
+      </c>
+      <c r="Y105" s="1">
+        <f t="shared" si="20"/>
+        <v>9818175902.9335957</v>
+      </c>
+      <c r="Z105" s="1">
+        <f t="shared" si="20"/>
+        <v>11700948640.352148</v>
+      </c>
+      <c r="AA105" s="1">
+        <f t="shared" si="20"/>
+        <v>14576132040.774956</v>
+      </c>
+      <c r="AB105" s="1" t="e">
+        <f t="shared" si="20"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AC105" s="1">
+        <f t="shared" si="20"/>
+        <v>23291734094.002491</v>
+      </c>
+      <c r="AD105" s="1">
+        <f t="shared" si="20"/>
+        <v>24615985303.06102</v>
+      </c>
+      <c r="AE105" s="1">
+        <f t="shared" si="20"/>
+        <v>25028144478.874058</v>
+      </c>
+      <c r="AF105" s="1">
+        <f t="shared" si="20"/>
+        <v>35330368885.928589</v>
+      </c>
+      <c r="AG105" s="1">
+        <f t="shared" si="20"/>
+        <v>31355733312.096382</v>
+      </c>
+      <c r="AH105" s="1">
+        <f t="shared" si="20"/>
+        <v>31290866742.926651</v>
+      </c>
+      <c r="AI105" s="1">
+        <f t="shared" si="20"/>
+        <v>28905811850.221542</v>
+      </c>
+      <c r="AJ105" s="1">
+        <f t="shared" si="20"/>
+        <v>35536687570.588753</v>
+      </c>
+      <c r="AK105" s="1">
+        <f t="shared" si="20"/>
+        <v>39091639396.484322</v>
+      </c>
+      <c r="AL105" s="1">
+        <f t="shared" si="20"/>
+        <v>38183055920.766853</v>
+      </c>
+      <c r="AM105" s="1">
+        <f>(AM22*(1-$AU$91))+AM77+AM88+AM81</f>
+        <v>50025517433.610382</v>
+      </c>
+      <c r="AN105" s="42">
+        <f>AM105*(1+$AU$106)</f>
+        <v>57760841301.723824</v>
+      </c>
+      <c r="AO105" s="42">
+        <f t="shared" ref="AO105:AR105" si="21">AN105*(1+$AU$106)</f>
+        <v>66692259451.600845</v>
+      </c>
+      <c r="AP105" s="42">
+        <f t="shared" si="21"/>
+        <v>77004721027.615982</v>
+      </c>
+      <c r="AQ105" s="42">
+        <f t="shared" si="21"/>
+        <v>88911773409.68959</v>
+      </c>
+      <c r="AR105" s="42">
+        <f t="shared" si="21"/>
+        <v>102659984288.76755</v>
+      </c>
+      <c r="AS105" s="43" t="s">
+        <v>166</v>
+      </c>
+      <c r="AT105" s="25" t="s">
         <v>107</v>
-      </c>
-      <c r="B105" s="1"/>
-      <c r="C105" s="15" t="e">
-        <f>(C106/B106)-1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D105" s="15" t="e">
-        <f>(D106/C106)-1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E105" s="15" t="e">
-        <f>(E106/D106)-1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F105" s="15" t="e">
-        <f>(F106/E106)-1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G105" s="15" t="e">
-        <f>(G106/F106)-1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H105" s="15">
-        <f t="shared" ref="H105:AM105" si="8">(H106/G106)-1</f>
-        <v>-1.4923508615631733</v>
-      </c>
-      <c r="I105" s="15">
-        <f t="shared" si="8"/>
-        <v>2.8101263736314053</v>
-      </c>
-      <c r="J105" s="15">
-        <f t="shared" si="8"/>
-        <v>-0.21937066760666624</v>
-      </c>
-      <c r="K105" s="15">
-        <f t="shared" si="8"/>
-        <v>-2.8996513352278264</v>
-      </c>
-      <c r="L105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.11557009173442379</v>
-      </c>
-      <c r="M105" s="15">
-        <f t="shared" si="8"/>
-        <v>-1.1223123280708309</v>
-      </c>
-      <c r="N105" s="15">
-        <f t="shared" si="8"/>
-        <v>-4.3398941240330196</v>
-      </c>
-      <c r="O105" s="15">
-        <f t="shared" si="8"/>
-        <v>2.1695874794635279</v>
-      </c>
-      <c r="P105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.27193254100034836</v>
-      </c>
-      <c r="Q105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.70293243506219127</v>
-      </c>
-      <c r="R105" s="15">
-        <f t="shared" si="8"/>
-        <v>-0.8701742149232512</v>
-      </c>
-      <c r="S105" s="15">
-        <f t="shared" si="8"/>
-        <v>1.4663535236371517</v>
-      </c>
-      <c r="T105" s="15">
-        <f t="shared" si="8"/>
-        <v>2.9538000381998097</v>
-      </c>
-      <c r="U105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.22304824715743088</v>
-      </c>
-      <c r="V105" s="15">
-        <f t="shared" si="8"/>
-        <v>7.1392679674461945E-2</v>
-      </c>
-      <c r="W105" s="15">
-        <f t="shared" si="8"/>
-        <v>-7.8942953998839882E-2</v>
-      </c>
-      <c r="X105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.710669498405192</v>
-      </c>
-      <c r="Y105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.4339976640700145</v>
-      </c>
-      <c r="Z105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.13446994943615942</v>
-      </c>
-      <c r="AA105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.28173475188824826</v>
-      </c>
-      <c r="AB105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.14320111519452539</v>
-      </c>
-      <c r="AC105" s="15">
-        <f t="shared" si="8"/>
-        <v>3.048442523001893E-2</v>
-      </c>
-      <c r="AD105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.19933304647160077</v>
-      </c>
-      <c r="AE105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.22688133464884741</v>
-      </c>
-      <c r="AF105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.16536900975984214</v>
-      </c>
-      <c r="AG105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.25614002070198549</v>
-      </c>
-      <c r="AH105" s="15">
-        <f t="shared" si="8"/>
-        <v>-0.18795415386920367</v>
-      </c>
-      <c r="AI105" s="15">
-        <f t="shared" si="8"/>
-        <v>-9.6555965559655954E-3</v>
-      </c>
-      <c r="AJ105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.1038626342917468</v>
-      </c>
-      <c r="AK105" s="15">
-        <f t="shared" si="8"/>
-        <v>-0.15979859919552197</v>
-      </c>
-      <c r="AL105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.59407432206226973</v>
-      </c>
-      <c r="AM105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.34692848892155825</v>
-      </c>
-      <c r="AN105" s="15"/>
-      <c r="AO105" s="15"/>
-      <c r="AP105" s="15"/>
-      <c r="AQ105" s="15"/>
-      <c r="AR105" s="15"/>
-      <c r="AS105" s="15"/>
-      <c r="AT105" s="25" t="s">
-        <v>108</v>
       </c>
       <c r="AU105" s="26">
         <f>(AU100*AU92)+(AU102*AU97)</f>
-        <v>7.1731133449465773E-2</v>
+        <v>7.1147017275861688E-2</v>
       </c>
     </row>
     <row r="106" spans="1:48" ht="19" x14ac:dyDescent="0.25">
-      <c r="A106" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F106" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G106" s="1">
-        <v>332697600</v>
-      </c>
-      <c r="H106" s="1">
-        <v>-163803950</v>
-      </c>
-      <c r="I106" s="1">
-        <v>-624113750</v>
-      </c>
-      <c r="J106" s="1">
-        <v>-487201500</v>
-      </c>
-      <c r="K106" s="1">
-        <v>925512980</v>
-      </c>
-      <c r="L106" s="1">
-        <v>1032474600</v>
-      </c>
-      <c r="M106" s="1">
-        <v>-126284372</v>
-      </c>
-      <c r="N106" s="1">
-        <v>421776432</v>
-      </c>
-      <c r="O106" s="1">
-        <v>1336857298</v>
-      </c>
-      <c r="P106" s="1">
-        <v>1700392300</v>
-      </c>
-      <c r="Q106" s="1">
-        <v>2895653200</v>
-      </c>
-      <c r="R106" s="1">
-        <v>375930450</v>
-      </c>
-      <c r="S106" s="1">
-        <v>927177390</v>
-      </c>
-      <c r="T106" s="1">
-        <v>3665874000</v>
-      </c>
-      <c r="U106" s="1">
-        <v>4483540770</v>
-      </c>
-      <c r="V106" s="1">
-        <v>4803632760</v>
-      </c>
-      <c r="W106" s="1">
-        <v>4424419800</v>
-      </c>
-      <c r="X106" s="1">
-        <v>7568720000</v>
-      </c>
-      <c r="Y106" s="1">
-        <v>10853526800</v>
-      </c>
-      <c r="Z106" s="1">
-        <v>12313000000</v>
-      </c>
-      <c r="AA106" s="1">
-        <v>15782000000</v>
-      </c>
-      <c r="AB106" s="1">
-        <v>18042000000</v>
-      </c>
-      <c r="AC106" s="1">
-        <v>18592000000</v>
-      </c>
-      <c r="AD106" s="1">
-        <v>22298000000</v>
-      </c>
-      <c r="AE106" s="1">
-        <v>27357000000</v>
-      </c>
-      <c r="AF106" s="1">
-        <v>31881000000</v>
-      </c>
-      <c r="AG106" s="1">
-        <v>40047000000</v>
-      </c>
-      <c r="AH106" s="1">
-        <v>32520000000</v>
-      </c>
-      <c r="AI106" s="1">
-        <v>32206000000</v>
-      </c>
-      <c r="AJ106" s="1">
-        <v>35551000000</v>
-      </c>
-      <c r="AK106" s="1">
-        <v>29870000000</v>
-      </c>
-      <c r="AL106" s="1">
-        <v>47615000000</v>
-      </c>
-      <c r="AM106" s="1">
-        <v>64134000000</v>
-      </c>
-      <c r="AN106" s="42">
-        <f>AM106*(1+$AU$106)</f>
-        <v>73328423272.406937</v>
-      </c>
-      <c r="AO106" s="42">
-        <f t="shared" ref="AO106:AR106" si="9">AN106*(1+$AU$106)</f>
-        <v>83840983871.538834</v>
-      </c>
-      <c r="AP106" s="42">
-        <f t="shared" si="9"/>
-        <v>95860653520.866348</v>
-      </c>
-      <c r="AQ106" s="42">
-        <f t="shared" si="9"/>
-        <v>109603495439.97932</v>
-      </c>
-      <c r="AR106" s="42">
-        <f t="shared" si="9"/>
-        <v>125316548254.56274</v>
+      <c r="A106" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="B106" s="1"/>
+      <c r="C106" s="15" t="e">
+        <f>(C107/B107)-1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D106" s="15" t="e">
+        <f>(D107/C107)-1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E106" s="15" t="e">
+        <f>(E107/D107)-1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F106" s="15" t="e">
+        <f>(F107/E107)-1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G106" s="15" t="e">
+        <f>(G107/F107)-1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H106" s="15">
+        <f>(H107/G107)-1</f>
+        <v>-1.4923508615631733</v>
+      </c>
+      <c r="I106" s="15">
+        <f>(I107/H107)-1</f>
+        <v>2.8101263736314053</v>
+      </c>
+      <c r="J106" s="15">
+        <f>(J107/I107)-1</f>
+        <v>-0.21937066760666624</v>
+      </c>
+      <c r="K106" s="15">
+        <f>(K107/J107)-1</f>
+        <v>-2.8996513352278264</v>
+      </c>
+      <c r="L106" s="15">
+        <f>(L107/K107)-1</f>
+        <v>0.11557009173442379</v>
+      </c>
+      <c r="M106" s="15">
+        <f>(M107/L107)-1</f>
+        <v>-1.1223123280708309</v>
+      </c>
+      <c r="N106" s="15">
+        <f>(N107/M107)-1</f>
+        <v>-4.3398941240330196</v>
+      </c>
+      <c r="O106" s="15">
+        <f>(O107/N107)-1</f>
+        <v>2.1695874794635279</v>
+      </c>
+      <c r="P106" s="15">
+        <f>(P107/O107)-1</f>
+        <v>0.27193254100034836</v>
+      </c>
+      <c r="Q106" s="15">
+        <f>(Q107/P107)-1</f>
+        <v>0.70293243506219127</v>
+      </c>
+      <c r="R106" s="15">
+        <f>(R107/Q107)-1</f>
+        <v>-0.8701742149232512</v>
+      </c>
+      <c r="S106" s="15">
+        <f>(S107/R107)-1</f>
+        <v>1.4663535236371517</v>
+      </c>
+      <c r="T106" s="15">
+        <f>(T107/S107)-1</f>
+        <v>2.9538000381998097</v>
+      </c>
+      <c r="U106" s="15">
+        <f>(U107/T107)-1</f>
+        <v>0.22304824715743088</v>
+      </c>
+      <c r="V106" s="15">
+        <f>(V107/U107)-1</f>
+        <v>7.1392679674461945E-2</v>
+      </c>
+      <c r="W106" s="15">
+        <f>(W107/V107)-1</f>
+        <v>-7.8942953998839882E-2</v>
+      </c>
+      <c r="X106" s="15">
+        <f>(X107/W107)-1</f>
+        <v>0.710669498405192</v>
+      </c>
+      <c r="Y106" s="15">
+        <f>(Y107/X107)-1</f>
+        <v>0.4339976640700145</v>
+      </c>
+      <c r="Z106" s="15">
+        <f>(Z107/Y107)-1</f>
+        <v>0.13446994943615942</v>
+      </c>
+      <c r="AA106" s="15">
+        <f>(AA107/Z107)-1</f>
+        <v>0.28173475188824826</v>
+      </c>
+      <c r="AB106" s="15">
+        <f>(AB107/AA107)-1</f>
+        <v>0.14320111519452539</v>
+      </c>
+      <c r="AC106" s="15">
+        <f>(AC107/AB107)-1</f>
+        <v>3.048442523001893E-2</v>
+      </c>
+      <c r="AD106" s="15">
+        <f>(AD107/AC107)-1</f>
+        <v>0.19933304647160077</v>
+      </c>
+      <c r="AE106" s="15">
+        <f>(AE107/AD107)-1</f>
+        <v>0.22688133464884741</v>
+      </c>
+      <c r="AF106" s="15">
+        <f>(AF107/AE107)-1</f>
+        <v>0.16536900975984214</v>
+      </c>
+      <c r="AG106" s="15">
+        <f>(AG107/AF107)-1</f>
+        <v>0.25614002070198549</v>
+      </c>
+      <c r="AH106" s="15">
+        <f>(AH107/AG107)-1</f>
+        <v>-0.18795415386920367</v>
+      </c>
+      <c r="AI106" s="15">
+        <f>(AI107/AH107)-1</f>
+        <v>-9.6555965559655954E-3</v>
+      </c>
+      <c r="AJ106" s="15">
+        <f>(AJ107/AI107)-1</f>
+        <v>0.1038626342917468</v>
+      </c>
+      <c r="AK106" s="15">
+        <f>(AK107/AJ107)-1</f>
+        <v>-0.15979859919552197</v>
+      </c>
+      <c r="AL106" s="15">
+        <f>(AL107/AK107)-1</f>
+        <v>0.59407432206226973</v>
+      </c>
+      <c r="AM106" s="15">
+        <f>(AM107/AL107)-1</f>
+        <v>0.34692848892155825</v>
+      </c>
+      <c r="AN106" s="73">
+        <v>70603000000</v>
+      </c>
+      <c r="AO106" s="73">
+        <v>82481000000</v>
+      </c>
+      <c r="AP106" s="73">
+        <v>95000000000</v>
+      </c>
+      <c r="AQ106" s="73">
+        <v>110700000000</v>
+      </c>
+      <c r="AR106" s="73">
+        <v>131700000000</v>
       </c>
       <c r="AS106" s="43" t="s">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="AT106" s="44" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="AU106" s="45">
         <f>(SUM(AN4:AR4)/5)</f>
-        <v>0.14336269798245768</v>
+        <v>0.15462756339060574</v>
       </c>
     </row>
     <row r="107" spans="1:48" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="5"/>
-      <c r="B107" s="13"/>
-      <c r="C107" s="13"/>
-      <c r="D107" s="13"/>
-      <c r="E107" s="13"/>
-      <c r="F107" s="13"/>
-      <c r="G107" s="13"/>
-      <c r="H107" s="13"/>
-      <c r="I107" s="13"/>
-      <c r="J107" s="13"/>
-      <c r="K107" s="13"/>
-      <c r="L107" s="13"/>
-      <c r="M107" s="13"/>
-      <c r="N107" s="13"/>
-      <c r="O107" s="13"/>
-      <c r="P107" s="13"/>
-      <c r="Q107" s="13"/>
-      <c r="R107" s="13"/>
-      <c r="S107" s="13"/>
-      <c r="T107" s="13"/>
-      <c r="U107" s="13"/>
-      <c r="V107" s="13"/>
-      <c r="W107" s="13"/>
-      <c r="X107" s="13"/>
-      <c r="Y107" s="13"/>
-      <c r="Z107" s="13"/>
-      <c r="AA107" s="13"/>
-      <c r="AB107" s="13"/>
-      <c r="AC107" s="13"/>
-      <c r="AD107" s="13"/>
-      <c r="AE107" s="13"/>
-      <c r="AF107" s="13"/>
-      <c r="AG107" s="13"/>
-      <c r="AH107" s="13"/>
-      <c r="AI107" s="13"/>
-      <c r="AJ107" s="13"/>
-      <c r="AK107" s="13"/>
-      <c r="AL107" s="13"/>
-      <c r="AM107" s="13"/>
+      <c r="A107" s="72" t="s">
+        <v>165</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G107" s="1">
+        <v>332697600</v>
+      </c>
+      <c r="H107" s="1">
+        <v>-163803950</v>
+      </c>
+      <c r="I107" s="1">
+        <v>-624113750</v>
+      </c>
+      <c r="J107" s="1">
+        <v>-487201500</v>
+      </c>
+      <c r="K107" s="1">
+        <v>925512980</v>
+      </c>
+      <c r="L107" s="1">
+        <v>1032474600</v>
+      </c>
+      <c r="M107" s="1">
+        <v>-126284372</v>
+      </c>
+      <c r="N107" s="1">
+        <v>421776432</v>
+      </c>
+      <c r="O107" s="1">
+        <v>1336857298</v>
+      </c>
+      <c r="P107" s="1">
+        <v>1700392300</v>
+      </c>
+      <c r="Q107" s="1">
+        <v>2895653200</v>
+      </c>
+      <c r="R107" s="1">
+        <v>375930450</v>
+      </c>
+      <c r="S107" s="1">
+        <v>927177390</v>
+      </c>
+      <c r="T107" s="1">
+        <v>3665874000</v>
+      </c>
+      <c r="U107" s="1">
+        <v>4483540770</v>
+      </c>
+      <c r="V107" s="1">
+        <v>4803632760</v>
+      </c>
+      <c r="W107" s="1">
+        <v>4424419800</v>
+      </c>
+      <c r="X107" s="1">
+        <v>7568720000</v>
+      </c>
+      <c r="Y107" s="1">
+        <v>10853526800</v>
+      </c>
+      <c r="Z107" s="1">
+        <v>12313000000</v>
+      </c>
+      <c r="AA107" s="1">
+        <v>15782000000</v>
+      </c>
+      <c r="AB107" s="1">
+        <v>18042000000</v>
+      </c>
+      <c r="AC107" s="1">
+        <v>18592000000</v>
+      </c>
+      <c r="AD107" s="1">
+        <v>22298000000</v>
+      </c>
+      <c r="AE107" s="1">
+        <v>27357000000</v>
+      </c>
+      <c r="AF107" s="1">
+        <v>31881000000</v>
+      </c>
+      <c r="AG107" s="1">
+        <v>40047000000</v>
+      </c>
+      <c r="AH107" s="1">
+        <v>32520000000</v>
+      </c>
+      <c r="AI107" s="1">
+        <v>32206000000</v>
+      </c>
+      <c r="AJ107" s="1">
+        <v>35551000000</v>
+      </c>
+      <c r="AK107" s="1">
+        <v>29870000000</v>
+      </c>
+      <c r="AL107" s="1">
+        <v>47615000000</v>
+      </c>
+      <c r="AM107" s="1">
+        <v>64134000000</v>
+      </c>
       <c r="AN107" s="43"/>
       <c r="AO107" s="43"/>
       <c r="AP107" s="43"/>
       <c r="AQ107" s="43"/>
-      <c r="AR107" s="46">
+      <c r="AR107" s="83">
         <f>AR106*(1+AU107)/(AU108-AU107)</f>
-        <v>2748691342995.7739</v>
-      </c>
-      <c r="AS107" s="47" t="s">
-        <v>148</v>
-      </c>
-      <c r="AT107" s="48" t="s">
-        <v>149</v>
-      </c>
-      <c r="AU107" s="49">
+        <v>2925270320138.5688</v>
+      </c>
+      <c r="AS107" s="46" t="s">
+        <v>146</v>
+      </c>
+      <c r="AT107" s="47" t="s">
+        <v>147</v>
+      </c>
+      <c r="AU107" s="48">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:48" ht="19" x14ac:dyDescent="0.25">
-      <c r="AN108" s="46">
-        <f t="shared" ref="AN108:AP108" si="10">AN107+AN106</f>
-        <v>73328423272.406937</v>
-      </c>
-      <c r="AO108" s="46">
-        <f t="shared" si="10"/>
-        <v>83840983871.538834</v>
-      </c>
-      <c r="AP108" s="46">
-        <f t="shared" si="10"/>
-        <v>95860653520.866348</v>
-      </c>
-      <c r="AQ108" s="46">
-        <f>AQ107+AQ106</f>
-        <v>109603495439.97932</v>
-      </c>
-      <c r="AR108" s="46">
+      <c r="AN108" s="83">
+        <f t="shared" ref="AN108:AQ108" si="22">AN107+AN106</f>
+        <v>70603000000</v>
+      </c>
+      <c r="AO108" s="83">
+        <f t="shared" si="22"/>
+        <v>82481000000</v>
+      </c>
+      <c r="AP108" s="83">
+        <f t="shared" si="22"/>
+        <v>95000000000</v>
+      </c>
+      <c r="AQ108" s="83">
+        <f t="shared" si="22"/>
+        <v>110700000000</v>
+      </c>
+      <c r="AR108" s="83">
         <f>AR107+AR106</f>
-        <v>2874007891250.3369</v>
-      </c>
-      <c r="AS108" s="47" t="s">
-        <v>144</v>
-      </c>
-      <c r="AT108" s="50" t="s">
-        <v>150</v>
-      </c>
-      <c r="AU108" s="51">
+        <v>3056970320138.5688</v>
+      </c>
+      <c r="AS108" s="46" t="s">
+        <v>143</v>
+      </c>
+      <c r="AT108" s="49" t="s">
+        <v>148</v>
+      </c>
+      <c r="AU108" s="50">
         <f>AU105</f>
-        <v>7.1731133449465773E-2</v>
+        <v>7.1147017275861688E-2</v>
       </c>
     </row>
     <row r="109" spans="1:48" ht="19" x14ac:dyDescent="0.25">
-      <c r="AN109" s="62" t="s">
-        <v>151</v>
-      </c>
-      <c r="AO109" s="63"/>
+      <c r="AN109" s="61" t="s">
+        <v>149</v>
+      </c>
+      <c r="AO109" s="62"/>
     </row>
     <row r="110" spans="1:48" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN110" s="52" t="s">
-        <v>152</v>
+      <c r="AN110" s="51" t="s">
+        <v>150</v>
       </c>
       <c r="AO110" s="40">
         <f>NPV(AU108,AN108,AO108,AP108,AQ108,AR108)</f>
-        <v>2334995259446.3267</v>
+        <v>2467124892441.2739</v>
       </c>
     </row>
     <row r="111" spans="1:48" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN111" s="52" t="s">
-        <v>153</v>
+      <c r="AN111" s="51" t="s">
+        <v>151</v>
       </c>
       <c r="AO111" s="40">
         <f>AM40</f>
@@ -16842,8 +17125,8 @@
       </c>
     </row>
     <row r="112" spans="1:48" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN112" s="52" t="s">
-        <v>140</v>
+      <c r="AN112" s="51" t="s">
+        <v>139</v>
       </c>
       <c r="AO112" s="40">
         <f>AU99</f>
@@ -16851,55 +17134,55 @@
       </c>
     </row>
     <row r="113" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN113" s="52" t="s">
-        <v>154</v>
+      <c r="AN113" s="51" t="s">
+        <v>152</v>
       </c>
       <c r="AO113" s="40">
         <f>AO110+AO111-AO112</f>
-        <v>2332785259446.3267</v>
+        <v>2464914892441.2739</v>
       </c>
     </row>
     <row r="114" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN114" s="52" t="s">
-        <v>155</v>
-      </c>
-      <c r="AO114" s="53">
+      <c r="AN114" s="51" t="s">
+        <v>153</v>
+      </c>
+      <c r="AO114" s="52">
         <f>AM34*(1+(5*AS16))</f>
         <v>2077366469.8762372</v>
       </c>
     </row>
     <row r="115" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN115" s="54" t="s">
-        <v>156</v>
-      </c>
-      <c r="AO115" s="55">
+      <c r="AN115" s="53" t="s">
+        <v>154</v>
+      </c>
+      <c r="AO115" s="54">
         <f>AO113/AO114*AV100</f>
-        <v>168.44297527233888</v>
+        <v>177.98363419633844</v>
       </c>
     </row>
     <row r="116" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN116" s="52" t="s">
-        <v>157</v>
-      </c>
-      <c r="AO116" s="56" cm="1">
+      <c r="AN116" s="51" t="s">
+        <v>155</v>
+      </c>
+      <c r="AO116" s="55" cm="1">
         <f t="array" ref="AO116">_FV(AV98,"Price")</f>
-        <v>161.29</v>
+        <v>159.07</v>
       </c>
     </row>
     <row r="117" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN117" s="57" t="s">
-        <v>158</v>
-      </c>
-      <c r="AO117" s="58">
+      <c r="AN117" s="56" t="s">
+        <v>156</v>
+      </c>
+      <c r="AO117" s="57">
         <f>AO115/AO116-1</f>
-        <v>4.434853538557193E-2</v>
+        <v>0.1189013276943387</v>
       </c>
     </row>
     <row r="118" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN118" s="57" t="s">
-        <v>159</v>
-      </c>
-      <c r="AO118" s="59" t="str">
+      <c r="AN118" s="56" t="s">
+        <v>157</v>
+      </c>
+      <c r="AO118" s="58" t="str">
         <f>IF(AO115&gt;AO116,"BUY","SELL")</f>
         <v>BUY</v>
       </c>
@@ -16991,9 +17274,10 @@
     <hyperlink ref="AL74" r:id="rId75" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
     <hyperlink ref="AM36" r:id="rId76" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
     <hyperlink ref="AM74" r:id="rId77" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="AN1" r:id="rId78" display="https://finbox.com/NYSE:NVO/models/dcf-growth-exit-5yr/" xr:uid="{EF63146E-FF0E-094E-820B-2E4BDF0ACBC8}"/>
+    <hyperlink ref="AN1" r:id="rId78" display="https://finbox.com/LSE:0QIU/explorer/revenue_proj" xr:uid="{EF63146E-FF0E-094E-820B-2E4BDF0ACBC8}"/>
+    <hyperlink ref="AS106" r:id="rId79" xr:uid="{2B3EE0AD-F45A-9344-B2CA-26AF82D62DD5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId79"/>
+  <drawing r:id="rId80"/>
 </worksheet>
 </file>
--- a/Healthcare/Novo Nordisk.xlsx
+++ b/Healthcare/Novo Nordisk.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Healthcare/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2636CD69-81AA-9943-A671-E11AE193A8A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFAD2F74-1EB6-A041-8C19-1E9A1D7B2FD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -598,8 +598,8 @@
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="170" formatCode="0.0"/>
-    <numFmt numFmtId="171" formatCode="0.0%"/>
+    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="169" formatCode="0.0%"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -768,7 +768,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -874,62 +874,9 @@
       </left>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -946,7 +893,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -988,20 +935,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1010,59 +949,10 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="39" fontId="11" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="16" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="1" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1070,51 +960,87 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="11" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment indent="1"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="11" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="39" fontId="11" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="16" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2538,7 +2464,7 @@
       <sheetData sheetId="11">
         <row r="8">
           <cell r="C8">
-            <v>3.739E-2</v>
+            <v>3.8539999999999998E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2678,7 +2604,7 @@
     <v>Powered by Refinitiv</v>
     <v>50.17</v>
     <v>49.155000000000001</v>
-    <v>0.76639999999999997</v>
+    <v>0.77180000000000004</v>
     <v>0.16</v>
     <v>3.2320000000000001E-3</v>
     <v>CHF</v>
@@ -2705,7 +2631,7 @@
     <v>NOVOB</v>
     <v>Novo Nordisk A/S (XSWX:NOVOB)</v>
     <v>2478</v>
-    <v>1241560</v>
+    <v>1335440</v>
     <v>1931</v>
   </rv>
   <rv s="2">
@@ -2715,13 +2641,13 @@
     <v>https://www.bing.com/financeapi/forcetrigger?t=a1yvxm&amp;q=XNYS%3aNVO&amp;form=skydnc</v>
     <v>Learn more on Bing</v>
   </rv>
-  <rv s="1">
-    <v>0</v>
+  <rv s="3">
+    <v>5</v>
     <v>Novo Nordisk A/S (XNYS:NVO)</v>
     <v>2</v>
-    <v>5</v>
+    <v>6</v>
     <v>Finance</v>
-    <v>6</v>
+    <v>7</v>
     <v>en-US</v>
     <v>a1yvxm</v>
     <v>268435456</v>
@@ -2729,9 +2655,11 @@
     <v>Powered by Refinitiv</v>
     <v>172.97</v>
     <v>95.02</v>
-    <v>0.4738</v>
-    <v>-0.95</v>
-    <v>-5.9370000000000004E-3</v>
+    <v>0.46850000000000003</v>
+    <v>4.8</v>
+    <v>3.0567E-2</v>
+    <v>0</v>
+    <v>0</v>
     <v>USD</v>
     <v>Novo Nordisk A/S is a global healthcare company engaged in diabetes care. The Company is also engaged in the discovery, development, manufacturing and marketing of pharmaceutical products. The Company operates through two business segments: diabetes and obesity care, and biopharmaceuticals. The Company's diabetes and obesity care segment covers insulin, GLP-1, other protein-related products, such as glucagon, protein-related delivery systems and needles, and oral anti-diabetic drugs. The Company's biopharmaceuticals segment covers the therapy areas of hemophilia care, growth hormone therapy and hormone replacement therapy. The Company also offers Saxenda product to treat obesity. It offers a range of products, including NovoLog/NovoRapid; NovoLog Mix/NovoMix; Prandin/NovoNorm; NovoSeven; Norditropin, and Vagifem. As of December 31, 2016, it marketed its products in over 180 countries. Its regional structure consists of two commercial units: North America and International Operations.</v>
     <v>57089</v>
@@ -2739,24 +2667,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>Novo Alle 1, BAGSVAERD, DENMARK-NA, 2880 DK</v>
-    <v>159.80009999999999</v>
+    <v>162.08000000000001</v>
     <v>Pharmaceuticals</v>
     <v>Stock</v>
-    <v>45100.999335925779</v>
+    <v>45107.998778367968</v>
     <v>3</v>
-    <v>158.18</v>
-    <v>275016400000</v>
+    <v>160.51</v>
+    <v>268499900000</v>
     <v>Novo Nordisk A/S</v>
     <v>Novo Nordisk A/S</v>
-    <v>158.47999999999999</v>
-    <v>40.658099999999997</v>
-    <v>160.02000000000001</v>
-    <v>159.07</v>
+    <v>160.53</v>
+    <v>40.136699999999998</v>
+    <v>157.03</v>
+    <v>161.83000000000001</v>
+    <v>161.83000000000001</v>
     <v>1717564000</v>
     <v>NVO</v>
     <v>Novo Nordisk A/S (XNYS:NVO)</v>
-    <v>6391</v>
-    <v>1381259</v>
+    <v>1089948</v>
+    <v>1271112</v>
     <v>1931</v>
   </rv>
   <rv s="2">
@@ -2766,7 +2695,7 @@
 </file>
 
 <file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
-<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="3">
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="4">
   <s t="_hyperlink">
     <k n="Address" t="s"/>
     <k n="Text" t="s"/>
@@ -2818,12 +2747,59 @@
   <s t="_linkedentity">
     <k n="%cvi" t="r"/>
   </s>
+  <s t="_linkedentitycore">
+    <k n="_Display" t="spb"/>
+    <k n="_DisplayString" t="s"/>
+    <k n="_Flags" t="spb"/>
+    <k n="_Format" t="spb"/>
+    <k n="_Icon" t="s"/>
+    <k n="_SubLabel" t="spb"/>
+    <k n="%EntityCulture" t="s"/>
+    <k n="%EntityId" t="s"/>
+    <k n="%EntityServiceId"/>
+    <k n="%IsRefreshable" t="b"/>
+    <k n="%ProviderInfo" t="s"/>
+    <k n="52 week high"/>
+    <k n="52 week low"/>
+    <k n="Beta"/>
+    <k n="Change"/>
+    <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
+    <k n="Currency" t="s"/>
+    <k n="Description" t="s"/>
+    <k n="Employees"/>
+    <k n="Exchange" t="s"/>
+    <k n="Exchange abbreviation" t="s"/>
+    <k n="ExchangeID" t="s"/>
+    <k n="Headquarters" t="s"/>
+    <k n="High"/>
+    <k n="Industry" t="s"/>
+    <k n="Instrument type" t="s"/>
+    <k n="Last trade time"/>
+    <k n="LearnMoreOnLink" t="r"/>
+    <k n="Low"/>
+    <k n="Market cap"/>
+    <k n="Name" t="s"/>
+    <k n="Official name" t="s"/>
+    <k n="Open"/>
+    <k n="P/E"/>
+    <k n="Previous close"/>
+    <k n="Price"/>
+    <k n="Price (Extended hours)"/>
+    <k n="Shares outstanding"/>
+    <k n="Ticker symbol" t="s"/>
+    <k n="UniqueName" t="s"/>
+    <k n="Volume"/>
+    <k n="Volume average"/>
+    <k n="Year incorporated"/>
+  </s>
 </rvStructures>
 </file>
 
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
-  <spbArrays count="1">
+  <spbArrays count="2">
     <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
@@ -2868,8 +2844,55 @@
       <v t="s">ExchangeID</v>
       <v t="s">%ProviderInfo</v>
     </a>
+    <a count="45">
+      <v t="s">%EntityServiceId</v>
+      <v t="s">_Format</v>
+      <v t="s">%IsRefreshable</v>
+      <v t="s">%EntityCulture</v>
+      <v t="s">%EntityId</v>
+      <v t="s">_Icon</v>
+      <v t="s">_Display</v>
+      <v t="s">Name</v>
+      <v t="s">_SubLabel</v>
+      <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
+      <v t="s">Exchange</v>
+      <v t="s">Official name</v>
+      <v t="s">Last trade time</v>
+      <v t="s">Ticker symbol</v>
+      <v t="s">Exchange abbreviation</v>
+      <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
+      <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
+      <v t="s">Currency</v>
+      <v t="s">Previous close</v>
+      <v t="s">Open</v>
+      <v t="s">High</v>
+      <v t="s">Low</v>
+      <v t="s">52 week high</v>
+      <v t="s">52 week low</v>
+      <v t="s">Volume</v>
+      <v t="s">Volume average</v>
+      <v t="s">Market cap</v>
+      <v t="s">Beta</v>
+      <v t="s">P/E</v>
+      <v t="s">Shares outstanding</v>
+      <v t="s">Description</v>
+      <v t="s">Employees</v>
+      <v t="s">Headquarters</v>
+      <v t="s">Industry</v>
+      <v t="s">Instrument type</v>
+      <v t="s">Year incorporated</v>
+      <v t="s">_Flags</v>
+      <v t="s">UniqueName</v>
+      <v t="s">_DisplayString</v>
+      <v t="s">LearnMoreOnLink</v>
+      <v t="s">ExchangeID</v>
+      <v t="s">%ProviderInfo</v>
+    </a>
   </spbArrays>
-  <spbData count="7">
+  <spbData count="8">
     <spb s="0">
       <v>0</v>
       <v>Name</v>
@@ -2914,7 +2937,12 @@
       <v>from previous close</v>
       <v>GMT</v>
     </spb>
-    <spb s="3">
+    <spb s="0">
+      <v>1</v>
+      <v>Name</v>
+      <v>LearnMoreOnLink</v>
+    </spb>
+    <spb s="5">
       <v>10</v>
       <v>2</v>
       <v>2</v>
@@ -2935,20 +2963,26 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>10</v>
+      <v>10</v>
+      <v>5</v>
     </spb>
-    <spb s="5">
-      <v>Real-Time Nasdaq Last Sale</v>
+    <spb s="6">
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
 </file>
 
 <file path=xl/richData/rdsupportingpropertybagstructure.xml><?xml version="1.0" encoding="utf-8"?>
-<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="6">
+<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="7">
   <s>
     <k n="^Order" t="spba"/>
     <k n="TitleProperty" t="s"/>
@@ -2994,11 +3028,39 @@
     <k n="Last trade time" t="s"/>
   </s>
   <s>
+    <k n="Low" t="i"/>
+    <k n="P/E" t="i"/>
+    <k n="Beta" t="i"/>
+    <k n="High" t="i"/>
+    <k n="Name" t="i"/>
+    <k n="Open" t="i"/>
+    <k n="Price" t="i"/>
+    <k n="Change" t="i"/>
+    <k n="Volume" t="i"/>
+    <k n="Employees" t="i"/>
+    <k n="Change (%)" t="i"/>
+    <k n="Market cap" t="i"/>
+    <k n="52 week low" t="i"/>
+    <k n="52 week high" t="i"/>
+    <k n="Previous close" t="i"/>
+    <k n="Volume average" t="i"/>
+    <k n="Last trade time" t="i"/>
+    <k n="Year incorporated" t="i"/>
+    <k n="`%EntityServiceId" t="i"/>
+    <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
+  </s>
+  <s>
     <k n="Price" t="s"/>
     <k n="Change" t="s"/>
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -3366,10 +3428,10 @@
   <dimension ref="A1:AV118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AJ98" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AK2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AR100" sqref="AR100"/>
+      <selection pane="bottomRight" activeCell="AQ13" sqref="AQ13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3497,19 +3559,19 @@
       <c r="AM1" s="8">
         <v>2022</v>
       </c>
-      <c r="AN1" s="27">
+      <c r="AN1" s="23">
         <v>2023</v>
       </c>
-      <c r="AO1" s="27">
+      <c r="AO1" s="23">
         <v>2024</v>
       </c>
-      <c r="AP1" s="27">
+      <c r="AP1" s="23">
         <v>2025</v>
       </c>
-      <c r="AQ1" s="27">
+      <c r="AQ1" s="23">
         <v>2026</v>
       </c>
-      <c r="AR1" s="27">
+      <c r="AR1" s="23">
         <v>2027</v>
       </c>
     </row>
@@ -3761,19 +3823,19 @@
       <c r="AM3" s="1">
         <v>176954000000</v>
       </c>
-      <c r="AN3" s="28">
+      <c r="AN3" s="24">
         <v>222520000000</v>
       </c>
-      <c r="AO3" s="28">
+      <c r="AO3" s="24">
         <v>257800000000</v>
       </c>
-      <c r="AP3" s="28">
+      <c r="AP3" s="24">
         <v>291400000000</v>
       </c>
-      <c r="AQ3" s="28">
+      <c r="AQ3" s="24">
         <v>321900000000</v>
       </c>
-      <c r="AR3" s="28">
+      <c r="AR3" s="24">
         <v>361200000000</v>
       </c>
       <c r="AS3" s="18" t="s">
@@ -5578,19 +5640,19 @@
       <c r="AM16" s="1">
         <v>102145000000</v>
       </c>
-      <c r="AS16" s="29">
+      <c r="AS16" s="25">
         <f>(AM35+AL35+AK35+AJ35+AI35)/5</f>
         <v>-1.7157376237623801E-2</v>
       </c>
-      <c r="AT16" s="30">
+      <c r="AT16" s="26">
         <f>AU101/AM3</f>
         <v>4.4019880872995243</v>
       </c>
-      <c r="AU16" s="30">
+      <c r="AU16" s="26">
         <f>AU101/AM28</f>
         <v>14.028805042773525</v>
       </c>
-      <c r="AV16" s="31">
+      <c r="AV16" s="27">
         <f>AU101/AM107</f>
         <v>12.145654411076809</v>
       </c>
@@ -5963,34 +6025,34 @@
       <c r="AM19" s="10">
         <v>76802000000</v>
       </c>
-      <c r="AN19" s="80">
+      <c r="AN19" s="45">
         <v>104100000000</v>
       </c>
-      <c r="AO19" s="80">
+      <c r="AO19" s="45">
         <v>122600000000</v>
       </c>
-      <c r="AP19" s="80">
+      <c r="AP19" s="45">
         <v>140100000000</v>
       </c>
-      <c r="AQ19" s="80">
+      <c r="AQ19" s="45">
         <v>159100000000</v>
       </c>
-      <c r="AR19" s="80">
+      <c r="AR19" s="45">
         <v>180100000000</v>
       </c>
-      <c r="AS19" s="32">
+      <c r="AS19" s="28">
         <f>AM40-AM56-AM61</f>
         <v>-2210000000</v>
       </c>
-      <c r="AT19" s="67">
+      <c r="AT19" s="34">
         <f>AU101/AN3</f>
         <v>3.5005815207621787</v>
       </c>
-      <c r="AU19" s="67">
+      <c r="AU19" s="34">
         <f>AU101/AN28</f>
         <v>9.8405624265699814</v>
       </c>
-      <c r="AV19" s="68">
+      <c r="AV19" s="35">
         <f>AU101/AN106</f>
         <v>11.032808804158464</v>
       </c>
@@ -6144,27 +6206,27 @@
         <f t="shared" si="3"/>
         <v>0.10326792974878951</v>
       </c>
-      <c r="AM20" s="75">
+      <c r="AM20" s="15">
         <f t="shared" si="3"/>
         <v>0.17445025537511083</v>
       </c>
-      <c r="AN20" s="81">
+      <c r="AN20" s="16">
         <f t="shared" ref="AN20" si="4">(AN19/AM19)-1</f>
         <v>0.35543345225384759</v>
       </c>
-      <c r="AO20" s="81">
+      <c r="AO20" s="16">
         <f t="shared" ref="AO20" si="5">(AO19/AN19)-1</f>
         <v>0.17771373679154667</v>
       </c>
-      <c r="AP20" s="81">
+      <c r="AP20" s="16">
         <f t="shared" ref="AP20" si="6">(AP19/AO19)-1</f>
         <v>0.14274061990212061</v>
       </c>
-      <c r="AQ20" s="81">
+      <c r="AQ20" s="16">
         <f t="shared" ref="AQ20" si="7">(AQ19/AP19)-1</f>
         <v>0.13561741613133482</v>
       </c>
-      <c r="AR20" s="81">
+      <c r="AR20" s="16">
         <f t="shared" ref="AR20" si="8">(AR19/AQ19)-1</f>
         <v>0.13199245757385292</v>
       </c>
@@ -6284,26 +6346,26 @@
       <c r="AL21" s="2">
         <v>0.46439999999999998</v>
       </c>
-      <c r="AM21" s="76">
+      <c r="AM21" s="41">
         <v>0.434</v>
       </c>
-      <c r="AN21" s="82">
+      <c r="AN21" s="46">
         <f>AN19/AN3</f>
         <v>0.46782311702318891</v>
       </c>
-      <c r="AO21" s="82">
+      <c r="AO21" s="46">
         <f t="shared" ref="AO21:AR21" si="9">AO19/AO3</f>
         <v>0.47556245151280063</v>
       </c>
-      <c r="AP21" s="82">
+      <c r="AP21" s="46">
         <f t="shared" si="9"/>
         <v>0.4807824296499657</v>
       </c>
-      <c r="AQ21" s="82">
+      <c r="AQ21" s="46">
         <f t="shared" si="9"/>
         <v>0.4942528735632184</v>
       </c>
-      <c r="AR21" s="82">
+      <c r="AR21" s="46">
         <f t="shared" si="9"/>
         <v>0.49861572535991139</v>
       </c>
@@ -6429,14 +6491,14 @@
       <c r="AL22" s="10">
         <v>58644000000</v>
       </c>
-      <c r="AM22" s="74">
+      <c r="AM22" s="40">
         <v>74809000000</v>
       </c>
-      <c r="AU22" s="69">
+      <c r="AU22" s="36">
         <f>(-1*AM98)/AU101</f>
         <v>3.248349636061084E-2</v>
       </c>
-      <c r="AV22" s="70">
+      <c r="AV22" s="37">
         <f>AM107/AU101</f>
         <v>8.2333974453282846E-2</v>
       </c>
@@ -7154,19 +7216,19 @@
       <c r="AM28" s="11">
         <v>55525000000</v>
       </c>
-      <c r="AN28" s="77">
+      <c r="AN28" s="42">
         <v>79157000000</v>
       </c>
-      <c r="AO28" s="77">
+      <c r="AO28" s="42">
         <v>90647000000</v>
       </c>
-      <c r="AP28" s="77">
+      <c r="AP28" s="42">
         <v>103700000000</v>
       </c>
-      <c r="AQ28" s="77">
+      <c r="AQ28" s="42">
         <v>115200000000</v>
       </c>
-      <c r="AR28" s="77">
+      <c r="AR28" s="42">
         <v>126100000000</v>
       </c>
     </row>
@@ -7462,23 +7524,23 @@
       <c r="AM30" s="2">
         <v>0.31380000000000002</v>
       </c>
-      <c r="AN30" s="78">
+      <c r="AN30" s="43">
         <f>AN28/AN3</f>
         <v>0.35572982203846848</v>
       </c>
-      <c r="AO30" s="78">
+      <c r="AO30" s="43">
         <f t="shared" ref="AO30:AR30" si="16">AO28/AO3</f>
         <v>0.35161753297129555</v>
       </c>
-      <c r="AP30" s="78">
+      <c r="AP30" s="43">
         <f t="shared" si="16"/>
         <v>0.35586822237474264</v>
       </c>
-      <c r="AQ30" s="78">
+      <c r="AQ30" s="43">
         <f t="shared" si="16"/>
         <v>0.35787511649580617</v>
       </c>
-      <c r="AR30" s="78">
+      <c r="AR30" s="43">
         <f t="shared" si="16"/>
         <v>0.3491140642303433</v>
       </c>
@@ -7601,19 +7663,19 @@
       <c r="AM31" s="12">
         <v>24.51</v>
       </c>
-      <c r="AN31" s="79">
+      <c r="AN31" s="44">
         <v>35.31</v>
       </c>
-      <c r="AO31" s="79">
+      <c r="AO31" s="44">
         <v>40.43</v>
       </c>
-      <c r="AP31" s="79">
+      <c r="AP31" s="44">
         <v>46.27</v>
       </c>
-      <c r="AQ31" s="79">
+      <c r="AQ31" s="44">
         <v>51.37</v>
       </c>
-      <c r="AR31" s="79">
+      <c r="AR31" s="44">
         <v>56.26</v>
       </c>
     </row>
@@ -13877,10 +13939,10 @@
       <c r="AM83" s="1">
         <v>-4767000000</v>
       </c>
-      <c r="AT83" s="63" t="s">
+      <c r="AT83" s="72" t="s">
         <v>125</v>
       </c>
-      <c r="AU83" s="64"/>
+      <c r="AU83" s="73"/>
     </row>
     <row r="84" spans="1:47" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -14000,10 +14062,10 @@
       <c r="AM84" s="1">
         <v>6717000000</v>
       </c>
-      <c r="AT84" s="65" t="s">
+      <c r="AT84" s="74" t="s">
         <v>126</v>
       </c>
-      <c r="AU84" s="66"/>
+      <c r="AU84" s="74"/>
     </row>
     <row r="85" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -14123,10 +14185,10 @@
       <c r="AM85" s="1">
         <v>1160000000</v>
       </c>
-      <c r="AT85" s="23" t="s">
+      <c r="AT85" s="48" t="s">
         <v>127</v>
       </c>
-      <c r="AU85" s="24">
+      <c r="AU85" s="49">
         <f>AM17</f>
         <v>378000000</v>
       </c>
@@ -14249,10 +14311,10 @@
       <c r="AM86" s="1">
         <v>6260000000</v>
       </c>
-      <c r="AT86" s="23" t="s">
+      <c r="AT86" s="48" t="s">
         <v>128</v>
       </c>
-      <c r="AU86" s="24">
+      <c r="AU86" s="49">
         <f>AM56</f>
         <v>1466000000</v>
       </c>
@@ -14375,10 +14437,10 @@
       <c r="AM87" s="10">
         <v>78887000000</v>
       </c>
-      <c r="AT87" s="23" t="s">
+      <c r="AT87" s="48" t="s">
         <v>129</v>
       </c>
-      <c r="AU87" s="24">
+      <c r="AU87" s="49">
         <f>AM61</f>
         <v>24318000000</v>
       </c>
@@ -14501,10 +14563,10 @@
       <c r="AM88" s="1">
         <v>-12146000000</v>
       </c>
-      <c r="AT88" s="33" t="s">
+      <c r="AT88" s="50" t="s">
         <v>130</v>
       </c>
-      <c r="AU88" s="34">
+      <c r="AU88" s="51">
         <f>AU85/(AU86+AU87)</f>
         <v>1.4660254421346572E-2</v>
       </c>
@@ -14665,10 +14727,10 @@
         <f t="shared" si="19"/>
         <v>6.8639307390621296E-2</v>
       </c>
-      <c r="AT89" s="23" t="s">
+      <c r="AT89" s="48" t="s">
         <v>105</v>
       </c>
-      <c r="AU89" s="24">
+      <c r="AU89" s="49">
         <f>AM27</f>
         <v>13537000000</v>
       </c>
@@ -14791,10 +14853,10 @@
       <c r="AM90" s="1">
         <v>-7075000000</v>
       </c>
-      <c r="AT90" s="23" t="s">
+      <c r="AT90" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="AU90" s="24">
+      <c r="AU90" s="49">
         <f>AM25</f>
         <v>69062000000</v>
       </c>
@@ -14917,10 +14979,10 @@
       <c r="AM91" s="1">
         <v>-9735000000</v>
       </c>
-      <c r="AT91" s="33" t="s">
+      <c r="AT91" s="50" t="s">
         <v>131</v>
       </c>
-      <c r="AU91" s="34">
+      <c r="AU91" s="51">
         <f>AU89/AU90</f>
         <v>0.19601227882192812</v>
       </c>
@@ -15043,10 +15105,10 @@
       <c r="AM92" s="1">
         <v>6645000000</v>
       </c>
-      <c r="AT92" s="35" t="s">
+      <c r="AT92" s="50" t="s">
         <v>132</v>
       </c>
-      <c r="AU92" s="36">
+      <c r="AU92" s="51">
         <f>AU88*(1-AU91)</f>
         <v>1.1786664544109184E-2</v>
       </c>
@@ -15169,10 +15231,10 @@
       <c r="AM93" s="1">
         <v>-2607000000</v>
       </c>
-      <c r="AT93" s="65" t="s">
+      <c r="AT93" s="74" t="s">
         <v>133</v>
       </c>
-      <c r="AU93" s="66"/>
+      <c r="AU93" s="74"/>
     </row>
     <row r="94" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -15292,12 +15354,12 @@
       <c r="AM94" s="10">
         <v>-24918000000</v>
       </c>
-      <c r="AT94" s="23" t="s">
+      <c r="AT94" s="48" t="s">
         <v>134</v>
       </c>
-      <c r="AU94" s="71">
+      <c r="AU94" s="52">
         <f>[1]Treasuries!$C$8</f>
-        <v>3.739E-2</v>
+        <v>3.8539999999999998E-2</v>
       </c>
     </row>
     <row r="95" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15418,12 +15480,12 @@
       <c r="AM95" s="1">
         <v>-13623000000</v>
       </c>
-      <c r="AT95" s="38" t="s">
+      <c r="AT95" s="53" t="s">
         <v>135</v>
       </c>
-      <c r="AU95" s="39" cm="1">
+      <c r="AU95" s="54" cm="1">
         <f t="array" ref="AU95">_FV(A1,"Beta")</f>
-        <v>0.76639999999999997</v>
+        <v>0.77180000000000004</v>
       </c>
     </row>
     <row r="96" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15544,10 +15606,10 @@
       <c r="AM96" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AT96" s="23" t="s">
+      <c r="AT96" s="48" t="s">
         <v>136</v>
       </c>
-      <c r="AU96" s="37">
+      <c r="AU96" s="55">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -15669,12 +15731,12 @@
       <c r="AM97" s="1">
         <v>-24086000000</v>
       </c>
-      <c r="AT97" s="35" t="s">
+      <c r="AT97" s="50" t="s">
         <v>137</v>
       </c>
-      <c r="AU97" s="36">
+      <c r="AU97" s="51">
         <f>(AU94)+((AU95)*(AU96-AU94))</f>
-        <v>7.3111904000000005E-2</v>
+        <v>7.362602800000001E-2</v>
       </c>
     </row>
     <row r="98" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -15795,11 +15857,11 @@
       <c r="AM98" s="1">
         <v>-25303000000</v>
       </c>
-      <c r="AT98" s="65" t="s">
+      <c r="AT98" s="74" t="s">
         <v>138</v>
       </c>
-      <c r="AU98" s="66"/>
-      <c r="AV98" s="59" t="e" vm="2">
+      <c r="AU98" s="74"/>
+      <c r="AV98" s="32" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
     </row>
@@ -15921,14 +15983,14 @@
       <c r="AM99" s="1">
         <v>11215000000</v>
       </c>
-      <c r="AT99" s="23" t="s">
+      <c r="AT99" s="48" t="s">
         <v>139</v>
       </c>
-      <c r="AU99" s="24">
+      <c r="AU99" s="49">
         <f>AU86+AU87</f>
         <v>25784000000</v>
       </c>
-      <c r="AV99" s="59" t="s">
+      <c r="AV99" s="32" t="s">
         <v>158</v>
       </c>
     </row>
@@ -16050,14 +16112,14 @@
       <c r="AM100" s="10">
         <v>-51797000000</v>
       </c>
-      <c r="AT100" s="33" t="s">
+      <c r="AT100" s="50" t="s">
         <v>140</v>
       </c>
-      <c r="AU100" s="34">
+      <c r="AU100" s="51">
         <f>AU99/AU103</f>
         <v>3.204042481646717E-2</v>
       </c>
-      <c r="AV100" s="60">
+      <c r="AV100" s="33">
         <v>0.15</v>
       </c>
     </row>
@@ -16179,14 +16241,14 @@
       <c r="AM101" s="1">
         <v>-238000000</v>
       </c>
-      <c r="AT101" s="38" t="s">
+      <c r="AT101" s="53" t="s">
         <v>141</v>
       </c>
-      <c r="AU101" s="40" cm="1">
+      <c r="AU101" s="56" cm="1">
         <f t="array" ref="AU101">_FV(A1,"Market cap",TRUE)</f>
         <v>778949400000</v>
       </c>
-      <c r="AV101" s="59">
+      <c r="AV101" s="32">
         <f>AU101*AV100</f>
         <v>116842410000</v>
       </c>
@@ -16309,10 +16371,10 @@
       <c r="AM102" s="10">
         <v>1934000000</v>
       </c>
-      <c r="AT102" s="33" t="s">
+      <c r="AT102" s="50" t="s">
         <v>142</v>
       </c>
-      <c r="AU102" s="34">
+      <c r="AU102" s="51">
         <f>AU101/AU103</f>
         <v>0.96795957518353282</v>
       </c>
@@ -16435,10 +16497,10 @@
       <c r="AM103" s="1">
         <v>10719000000</v>
       </c>
-      <c r="AT103" s="35" t="s">
+      <c r="AT103" s="50" t="s">
         <v>143</v>
       </c>
-      <c r="AU103" s="41">
+      <c r="AU103" s="57">
         <f>AU99+AU101</f>
         <v>804733400000</v>
       </c>
@@ -16561,10 +16623,10 @@
       <c r="AM104" s="11">
         <v>12653000000</v>
       </c>
-      <c r="AT104" s="65" t="s">
+      <c r="AT104" s="74" t="s">
         <v>144</v>
       </c>
-      <c r="AU104" s="66"/>
+      <c r="AU104" s="74"/>
     </row>
     <row r="105" spans="1:48" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -16722,35 +16784,35 @@
         <f>(AM22*(1-$AU$91))+AM77+AM88+AM81</f>
         <v>50025517433.610382</v>
       </c>
-      <c r="AN105" s="42">
+      <c r="AN105" s="29">
         <f>AM105*(1+$AU$106)</f>
         <v>57760841301.723824</v>
       </c>
-      <c r="AO105" s="42">
+      <c r="AO105" s="29">
         <f t="shared" ref="AO105:AR105" si="21">AN105*(1+$AU$106)</f>
         <v>66692259451.600845</v>
       </c>
-      <c r="AP105" s="42">
+      <c r="AP105" s="29">
         <f t="shared" si="21"/>
         <v>77004721027.615982</v>
       </c>
-      <c r="AQ105" s="42">
+      <c r="AQ105" s="29">
         <f t="shared" si="21"/>
         <v>88911773409.68959</v>
       </c>
-      <c r="AR105" s="42">
+      <c r="AR105" s="29">
         <f t="shared" si="21"/>
         <v>102659984288.76755</v>
       </c>
-      <c r="AS105" s="43" t="s">
+      <c r="AS105" s="30" t="s">
         <v>166</v>
       </c>
-      <c r="AT105" s="25" t="s">
+      <c r="AT105" s="58" t="s">
         <v>107</v>
       </c>
-      <c r="AU105" s="26">
+      <c r="AU105" s="59">
         <f>(AU100*AU92)+(AU102*AU97)</f>
-        <v>7.1147017275861688E-2</v>
+        <v>7.1644668524493346E-2</v>
       </c>
     </row>
     <row r="106" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -16759,181 +16821,181 @@
       </c>
       <c r="B106" s="1"/>
       <c r="C106" s="15" t="e">
-        <f>(C107/B107)-1</f>
+        <f t="shared" ref="C106:AM106" si="22">(C107/B107)-1</f>
         <v>#VALUE!</v>
       </c>
       <c r="D106" s="15" t="e">
-        <f>(D107/C107)-1</f>
+        <f t="shared" si="22"/>
         <v>#VALUE!</v>
       </c>
       <c r="E106" s="15" t="e">
-        <f>(E107/D107)-1</f>
+        <f t="shared" si="22"/>
         <v>#VALUE!</v>
       </c>
       <c r="F106" s="15" t="e">
-        <f>(F107/E107)-1</f>
+        <f t="shared" si="22"/>
         <v>#VALUE!</v>
       </c>
       <c r="G106" s="15" t="e">
-        <f>(G107/F107)-1</f>
+        <f t="shared" si="22"/>
         <v>#VALUE!</v>
       </c>
       <c r="H106" s="15">
-        <f>(H107/G107)-1</f>
+        <f t="shared" si="22"/>
         <v>-1.4923508615631733</v>
       </c>
       <c r="I106" s="15">
-        <f>(I107/H107)-1</f>
+        <f t="shared" si="22"/>
         <v>2.8101263736314053</v>
       </c>
       <c r="J106" s="15">
-        <f>(J107/I107)-1</f>
+        <f t="shared" si="22"/>
         <v>-0.21937066760666624</v>
       </c>
       <c r="K106" s="15">
-        <f>(K107/J107)-1</f>
+        <f t="shared" si="22"/>
         <v>-2.8996513352278264</v>
       </c>
       <c r="L106" s="15">
-        <f>(L107/K107)-1</f>
+        <f t="shared" si="22"/>
         <v>0.11557009173442379</v>
       </c>
       <c r="M106" s="15">
-        <f>(M107/L107)-1</f>
+        <f t="shared" si="22"/>
         <v>-1.1223123280708309</v>
       </c>
       <c r="N106" s="15">
-        <f>(N107/M107)-1</f>
+        <f t="shared" si="22"/>
         <v>-4.3398941240330196</v>
       </c>
       <c r="O106" s="15">
-        <f>(O107/N107)-1</f>
+        <f t="shared" si="22"/>
         <v>2.1695874794635279</v>
       </c>
       <c r="P106" s="15">
-        <f>(P107/O107)-1</f>
+        <f t="shared" si="22"/>
         <v>0.27193254100034836</v>
       </c>
       <c r="Q106" s="15">
-        <f>(Q107/P107)-1</f>
+        <f t="shared" si="22"/>
         <v>0.70293243506219127</v>
       </c>
       <c r="R106" s="15">
-        <f>(R107/Q107)-1</f>
+        <f t="shared" si="22"/>
         <v>-0.8701742149232512</v>
       </c>
       <c r="S106" s="15">
-        <f>(S107/R107)-1</f>
+        <f t="shared" si="22"/>
         <v>1.4663535236371517</v>
       </c>
       <c r="T106" s="15">
-        <f>(T107/S107)-1</f>
+        <f t="shared" si="22"/>
         <v>2.9538000381998097</v>
       </c>
       <c r="U106" s="15">
-        <f>(U107/T107)-1</f>
+        <f t="shared" si="22"/>
         <v>0.22304824715743088</v>
       </c>
       <c r="V106" s="15">
-        <f>(V107/U107)-1</f>
+        <f t="shared" si="22"/>
         <v>7.1392679674461945E-2</v>
       </c>
       <c r="W106" s="15">
-        <f>(W107/V107)-1</f>
+        <f t="shared" si="22"/>
         <v>-7.8942953998839882E-2</v>
       </c>
       <c r="X106" s="15">
-        <f>(X107/W107)-1</f>
+        <f t="shared" si="22"/>
         <v>0.710669498405192</v>
       </c>
       <c r="Y106" s="15">
-        <f>(Y107/X107)-1</f>
+        <f t="shared" si="22"/>
         <v>0.4339976640700145</v>
       </c>
       <c r="Z106" s="15">
-        <f>(Z107/Y107)-1</f>
+        <f t="shared" si="22"/>
         <v>0.13446994943615942</v>
       </c>
       <c r="AA106" s="15">
-        <f>(AA107/Z107)-1</f>
+        <f t="shared" si="22"/>
         <v>0.28173475188824826</v>
       </c>
       <c r="AB106" s="15">
-        <f>(AB107/AA107)-1</f>
+        <f t="shared" si="22"/>
         <v>0.14320111519452539</v>
       </c>
       <c r="AC106" s="15">
-        <f>(AC107/AB107)-1</f>
+        <f t="shared" si="22"/>
         <v>3.048442523001893E-2</v>
       </c>
       <c r="AD106" s="15">
-        <f>(AD107/AC107)-1</f>
+        <f t="shared" si="22"/>
         <v>0.19933304647160077</v>
       </c>
       <c r="AE106" s="15">
-        <f>(AE107/AD107)-1</f>
+        <f t="shared" si="22"/>
         <v>0.22688133464884741</v>
       </c>
       <c r="AF106" s="15">
-        <f>(AF107/AE107)-1</f>
+        <f t="shared" si="22"/>
         <v>0.16536900975984214</v>
       </c>
       <c r="AG106" s="15">
-        <f>(AG107/AF107)-1</f>
+        <f t="shared" si="22"/>
         <v>0.25614002070198549</v>
       </c>
       <c r="AH106" s="15">
-        <f>(AH107/AG107)-1</f>
+        <f t="shared" si="22"/>
         <v>-0.18795415386920367</v>
       </c>
       <c r="AI106" s="15">
-        <f>(AI107/AH107)-1</f>
+        <f t="shared" si="22"/>
         <v>-9.6555965559655954E-3</v>
       </c>
       <c r="AJ106" s="15">
-        <f>(AJ107/AI107)-1</f>
+        <f t="shared" si="22"/>
         <v>0.1038626342917468</v>
       </c>
       <c r="AK106" s="15">
-        <f>(AK107/AJ107)-1</f>
+        <f t="shared" si="22"/>
         <v>-0.15979859919552197</v>
       </c>
       <c r="AL106" s="15">
-        <f>(AL107/AK107)-1</f>
+        <f t="shared" si="22"/>
         <v>0.59407432206226973</v>
       </c>
       <c r="AM106" s="15">
-        <f>(AM107/AL107)-1</f>
+        <f t="shared" si="22"/>
         <v>0.34692848892155825</v>
       </c>
-      <c r="AN106" s="73">
+      <c r="AN106" s="39">
         <v>70603000000</v>
       </c>
-      <c r="AO106" s="73">
+      <c r="AO106" s="39">
         <v>82481000000</v>
       </c>
-      <c r="AP106" s="73">
+      <c r="AP106" s="39">
         <v>95000000000</v>
       </c>
-      <c r="AQ106" s="73">
+      <c r="AQ106" s="39">
         <v>110700000000</v>
       </c>
-      <c r="AR106" s="73">
+      <c r="AR106" s="39">
         <v>131700000000</v>
       </c>
-      <c r="AS106" s="43" t="s">
+      <c r="AS106" s="30" t="s">
         <v>167</v>
       </c>
-      <c r="AT106" s="44" t="s">
+      <c r="AT106" s="60" t="s">
         <v>145</v>
       </c>
-      <c r="AU106" s="45">
+      <c r="AU106" s="61">
         <f>(SUM(AN4:AR4)/5)</f>
         <v>0.15462756339060574</v>
       </c>
     </row>
     <row r="107" spans="1:48" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="72" t="s">
+      <c r="A107" s="38" t="s">
         <v>165</v>
       </c>
       <c r="B107" s="1" t="s">
@@ -17050,139 +17112,139 @@
       <c r="AM107" s="1">
         <v>64134000000</v>
       </c>
-      <c r="AN107" s="43"/>
-      <c r="AO107" s="43"/>
-      <c r="AP107" s="43"/>
-      <c r="AQ107" s="43"/>
-      <c r="AR107" s="83">
+      <c r="AN107" s="30"/>
+      <c r="AO107" s="30"/>
+      <c r="AP107" s="30"/>
+      <c r="AQ107" s="30"/>
+      <c r="AR107" s="47">
         <f>AR106*(1+AU107)/(AU108-AU107)</f>
-        <v>2925270320138.5688</v>
-      </c>
-      <c r="AS107" s="46" t="s">
+        <v>2894060656238.0171</v>
+      </c>
+      <c r="AS107" s="31" t="s">
         <v>146</v>
       </c>
-      <c r="AT107" s="47" t="s">
+      <c r="AT107" s="62" t="s">
         <v>147</v>
       </c>
-      <c r="AU107" s="48">
+      <c r="AU107" s="63">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:48" ht="19" x14ac:dyDescent="0.25">
-      <c r="AN108" s="83">
-        <f t="shared" ref="AN108:AQ108" si="22">AN107+AN106</f>
+      <c r="AN108" s="47">
+        <f t="shared" ref="AN108:AQ108" si="23">AN107+AN106</f>
         <v>70603000000</v>
       </c>
-      <c r="AO108" s="83">
-        <f t="shared" si="22"/>
+      <c r="AO108" s="47">
+        <f t="shared" si="23"/>
         <v>82481000000</v>
       </c>
-      <c r="AP108" s="83">
-        <f t="shared" si="22"/>
+      <c r="AP108" s="47">
+        <f t="shared" si="23"/>
         <v>95000000000</v>
       </c>
-      <c r="AQ108" s="83">
-        <f t="shared" si="22"/>
+      <c r="AQ108" s="47">
+        <f t="shared" si="23"/>
         <v>110700000000</v>
       </c>
-      <c r="AR108" s="83">
+      <c r="AR108" s="47">
         <f>AR107+AR106</f>
-        <v>3056970320138.5688</v>
-      </c>
-      <c r="AS108" s="46" t="s">
+        <v>3025760656238.0171</v>
+      </c>
+      <c r="AS108" s="31" t="s">
         <v>143</v>
       </c>
-      <c r="AT108" s="49" t="s">
+      <c r="AT108" s="64" t="s">
         <v>148</v>
       </c>
-      <c r="AU108" s="50">
+      <c r="AU108" s="61">
         <f>AU105</f>
-        <v>7.1147017275861688E-2</v>
+        <v>7.1644668524493346E-2</v>
       </c>
     </row>
     <row r="109" spans="1:48" ht="19" x14ac:dyDescent="0.25">
-      <c r="AN109" s="61" t="s">
+      <c r="AN109" s="71" t="s">
         <v>149</v>
       </c>
-      <c r="AO109" s="62"/>
+      <c r="AO109" s="71"/>
     </row>
     <row r="110" spans="1:48" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN110" s="51" t="s">
+      <c r="AN110" s="65" t="s">
         <v>150</v>
       </c>
-      <c r="AO110" s="40">
+      <c r="AO110" s="56">
         <f>NPV(AU108,AN108,AO108,AP108,AQ108,AR108)</f>
-        <v>2467124892441.2739</v>
+        <v>2439652911534.3657</v>
       </c>
     </row>
     <row r="111" spans="1:48" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN111" s="51" t="s">
+      <c r="AN111" s="65" t="s">
         <v>151</v>
       </c>
-      <c r="AO111" s="40">
+      <c r="AO111" s="56">
         <f>AM40</f>
         <v>23574000000</v>
       </c>
     </row>
     <row r="112" spans="1:48" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN112" s="51" t="s">
+      <c r="AN112" s="65" t="s">
         <v>139</v>
       </c>
-      <c r="AO112" s="40">
+      <c r="AO112" s="56">
         <f>AU99</f>
         <v>25784000000</v>
       </c>
     </row>
     <row r="113" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN113" s="51" t="s">
+      <c r="AN113" s="65" t="s">
         <v>152</v>
       </c>
-      <c r="AO113" s="40">
+      <c r="AO113" s="56">
         <f>AO110+AO111-AO112</f>
-        <v>2464914892441.2739</v>
+        <v>2437442911534.3657</v>
       </c>
     </row>
     <row r="114" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN114" s="51" t="s">
+      <c r="AN114" s="65" t="s">
         <v>153</v>
       </c>
-      <c r="AO114" s="52">
+      <c r="AO114" s="65">
         <f>AM34*(1+(5*AS16))</f>
         <v>2077366469.8762372</v>
       </c>
     </row>
     <row r="115" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN115" s="53" t="s">
+      <c r="AN115" s="66" t="s">
         <v>154</v>
       </c>
-      <c r="AO115" s="54">
+      <c r="AO115" s="67">
         <f>AO113/AO114*AV100</f>
-        <v>177.98363419633844</v>
+        <v>175.99997016989354</v>
       </c>
     </row>
     <row r="116" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN116" s="51" t="s">
+      <c r="AN116" s="65" t="s">
         <v>155</v>
       </c>
-      <c r="AO116" s="55" cm="1">
+      <c r="AO116" s="68" cm="1">
         <f t="array" ref="AO116">_FV(AV98,"Price")</f>
-        <v>159.07</v>
+        <v>161.83000000000001</v>
       </c>
     </row>
     <row r="117" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN117" s="56" t="s">
+      <c r="AN117" s="66" t="s">
         <v>156</v>
       </c>
-      <c r="AO117" s="57">
+      <c r="AO117" s="69">
         <f>AO115/AO116-1</f>
-        <v>0.1189013276943387</v>
+        <v>8.7560836494429584E-2</v>
       </c>
     </row>
     <row r="118" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN118" s="56" t="s">
+      <c r="AN118" s="66" t="s">
         <v>157</v>
       </c>
-      <c r="AO118" s="58" t="str">
+      <c r="AO118" s="70" t="str">
         <f>IF(AO115&gt;AO116,"BUY","SELL")</f>
         <v>BUY</v>
       </c>

--- a/Healthcare/Novo Nordisk.xlsx
+++ b/Healthcare/Novo Nordisk.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Healthcare/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFAD2F74-1EB6-A041-8C19-1E9A1D7B2FD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31D8C633-90FC-384C-80F4-224165BFB066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2429,7 +2429,6 @@
     <sheetNames>
       <sheetName val="Factor Scoring"/>
       <sheetName val="Factor Investing"/>
-      <sheetName val="Concentrated"/>
       <sheetName val="Hardware"/>
       <sheetName val="Software"/>
       <sheetName val="Consumer"/>
@@ -2443,10 +2442,12 @@
       <sheetName val="ROIC Port"/>
       <sheetName val="To Be Modeled"/>
       <sheetName val="My Holdings"/>
+      <sheetName val="My Stocks"/>
+      <sheetName val="Short List"/>
       <sheetName val="Stable Growth"/>
       <sheetName val="High Growth"/>
+      <sheetName val="Small Caps"/>
       <sheetName val="Compounders"/>
-      <sheetName val="Small Cap Gems"/>
       <sheetName val="Private Companies"/>
     </sheetNames>
     <sheetDataSet>
@@ -2460,14 +2461,14 @@
       <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11">
+      <sheetData sheetId="10">
         <row r="8">
           <cell r="C8">
-            <v>3.8539999999999998E-2</v>
+            <v>4.0410000000000001E-2</v>
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="11"/>
       <sheetData sheetId="12"/>
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
@@ -2477,6 +2478,7 @@
       <sheetData sheetId="18"/>
       <sheetData sheetId="19"/>
       <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2604,7 +2606,7 @@
     <v>Powered by Refinitiv</v>
     <v>50.17</v>
     <v>49.155000000000001</v>
-    <v>0.77180000000000004</v>
+    <v>0.76249999999999996</v>
     <v>0.16</v>
     <v>3.2320000000000001E-3</v>
     <v>CHF</v>
@@ -2631,7 +2633,7 @@
     <v>NOVOB</v>
     <v>Novo Nordisk A/S (XSWX:NOVOB)</v>
     <v>2478</v>
-    <v>1335440</v>
+    <v>1219240</v>
     <v>1931</v>
   </rv>
   <rv s="2">
@@ -2655,11 +2657,11 @@
     <v>Powered by Refinitiv</v>
     <v>172.97</v>
     <v>95.02</v>
-    <v>0.46850000000000003</v>
-    <v>4.8</v>
-    <v>3.0567E-2</v>
-    <v>0</v>
-    <v>0</v>
+    <v>0.46729999999999999</v>
+    <v>-1.34</v>
+    <v>-8.464000000000001E-3</v>
+    <v>0.01</v>
+    <v>6.3700000000000003E-5</v>
     <v>USD</v>
     <v>Novo Nordisk A/S is a global healthcare company engaged in diabetes care. The Company is also engaged in the discovery, development, manufacturing and marketing of pharmaceutical products. The Company operates through two business segments: diabetes and obesity care, and biopharmaceuticals. The Company's diabetes and obesity care segment covers insulin, GLP-1, other protein-related products, such as glucagon, protein-related delivery systems and needles, and oral anti-diabetic drugs. The Company's biopharmaceuticals segment covers the therapy areas of hemophilia care, growth hormone therapy and hormone replacement therapy. The Company also offers Saxenda product to treat obesity. It offers a range of products, including NovoLog/NovoRapid; NovoLog Mix/NovoMix; Prandin/NovoNorm; NovoSeven; Norditropin, and Vagifem. As of December 31, 2016, it marketed its products in over 180 countries. Its regional structure consists of two commercial units: North America and International Operations.</v>
     <v>57089</v>
@@ -2667,25 +2669,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>Novo Alle 1, BAGSVAERD, DENMARK-NA, 2880 DK</v>
-    <v>162.08000000000001</v>
+    <v>158.55000000000001</v>
     <v>Pharmaceuticals</v>
     <v>Stock</v>
-    <v>45107.998778367968</v>
+    <v>45114.994983344528</v>
     <v>3</v>
-    <v>160.51</v>
-    <v>268499900000</v>
+    <v>156.92500000000001</v>
+    <v>269707400000</v>
     <v>Novo Nordisk A/S</v>
     <v>Novo Nordisk A/S</v>
-    <v>160.53</v>
-    <v>40.136699999999998</v>
-    <v>157.03</v>
-    <v>161.83000000000001</v>
-    <v>161.83000000000001</v>
+    <v>158.19</v>
+    <v>40.4664</v>
+    <v>158.32</v>
+    <v>156.97999999999999</v>
+    <v>156.99</v>
     <v>1717564000</v>
     <v>NVO</v>
     <v>Novo Nordisk A/S (XNYS:NVO)</v>
-    <v>1089948</v>
-    <v>1271112</v>
+    <v>1090004</v>
+    <v>1216446</v>
     <v>1931</v>
   </rv>
   <rv s="2">
@@ -3428,10 +3430,10 @@
   <dimension ref="A1:AV118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AK2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AJ85" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AQ13" sqref="AQ13"/>
+      <selection pane="bottomRight" activeCell="AP101" sqref="AP101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15359,7 +15361,7 @@
       </c>
       <c r="AU94" s="52">
         <f>[1]Treasuries!$C$8</f>
-        <v>3.8539999999999998E-2</v>
+        <v>4.0410000000000001E-2</v>
       </c>
     </row>
     <row r="95" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15485,7 +15487,7 @@
       </c>
       <c r="AU95" s="54" cm="1">
         <f t="array" ref="AU95">_FV(A1,"Beta")</f>
-        <v>0.77180000000000004</v>
+        <v>0.76249999999999996</v>
       </c>
     </row>
     <row r="96" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15736,7 +15738,7 @@
       </c>
       <c r="AU97" s="51">
         <f>(AU94)+((AU95)*(AU96-AU94))</f>
-        <v>7.362602800000001E-2</v>
+        <v>7.3647375000000001E-2</v>
       </c>
     </row>
     <row r="98" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -16812,7 +16814,7 @@
       </c>
       <c r="AU105" s="59">
         <f>(AU100*AU92)+(AU102*AU97)</f>
-        <v>7.1644668524493346E-2</v>
+        <v>7.1665331557544787E-2</v>
       </c>
     </row>
     <row r="106" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -17118,7 +17120,7 @@
       <c r="AQ107" s="30"/>
       <c r="AR107" s="47">
         <f>AR106*(1+AU107)/(AU108-AU107)</f>
-        <v>2894060656238.0171</v>
+        <v>2892779189483.2168</v>
       </c>
       <c r="AS107" s="31" t="s">
         <v>146</v>
@@ -17149,7 +17151,7 @@
       </c>
       <c r="AR108" s="47">
         <f>AR107+AR106</f>
-        <v>3025760656238.0171</v>
+        <v>3024479189483.2168</v>
       </c>
       <c r="AS108" s="31" t="s">
         <v>143</v>
@@ -17159,7 +17161,7 @@
       </c>
       <c r="AU108" s="61">
         <f>AU105</f>
-        <v>7.1644668524493346E-2</v>
+        <v>7.1665331557544787E-2</v>
       </c>
     </row>
     <row r="109" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -17174,7 +17176,7 @@
       </c>
       <c r="AO110" s="56">
         <f>NPV(AU108,AN108,AO108,AP108,AQ108,AR108)</f>
-        <v>2439652911534.3657</v>
+        <v>2438524961791.1577</v>
       </c>
     </row>
     <row r="111" spans="1:48" ht="20" x14ac:dyDescent="0.25">
@@ -17201,7 +17203,7 @@
       </c>
       <c r="AO113" s="56">
         <f>AO110+AO111-AO112</f>
-        <v>2437442911534.3657</v>
+        <v>2436314961791.1577</v>
       </c>
     </row>
     <row r="114" spans="40:41" ht="20" x14ac:dyDescent="0.25">
@@ -17219,7 +17221,7 @@
       </c>
       <c r="AO115" s="67">
         <f>AO113/AO114*AV100</f>
-        <v>175.99997016989354</v>
+        <v>175.918524520349</v>
       </c>
     </row>
     <row r="116" spans="40:41" ht="20" x14ac:dyDescent="0.25">
@@ -17228,7 +17230,7 @@
       </c>
       <c r="AO116" s="68" cm="1">
         <f t="array" ref="AO116">_FV(AV98,"Price")</f>
-        <v>161.83000000000001</v>
+        <v>156.97999999999999</v>
       </c>
     </row>
     <row r="117" spans="40:41" ht="20" x14ac:dyDescent="0.25">
@@ -17237,7 +17239,7 @@
       </c>
       <c r="AO117" s="69">
         <f>AO115/AO116-1</f>
-        <v>8.7560836494429584E-2</v>
+        <v>0.12064291323957832</v>
       </c>
     </row>
     <row r="118" spans="40:41" ht="20" x14ac:dyDescent="0.25">

--- a/Healthcare/Novo Nordisk.xlsx
+++ b/Healthcare/Novo Nordisk.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Healthcare/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31D8C633-90FC-384C-80F4-224165BFB066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F82B829-23C4-5949-926F-4EB07DC62496}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2427,8 +2427,7 @@
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
-      <sheetName val="Factor Scoring"/>
-      <sheetName val="Factor Investing"/>
+      <sheetName val="Treasuries"/>
       <sheetName val="Hardware"/>
       <sheetName val="Software"/>
       <sheetName val="Consumer"/>
@@ -2437,21 +2436,22 @@
       <sheetName val="Industrials"/>
       <sheetName val="Real Estate"/>
       <sheetName val="Fashion + Beauty"/>
-      <sheetName val="Treasuries"/>
-      <sheetName val="All Stars"/>
-      <sheetName val="ROIC Port"/>
-      <sheetName val="To Be Modeled"/>
-      <sheetName val="My Holdings"/>
       <sheetName val="My Stocks"/>
+      <sheetName val="Compounders"/>
+      <sheetName val="GARP"/>
+      <sheetName val="Value"/>
+      <sheetName val="Aggressive Growth"/>
+      <sheetName val="Other"/>
       <sheetName val="Short List"/>
-      <sheetName val="Stable Growth"/>
-      <sheetName val="High Growth"/>
-      <sheetName val="Small Caps"/>
-      <sheetName val="Compounders"/>
-      <sheetName val="Private Companies"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0">
+        <row r="8">
+          <cell r="C8">
+            <v>4.0480000000000002E-2</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
@@ -2461,24 +2461,12 @@
       <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
-      <sheetData sheetId="10">
-        <row r="8">
-          <cell r="C8">
-            <v>4.0410000000000001E-2</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="10"/>
       <sheetData sheetId="11"/>
       <sheetData sheetId="12"/>
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2633,7 +2621,7 @@
     <v>NOVOB</v>
     <v>Novo Nordisk A/S (XSWX:NOVOB)</v>
     <v>2478</v>
-    <v>1219240</v>
+    <v>1226710</v>
     <v>1931</v>
   </rv>
   <rv s="2">
@@ -2643,13 +2631,13 @@
     <v>https://www.bing.com/financeapi/forcetrigger?t=a1yvxm&amp;q=XNYS%3aNVO&amp;form=skydnc</v>
     <v>Learn more on Bing</v>
   </rv>
-  <rv s="3">
-    <v>5</v>
+  <rv s="1">
+    <v>0</v>
     <v>Novo Nordisk A/S (XNYS:NVO)</v>
     <v>2</v>
+    <v>5</v>
+    <v>Finance</v>
     <v>6</v>
-    <v>Finance</v>
-    <v>7</v>
     <v>en-US</v>
     <v>a1yvxm</v>
     <v>268435456</v>
@@ -2657,11 +2645,9 @@
     <v>Powered by Refinitiv</v>
     <v>172.97</v>
     <v>95.02</v>
-    <v>0.46729999999999999</v>
-    <v>-1.34</v>
-    <v>-8.464000000000001E-3</v>
-    <v>0.01</v>
-    <v>6.3700000000000003E-5</v>
+    <v>0.76249999999999996</v>
+    <v>0.09</v>
+    <v>5.733E-4</v>
     <v>USD</v>
     <v>Novo Nordisk A/S is a global healthcare company engaged in diabetes care. The Company is also engaged in the discovery, development, manufacturing and marketing of pharmaceutical products. The Company operates through two business segments: diabetes and obesity care, and biopharmaceuticals. The Company's diabetes and obesity care segment covers insulin, GLP-1, other protein-related products, such as glucagon, protein-related delivery systems and needles, and oral anti-diabetic drugs. The Company's biopharmaceuticals segment covers the therapy areas of hemophilia care, growth hormone therapy and hormone replacement therapy. The Company also offers Saxenda product to treat obesity. It offers a range of products, including NovoLog/NovoRapid; NovoLog Mix/NovoMix; Prandin/NovoNorm; NovoSeven; Norditropin, and Vagifem. As of December 31, 2016, it marketed its products in over 180 countries. Its regional structure consists of two commercial units: North America and International Operations.</v>
     <v>57089</v>
@@ -2669,25 +2655,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>Novo Alle 1, BAGSVAERD, DENMARK-NA, 2880 DK</v>
-    <v>158.55000000000001</v>
+    <v>157.4</v>
     <v>Pharmaceuticals</v>
     <v>Stock</v>
-    <v>45114.994983344528</v>
+    <v>45117.995191735936</v>
     <v>3</v>
-    <v>156.92500000000001</v>
-    <v>269707400000</v>
+    <v>156.13</v>
+    <v>1844664000000</v>
     <v>Novo Nordisk A/S</v>
     <v>Novo Nordisk A/S</v>
-    <v>158.19</v>
-    <v>40.4664</v>
-    <v>158.32</v>
+    <v>156.37</v>
+    <v>40.146900000000002</v>
     <v>156.97999999999999</v>
-    <v>156.99</v>
+    <v>157.07</v>
     <v>1717564000</v>
     <v>NVO</v>
     <v>Novo Nordisk A/S (XNYS:NVO)</v>
-    <v>1090004</v>
-    <v>1216446</v>
+    <v>851</v>
+    <v>1226369</v>
     <v>1931</v>
   </rv>
   <rv s="2">
@@ -2697,7 +2682,7 @@
 </file>
 
 <file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
-<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="4">
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="3">
   <s t="_hyperlink">
     <k n="Address" t="s"/>
     <k n="Text" t="s"/>
@@ -2749,59 +2734,12 @@
   <s t="_linkedentity">
     <k n="%cvi" t="r"/>
   </s>
-  <s t="_linkedentitycore">
-    <k n="_Display" t="spb"/>
-    <k n="_DisplayString" t="s"/>
-    <k n="_Flags" t="spb"/>
-    <k n="_Format" t="spb"/>
-    <k n="_Icon" t="s"/>
-    <k n="_SubLabel" t="spb"/>
-    <k n="%EntityCulture" t="s"/>
-    <k n="%EntityId" t="s"/>
-    <k n="%EntityServiceId"/>
-    <k n="%IsRefreshable" t="b"/>
-    <k n="%ProviderInfo" t="s"/>
-    <k n="52 week high"/>
-    <k n="52 week low"/>
-    <k n="Beta"/>
-    <k n="Change"/>
-    <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
-    <k n="Currency" t="s"/>
-    <k n="Description" t="s"/>
-    <k n="Employees"/>
-    <k n="Exchange" t="s"/>
-    <k n="Exchange abbreviation" t="s"/>
-    <k n="ExchangeID" t="s"/>
-    <k n="Headquarters" t="s"/>
-    <k n="High"/>
-    <k n="Industry" t="s"/>
-    <k n="Instrument type" t="s"/>
-    <k n="Last trade time"/>
-    <k n="LearnMoreOnLink" t="r"/>
-    <k n="Low"/>
-    <k n="Market cap"/>
-    <k n="Name" t="s"/>
-    <k n="Official name" t="s"/>
-    <k n="Open"/>
-    <k n="P/E"/>
-    <k n="Previous close"/>
-    <k n="Price"/>
-    <k n="Price (Extended hours)"/>
-    <k n="Shares outstanding"/>
-    <k n="Ticker symbol" t="s"/>
-    <k n="UniqueName" t="s"/>
-    <k n="Volume"/>
-    <k n="Volume average"/>
-    <k n="Year incorporated"/>
-  </s>
 </rvStructures>
 </file>
 
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
-  <spbArrays count="2">
+  <spbArrays count="1">
     <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
@@ -2846,55 +2784,8 @@
       <v t="s">ExchangeID</v>
       <v t="s">%ProviderInfo</v>
     </a>
-    <a count="45">
-      <v t="s">%EntityServiceId</v>
-      <v t="s">_Format</v>
-      <v t="s">%IsRefreshable</v>
-      <v t="s">%EntityCulture</v>
-      <v t="s">%EntityId</v>
-      <v t="s">_Icon</v>
-      <v t="s">_Display</v>
-      <v t="s">Name</v>
-      <v t="s">_SubLabel</v>
-      <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
-      <v t="s">Exchange</v>
-      <v t="s">Official name</v>
-      <v t="s">Last trade time</v>
-      <v t="s">Ticker symbol</v>
-      <v t="s">Exchange abbreviation</v>
-      <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
-      <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
-      <v t="s">Currency</v>
-      <v t="s">Previous close</v>
-      <v t="s">Open</v>
-      <v t="s">High</v>
-      <v t="s">Low</v>
-      <v t="s">52 week high</v>
-      <v t="s">52 week low</v>
-      <v t="s">Volume</v>
-      <v t="s">Volume average</v>
-      <v t="s">Market cap</v>
-      <v t="s">Beta</v>
-      <v t="s">P/E</v>
-      <v t="s">Shares outstanding</v>
-      <v t="s">Description</v>
-      <v t="s">Employees</v>
-      <v t="s">Headquarters</v>
-      <v t="s">Industry</v>
-      <v t="s">Instrument type</v>
-      <v t="s">Year incorporated</v>
-      <v t="s">_Flags</v>
-      <v t="s">UniqueName</v>
-      <v t="s">_DisplayString</v>
-      <v t="s">LearnMoreOnLink</v>
-      <v t="s">ExchangeID</v>
-      <v t="s">%ProviderInfo</v>
-    </a>
   </spbArrays>
-  <spbData count="8">
+  <spbData count="7">
     <spb s="0">
       <v>0</v>
       <v>Name</v>
@@ -2939,12 +2830,7 @@
       <v>from previous close</v>
       <v>GMT</v>
     </spb>
-    <spb s="0">
-      <v>1</v>
-      <v>Name</v>
-      <v>LearnMoreOnLink</v>
-    </spb>
-    <spb s="5">
+    <spb s="3">
       <v>10</v>
       <v>2</v>
       <v>2</v>
@@ -2956,7 +2842,7 @@
       <v>4</v>
       <v>4</v>
       <v>5</v>
-      <v>11</v>
+      <v>6</v>
       <v>10</v>
       <v>10</v>
       <v>10</v>
@@ -2965,26 +2851,20 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>10</v>
-      <v>10</v>
-      <v>5</v>
     </spb>
-    <spb s="6">
-      <v>at close</v>
+    <spb s="5">
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
 </file>
 
 <file path=xl/richData/rdsupportingpropertybagstructure.xml><?xml version="1.0" encoding="utf-8"?>
-<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="7">
+<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="6">
   <s>
     <k n="^Order" t="spba"/>
     <k n="TitleProperty" t="s"/>
@@ -3030,39 +2910,11 @@
     <k n="Last trade time" t="s"/>
   </s>
   <s>
-    <k n="Low" t="i"/>
-    <k n="P/E" t="i"/>
-    <k n="Beta" t="i"/>
-    <k n="High" t="i"/>
-    <k n="Name" t="i"/>
-    <k n="Open" t="i"/>
-    <k n="Price" t="i"/>
-    <k n="Change" t="i"/>
-    <k n="Volume" t="i"/>
-    <k n="Employees" t="i"/>
-    <k n="Change (%)" t="i"/>
-    <k n="Market cap" t="i"/>
-    <k n="52 week low" t="i"/>
-    <k n="52 week high" t="i"/>
-    <k n="Previous close" t="i"/>
-    <k n="Volume average" t="i"/>
-    <k n="Last trade time" t="i"/>
-    <k n="Year incorporated" t="i"/>
-    <k n="`%EntityServiceId" t="i"/>
-    <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
-  </s>
-  <s>
     <k n="Price" t="s"/>
     <k n="Change" t="s"/>
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -3122,9 +2974,6 @@
     </rSty>
     <rSty dxfid="1">
       <rpv i="0">_([$$-en-US]* #,##0.00_);_([$$-en-US]* (#,##0.00);_([$$-en-US]* "-"??_);_(@_)</rpv>
-    </rSty>
-    <rSty dxfid="1">
-      <rpv i="0">_([$$-en-US]* #,##0_);_([$$-en-US]* (#,##0);_([$$-en-US]* "-"_);_(@_)</rpv>
     </rSty>
   </richStyles>
 </richStyleSheet>
@@ -3433,7 +3282,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="AJ85" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AP101" sqref="AP101"/>
+      <selection pane="bottomRight" activeCell="AR101" sqref="AR101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3829,13 +3678,13 @@
         <v>222520000000</v>
       </c>
       <c r="AO3" s="24">
-        <v>257800000000</v>
+        <v>257600000000</v>
       </c>
       <c r="AP3" s="24">
         <v>291400000000</v>
       </c>
       <c r="AQ3" s="24">
-        <v>321900000000</v>
+        <v>323600000000</v>
       </c>
       <c r="AR3" s="24">
         <v>361200000000</v>
@@ -4012,19 +3861,19 @@
       </c>
       <c r="AO4" s="16">
         <f t="shared" si="0"/>
-        <v>0.15854754628797418</v>
+        <v>0.15764875067409667</v>
       </c>
       <c r="AP4" s="16">
         <f t="shared" si="0"/>
-        <v>0.13033359193173011</v>
+        <v>0.1312111801242235</v>
       </c>
       <c r="AQ4" s="16">
         <f t="shared" si="0"/>
-        <v>0.10466712422786539</v>
+        <v>0.11050102951269736</v>
       </c>
       <c r="AR4" s="16">
         <f t="shared" si="0"/>
-        <v>0.12208760484622561</v>
+        <v>0.11619283065512986</v>
       </c>
       <c r="AS4" s="17">
         <f>(AM4+AL4+AK4)/3</f>
@@ -6028,16 +5877,16 @@
         <v>76802000000</v>
       </c>
       <c r="AN19" s="45">
-        <v>104100000000</v>
+        <v>105000000000</v>
       </c>
       <c r="AO19" s="45">
         <v>122600000000</v>
       </c>
       <c r="AP19" s="45">
-        <v>140100000000</v>
+        <v>143200000000</v>
       </c>
       <c r="AQ19" s="45">
-        <v>159100000000</v>
+        <v>160400000000</v>
       </c>
       <c r="AR19" s="45">
         <v>180100000000</v>
@@ -6052,11 +5901,11 @@
       </c>
       <c r="AU19" s="34">
         <f>AU101/AN28</f>
-        <v>9.8405624265699814</v>
+        <v>9.8316197351979699</v>
       </c>
       <c r="AV19" s="35">
         <f>AU101/AN106</f>
-        <v>11.032808804158464</v>
+        <v>10.866281648880518</v>
       </c>
     </row>
     <row r="20" spans="1:48" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -6214,23 +6063,23 @@
       </c>
       <c r="AN20" s="16">
         <f t="shared" ref="AN20" si="4">(AN19/AM19)-1</f>
-        <v>0.35543345225384759</v>
+        <v>0.36715189708601348</v>
       </c>
       <c r="AO20" s="16">
         <f t="shared" ref="AO20" si="5">(AO19/AN19)-1</f>
-        <v>0.17771373679154667</v>
+        <v>0.16761904761904756</v>
       </c>
       <c r="AP20" s="16">
         <f t="shared" ref="AP20" si="6">(AP19/AO19)-1</f>
-        <v>0.14274061990212061</v>
+        <v>0.16802610114192507</v>
       </c>
       <c r="AQ20" s="16">
         <f t="shared" ref="AQ20" si="7">(AQ19/AP19)-1</f>
-        <v>0.13561741613133482</v>
+        <v>0.12011173184357538</v>
       </c>
       <c r="AR20" s="16">
         <f t="shared" ref="AR20" si="8">(AR19/AQ19)-1</f>
-        <v>0.13199245757385292</v>
+        <v>0.12281795511221949</v>
       </c>
     </row>
     <row r="21" spans="1:48" ht="20" x14ac:dyDescent="0.25">
@@ -6353,19 +6202,19 @@
       </c>
       <c r="AN21" s="46">
         <f>AN19/AN3</f>
-        <v>0.46782311702318891</v>
+        <v>0.47186769728563727</v>
       </c>
       <c r="AO21" s="46">
         <f t="shared" ref="AO21:AR21" si="9">AO19/AO3</f>
-        <v>0.47556245151280063</v>
+        <v>0.47593167701863354</v>
       </c>
       <c r="AP21" s="46">
         <f t="shared" si="9"/>
-        <v>0.4807824296499657</v>
+        <v>0.49142072752230609</v>
       </c>
       <c r="AQ21" s="46">
         <f t="shared" si="9"/>
-        <v>0.4942528735632184</v>
+        <v>0.49567367119901112</v>
       </c>
       <c r="AR21" s="46">
         <f t="shared" si="9"/>
@@ -7219,19 +7068,19 @@
         <v>55525000000</v>
       </c>
       <c r="AN28" s="42">
-        <v>79157000000</v>
+        <v>79229000000</v>
       </c>
       <c r="AO28" s="42">
-        <v>90647000000</v>
+        <v>91283000000</v>
       </c>
       <c r="AP28" s="42">
-        <v>103700000000</v>
+        <v>104400000000</v>
       </c>
       <c r="AQ28" s="42">
-        <v>115200000000</v>
+        <v>116700000000</v>
       </c>
       <c r="AR28" s="42">
-        <v>126100000000</v>
+        <v>127000000000</v>
       </c>
     </row>
     <row r="29" spans="1:48" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -7389,23 +7238,23 @@
       </c>
       <c r="AN29" s="16">
         <f t="shared" ref="AN29" si="11">(AN28/AM28)-1</f>
-        <v>0.42561008554705082</v>
+        <v>0.4269067987393067</v>
       </c>
       <c r="AO29" s="16">
         <f t="shared" ref="AO29" si="12">(AO28/AN28)-1</f>
-        <v>0.14515456624177259</v>
+        <v>0.15214126140680806</v>
       </c>
       <c r="AP29" s="16">
         <f t="shared" ref="AP29" si="13">(AP28/AO28)-1</f>
-        <v>0.14399814665681165</v>
+        <v>0.1436959784406735</v>
       </c>
       <c r="AQ29" s="16">
         <f t="shared" ref="AQ29" si="14">(AQ28/AP28)-1</f>
-        <v>0.11089681774349081</v>
+        <v>0.11781609195402298</v>
       </c>
       <c r="AR29" s="16">
         <f t="shared" ref="AR29" si="15">(AR28/AQ28)-1</f>
-        <v>9.461805555555558E-2</v>
+        <v>8.8260497000856919E-2</v>
       </c>
     </row>
     <row r="30" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -7528,23 +7377,23 @@
       </c>
       <c r="AN30" s="43">
         <f>AN28/AN3</f>
-        <v>0.35572982203846848</v>
+        <v>0.35605338845946433</v>
       </c>
       <c r="AO30" s="43">
         <f t="shared" ref="AO30:AR30" si="16">AO28/AO3</f>
-        <v>0.35161753297129555</v>
+        <v>0.35435947204968943</v>
       </c>
       <c r="AP30" s="43">
         <f t="shared" si="16"/>
-        <v>0.35586822237474264</v>
+        <v>0.3582704186684969</v>
       </c>
       <c r="AQ30" s="43">
         <f t="shared" si="16"/>
-        <v>0.35787511649580617</v>
+        <v>0.36063040791100126</v>
       </c>
       <c r="AR30" s="43">
         <f t="shared" si="16"/>
-        <v>0.3491140642303433</v>
+        <v>0.35160575858250276</v>
       </c>
     </row>
     <row r="31" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -7666,19 +7515,19 @@
         <v>24.51</v>
       </c>
       <c r="AN31" s="44">
-        <v>35.31</v>
+        <v>35.35</v>
       </c>
       <c r="AO31" s="44">
-        <v>40.43</v>
+        <v>40.729999999999997</v>
       </c>
       <c r="AP31" s="44">
-        <v>46.27</v>
+        <v>46.6</v>
       </c>
       <c r="AQ31" s="44">
-        <v>51.37</v>
+        <v>52.07</v>
       </c>
       <c r="AR31" s="44">
-        <v>56.26</v>
+        <v>56.65</v>
       </c>
     </row>
     <row r="32" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -15361,7 +15210,7 @@
       </c>
       <c r="AU94" s="52">
         <f>[1]Treasuries!$C$8</f>
-        <v>4.0410000000000001E-2</v>
+        <v>4.0480000000000002E-2</v>
       </c>
     </row>
     <row r="95" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15738,7 +15587,7 @@
       </c>
       <c r="AU97" s="51">
         <f>(AU94)+((AU95)*(AU96-AU94))</f>
-        <v>7.3647375000000001E-2</v>
+        <v>7.3664000000000007E-2</v>
       </c>
     </row>
     <row r="98" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -16788,23 +16637,23 @@
       </c>
       <c r="AN105" s="29">
         <f>AM105*(1+$AU$106)</f>
-        <v>57760841301.723824</v>
+        <v>57760020119.571899</v>
       </c>
       <c r="AO105" s="29">
         <f t="shared" ref="AO105:AR105" si="21">AN105*(1+$AU$106)</f>
-        <v>66692259451.600845</v>
+        <v>66690363145.986412</v>
       </c>
       <c r="AP105" s="29">
         <f t="shared" si="21"/>
-        <v>77004721027.615982</v>
+        <v>77001436760.865646</v>
       </c>
       <c r="AQ105" s="29">
         <f t="shared" si="21"/>
-        <v>88911773409.68959</v>
+        <v>88906717305.74353</v>
       </c>
       <c r="AR105" s="29">
         <f t="shared" si="21"/>
-        <v>102659984288.76755</v>
+        <v>102652686944.41612</v>
       </c>
       <c r="AS105" s="30" t="s">
         <v>166</v>
@@ -16814,7 +16663,7 @@
       </c>
       <c r="AU105" s="59">
         <f>(AU100*AU92)+(AU102*AU97)</f>
-        <v>7.1665331557544787E-2</v>
+        <v>7.1681423885482209E-2</v>
       </c>
     </row>
     <row r="106" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -16971,19 +16820,19 @@
         <v>0.34692848892155825</v>
       </c>
       <c r="AN106" s="39">
-        <v>70603000000</v>
+        <v>71685000000</v>
       </c>
       <c r="AO106" s="39">
-        <v>82481000000</v>
+        <v>82891000000</v>
       </c>
       <c r="AP106" s="39">
-        <v>95000000000</v>
+        <v>98217000000</v>
       </c>
       <c r="AQ106" s="39">
-        <v>110700000000</v>
+        <v>112000000000</v>
       </c>
       <c r="AR106" s="39">
-        <v>131700000000</v>
+        <v>130400000000</v>
       </c>
       <c r="AS106" s="30" t="s">
         <v>167</v>
@@ -16993,7 +16842,7 @@
       </c>
       <c r="AU106" s="61">
         <f>(SUM(AN4:AR4)/5)</f>
-        <v>0.15462756339060574</v>
+        <v>0.15461114812507618</v>
       </c>
     </row>
     <row r="107" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -17120,7 +16969,7 @@
       <c r="AQ107" s="30"/>
       <c r="AR107" s="47">
         <f>AR106*(1+AU107)/(AU108-AU107)</f>
-        <v>2892779189483.2168</v>
+        <v>2863237426688.0034</v>
       </c>
       <c r="AS107" s="31" t="s">
         <v>146</v>
@@ -17135,23 +16984,23 @@
     <row r="108" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="AN108" s="47">
         <f t="shared" ref="AN108:AQ108" si="23">AN107+AN106</f>
-        <v>70603000000</v>
+        <v>71685000000</v>
       </c>
       <c r="AO108" s="47">
         <f t="shared" si="23"/>
-        <v>82481000000</v>
+        <v>82891000000</v>
       </c>
       <c r="AP108" s="47">
         <f t="shared" si="23"/>
-        <v>95000000000</v>
+        <v>98217000000</v>
       </c>
       <c r="AQ108" s="47">
         <f t="shared" si="23"/>
-        <v>110700000000</v>
+        <v>112000000000</v>
       </c>
       <c r="AR108" s="47">
         <f>AR107+AR106</f>
-        <v>3024479189483.2168</v>
+        <v>2993637426688.0034</v>
       </c>
       <c r="AS108" s="31" t="s">
         <v>143</v>
@@ -17161,7 +17010,7 @@
       </c>
       <c r="AU108" s="61">
         <f>AU105</f>
-        <v>7.1665331557544787E-2</v>
+        <v>7.1681423885482209E-2</v>
       </c>
     </row>
     <row r="109" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -17176,7 +17025,7 @@
       </c>
       <c r="AO110" s="56">
         <f>NPV(AU108,AN108,AO108,AP108,AQ108,AR108)</f>
-        <v>2438524961791.1577</v>
+        <v>2421500726451.2061</v>
       </c>
     </row>
     <row r="111" spans="1:48" ht="20" x14ac:dyDescent="0.25">
@@ -17203,7 +17052,7 @@
       </c>
       <c r="AO113" s="56">
         <f>AO110+AO111-AO112</f>
-        <v>2436314961791.1577</v>
+        <v>2419290726451.2061</v>
       </c>
     </row>
     <row r="114" spans="40:41" ht="20" x14ac:dyDescent="0.25">
@@ -17221,7 +17070,7 @@
       </c>
       <c r="AO115" s="67">
         <f>AO113/AO114*AV100</f>
-        <v>175.918524520349</v>
+        <v>174.68925884285642</v>
       </c>
     </row>
     <row r="116" spans="40:41" ht="20" x14ac:dyDescent="0.25">
@@ -17230,7 +17079,7 @@
       </c>
       <c r="AO116" s="68" cm="1">
         <f t="array" ref="AO116">_FV(AV98,"Price")</f>
-        <v>156.97999999999999</v>
+        <v>157.07</v>
       </c>
     </row>
     <row r="117" spans="40:41" ht="20" x14ac:dyDescent="0.25">
@@ -17239,7 +17088,7 @@
       </c>
       <c r="AO117" s="69">
         <f>AO115/AO116-1</f>
-        <v>0.12064291323957832</v>
+        <v>0.1121745644798906</v>
       </c>
     </row>
     <row r="118" spans="40:41" ht="20" x14ac:dyDescent="0.25">

--- a/Healthcare/Novo Nordisk.xlsx
+++ b/Healthcare/Novo Nordisk.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Healthcare/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F82B829-23C4-5949-926F-4EB07DC62496}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07E587DF-21D0-284D-BE19-25E91FD39D4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,7 +50,7 @@
       </extLst>
     </bk>
   </futureMetadata>
-  <futureMetadata name="XLRICHVALUE" count="2">
+  <futureMetadata name="XLRICHVALUE" count="3">
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
@@ -65,25 +65,35 @@
         </ext>
       </extLst>
     </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="7"/>
+        </ext>
+      </extLst>
+    </bk>
   </futureMetadata>
   <cellMetadata count="1">
     <bk>
       <rc t="1" v="0"/>
     </bk>
   </cellMetadata>
-  <valueMetadata count="2">
+  <valueMetadata count="3">
     <bk>
       <rc t="2" v="0"/>
     </bk>
     <bk>
       <rc t="2" v="1"/>
     </bk>
+    <bk>
+      <rc t="2" v="2"/>
+    </bk>
   </valueMetadata>
 </metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1205" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1204" uniqueCount="167">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -559,9 +569,6 @@
     <t>Buy/Sell</t>
   </si>
   <si>
-    <t>DKK to USD</t>
-  </si>
-  <si>
     <t>Forward P/S</t>
   </si>
   <si>
@@ -593,13 +600,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="6">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="168" formatCode="0.0"/>
     <numFmt numFmtId="169" formatCode="0.0%"/>
+    <numFmt numFmtId="170" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -893,7 +901,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -940,12 +948,6 @@
     <xf numFmtId="9" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -955,9 +957,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="168" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1028,6 +1027,9 @@
     <xf numFmtId="9" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1135,9 +1137,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="9.2871287128712871E-2"/>
-          <c:y val="0.11292475502865972"/>
+          <c:y val="0.1451959425859497"/>
           <c:w val="0.85960396039603948"/>
-          <c:h val="0.73900887772471324"/>
+          <c:h val="0.68092090969867713"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -1801,8 +1803,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.3619244822120008"/>
-          <c:y val="0.92859506687267779"/>
+          <c:x val="0.35928421818559808"/>
+          <c:y val="0.91245950552076749"/>
           <c:w val="0.30255367584002496"/>
           <c:h val="4.646869279123101E-2"/>
         </c:manualLayout>
@@ -2384,15 +2386,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>41</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
+      <xdr:colOff>31750</xdr:colOff>
       <xdr:row>108</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
+      <xdr:rowOff>17462</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>47</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>133</xdr:row>
-      <xdr:rowOff>15875</xdr:rowOff>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2437,6 +2439,7 @@
       <sheetName val="Real Estate"/>
       <sheetName val="Fashion + Beauty"/>
       <sheetName val="My Stocks"/>
+      <sheetName val="Profitable Software"/>
       <sheetName val="Compounders"/>
       <sheetName val="GARP"/>
       <sheetName val="Value"/>
@@ -2448,7 +2451,7 @@
       <sheetData sheetId="0">
         <row r="8">
           <cell r="C8">
-            <v>4.0480000000000002E-2</v>
+            <v>3.9120000000000002E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2467,6 +2470,7 @@
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2575,7 +2579,7 @@
 </file>
 
 <file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="6">
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="8">
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=an2tur&amp;q=XSWX%3aNOVOB&amp;form=skydnc</v>
     <v>Learn more on Bing</v>
@@ -2594,7 +2598,7 @@
     <v>Powered by Refinitiv</v>
     <v>50.17</v>
     <v>49.155000000000001</v>
-    <v>0.76249999999999996</v>
+    <v>0.76149999999999995</v>
     <v>0.16</v>
     <v>3.2320000000000001E-3</v>
     <v>CHF</v>
@@ -2620,8 +2624,8 @@
     <v>1717564000</v>
     <v>NOVOB</v>
     <v>Novo Nordisk A/S (XSWX:NOVOB)</v>
-    <v>2478</v>
-    <v>1226710</v>
+    <v>2572</v>
+    <v>965550</v>
     <v>1931</v>
   </rv>
   <rv s="2">
@@ -2645,9 +2649,9 @@
     <v>Powered by Refinitiv</v>
     <v>172.97</v>
     <v>95.02</v>
-    <v>0.76249999999999996</v>
-    <v>0.09</v>
-    <v>5.733E-4</v>
+    <v>0.45739999999999997</v>
+    <v>-1.38</v>
+    <v>-8.7189999999999993E-3</v>
     <v>USD</v>
     <v>Novo Nordisk A/S is a global healthcare company engaged in diabetes care. The Company is also engaged in the discovery, development, manufacturing and marketing of pharmaceutical products. The Company operates through two business segments: diabetes and obesity care, and biopharmaceuticals. The Company's diabetes and obesity care segment covers insulin, GLP-1, other protein-related products, such as glucagon, protein-related delivery systems and needles, and oral anti-diabetic drugs. The Company's biopharmaceuticals segment covers the therapy areas of hemophilia care, growth hormone therapy and hormone replacement therapy. The Company also offers Saxenda product to treat obesity. It offers a range of products, including NovoLog/NovoRapid; NovoLog Mix/NovoMix; Prandin/NovoNorm; NovoSeven; Norditropin, and Vagifem. As of December 31, 2016, it marketed its products in over 180 countries. Its regional structure consists of two commercial units: North America and International Operations.</v>
     <v>57089</v>
@@ -2655,34 +2659,66 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>Novo Alle 1, BAGSVAERD, DENMARK-NA, 2880 DK</v>
-    <v>157.4</v>
+    <v>158.75</v>
     <v>Pharmaceuticals</v>
     <v>Stock</v>
-    <v>45117.995191735936</v>
+    <v>45134.820334003904</v>
     <v>3</v>
-    <v>156.13</v>
-    <v>1844664000000</v>
+    <v>156.84</v>
+    <v>270404300000</v>
     <v>Novo Nordisk A/S</v>
     <v>Novo Nordisk A/S</v>
-    <v>156.37</v>
-    <v>40.146900000000002</v>
-    <v>156.97999999999999</v>
-    <v>157.07</v>
+    <v>158.61000000000001</v>
+    <v>40.456200000000003</v>
+    <v>158.28</v>
+    <v>156.9</v>
     <v>1717564000</v>
     <v>NVO</v>
     <v>Novo Nordisk A/S (XNYS:NVO)</v>
-    <v>851</v>
-    <v>1226369</v>
+    <v>981135</v>
+    <v>1210311</v>
     <v>1931</v>
   </rv>
   <rv s="2">
     <v>4</v>
   </rv>
+  <rv s="3">
+    <v>7</v>
+    <v>DKK/USD</v>
+    <v>8</v>
+    <v>9</v>
+    <v>Finance</v>
+    <v>10</v>
+    <v>en-US</v>
+    <v>av79ec</v>
+    <v>268435456</v>
+    <v>1</v>
+    <v>Powered by Refinitiv</v>
+    <v>0.15129999999999999</v>
+    <v>0.12820000000000001</v>
+    <v>-1.5E-3</v>
+    <v>-1.0086999999999999E-2</v>
+    <v>USD</v>
+    <v>DKK</v>
+    <v>0.14960000000000001</v>
+    <v>Currency Pair</v>
+    <v>45134.820347222223</v>
+    <v>0.1472</v>
+    <v>Danish Krone/US Dollar FX Cross Rate</v>
+    <v>0.1487</v>
+    <v>0.1487</v>
+    <v>0.1472</v>
+    <v>DKKUSD</v>
+    <v>DKK/USD</v>
+  </rv>
+  <rv s="2">
+    <v>6</v>
+  </rv>
 </rvData>
 </file>
 
 <file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
-<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="3">
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="4">
   <s t="_hyperlink">
     <k n="Address" t="s"/>
     <k n="Text" t="s"/>
@@ -2734,12 +2770,41 @@
   <s t="_linkedentity">
     <k n="%cvi" t="r"/>
   </s>
+  <s t="_linkedentitycore">
+    <k n="_Display" t="spb"/>
+    <k n="_DisplayString" t="s"/>
+    <k n="_Flags" t="spb"/>
+    <k n="_Format" t="spb"/>
+    <k n="_Icon" t="s"/>
+    <k n="_SubLabel" t="spb"/>
+    <k n="%EntityCulture" t="s"/>
+    <k n="%EntityId" t="s"/>
+    <k n="%EntityServiceId"/>
+    <k n="%IsRefreshable" t="b"/>
+    <k n="%ProviderInfo" t="s"/>
+    <k n="52 week high"/>
+    <k n="52 week low"/>
+    <k n="Change"/>
+    <k n="Change (%)"/>
+    <k n="Currency" t="s"/>
+    <k n="From currency" t="s"/>
+    <k n="High"/>
+    <k n="Instrument type" t="s"/>
+    <k n="Last trade time"/>
+    <k n="Low"/>
+    <k n="Name" t="s"/>
+    <k n="Open"/>
+    <k n="Previous close"/>
+    <k n="Price"/>
+    <k n="Ticker symbol" t="s"/>
+    <k n="UniqueName" t="s"/>
+  </s>
 </rvStructures>
 </file>
 
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
-  <spbArrays count="1">
+  <spbArrays count="2">
     <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
@@ -2784,8 +2849,37 @@
       <v t="s">ExchangeID</v>
       <v t="s">%ProviderInfo</v>
     </a>
+    <a count="27">
+      <v t="s">%EntityServiceId</v>
+      <v t="s">_Format</v>
+      <v t="s">%IsRefreshable</v>
+      <v t="s">%EntityCulture</v>
+      <v t="s">%EntityId</v>
+      <v t="s">_Icon</v>
+      <v t="s">_Display</v>
+      <v t="s">Name</v>
+      <v t="s">Price</v>
+      <v t="s">_SubLabel</v>
+      <v t="s">Last trade time</v>
+      <v t="s">Ticker symbol</v>
+      <v t="s">Change</v>
+      <v t="s">Change (%)</v>
+      <v t="s">Currency</v>
+      <v t="s">From currency</v>
+      <v t="s">Previous close</v>
+      <v t="s">Open</v>
+      <v t="s">High</v>
+      <v t="s">Low</v>
+      <v t="s">52 week high</v>
+      <v t="s">52 week low</v>
+      <v t="s">Instrument type</v>
+      <v t="s">_Flags</v>
+      <v t="s">UniqueName</v>
+      <v t="s">_DisplayString</v>
+      <v t="s">%ProviderInfo</v>
+    </a>
   </spbArrays>
-  <spbData count="7">
+  <spbData count="11">
     <spb s="0">
       <v>0</v>
       <v>Name</v>
@@ -2842,7 +2936,7 @@
       <v>4</v>
       <v>4</v>
       <v>5</v>
-      <v>6</v>
+      <v>11</v>
       <v>10</v>
       <v>10</v>
       <v>10</v>
@@ -2859,12 +2953,37 @@
       <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
     </spb>
+    <spb s="6">
+      <v>1</v>
+      <v>Name</v>
+    </spb>
+    <spb s="7">
+      <v>1</v>
+      <v>1</v>
+    </spb>
+    <spb s="8">
+      <v>10</v>
+      <v>10</v>
+      <v>3</v>
+      <v>10</v>
+      <v>10</v>
+      <v>10</v>
+      <v>5</v>
+      <v>10</v>
+      <v>10</v>
+      <v>10</v>
+      <v>7</v>
+      <v>9</v>
+    </spb>
+    <spb s="9">
+      <v>GMT</v>
+    </spb>
   </spbData>
 </supportingPropertyBags>
 </file>
 
 <file path=xl/richData/rdsupportingpropertybagstructure.xml><?xml version="1.0" encoding="utf-8"?>
-<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="6">
+<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="10">
   <s>
     <k n="^Order" t="spba"/>
     <k n="TitleProperty" t="s"/>
@@ -2914,6 +3033,31 @@
     <k n="Change" t="s"/>
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
+    <k n="Last trade time" t="s"/>
+  </s>
+  <s>
+    <k n="^Order" t="spba"/>
+    <k n="TitleProperty" t="s"/>
+  </s>
+  <s>
+    <k n="UniqueName" t="spb"/>
+    <k n="`%ProviderInfo" t="spb"/>
+  </s>
+  <s>
+    <k n="Low" t="i"/>
+    <k n="High" t="i"/>
+    <k n="Name" t="i"/>
+    <k n="Open" t="i"/>
+    <k n="Price" t="i"/>
+    <k n="Change" t="i"/>
+    <k n="Change (%)" t="i"/>
+    <k n="52 week low" t="i"/>
+    <k n="52 week high" t="i"/>
+    <k n="Previous close" t="i"/>
+    <k n="Last trade time" t="i"/>
+    <k n="`%EntityServiceId" t="i"/>
+  </s>
+  <s>
     <k n="Last trade time" t="s"/>
   </s>
 </spbStructures>
@@ -2974,6 +3118,9 @@
     </rSty>
     <rSty dxfid="1">
       <rpv i="0">_([$$-en-US]* #,##0.00_);_([$$-en-US]* (#,##0.00);_([$$-en-US]* "-"??_);_(@_)</rpv>
+    </rSty>
+    <rSty dxfid="1">
+      <rpv i="0">_([$$-en-US]* #,##0_);_([$$-en-US]* (#,##0);_([$$-en-US]* "-"_);_(@_)</rpv>
     </rSty>
   </richStyles>
 </richStyleSheet>
@@ -3279,10 +3426,10 @@
   <dimension ref="A1:AV118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AJ85" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AJ90" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AR101" sqref="AR101"/>
+      <selection pane="bottomRight" activeCell="AM120" sqref="AM120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5495,15 +5642,15 @@
         <f>(AM35+AL35+AK35+AJ35+AI35)/5</f>
         <v>-1.7157376237623801E-2</v>
       </c>
-      <c r="AT16" s="26">
+      <c r="AT16" s="31">
         <f>AU101/AM3</f>
         <v>4.4019880872995243</v>
       </c>
-      <c r="AU16" s="26">
+      <c r="AU16" s="31">
         <f>AU101/AM28</f>
         <v>14.028805042773525</v>
       </c>
-      <c r="AV16" s="27">
+      <c r="AV16" s="32">
         <f>AU101/AM107</f>
         <v>12.145654411076809</v>
       </c>
@@ -5749,13 +5896,13 @@
         <v>124</v>
       </c>
       <c r="AT18" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="AU18" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="AU18" s="19" t="s">
+      <c r="AV18" s="19" t="s">
         <v>160</v>
-      </c>
-      <c r="AV18" s="19" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="19" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -5876,34 +6023,34 @@
       <c r="AM19" s="10">
         <v>76802000000</v>
       </c>
-      <c r="AN19" s="45">
+      <c r="AN19" s="42">
         <v>105000000000</v>
       </c>
-      <c r="AO19" s="45">
+      <c r="AO19" s="42">
         <v>122600000000</v>
       </c>
-      <c r="AP19" s="45">
+      <c r="AP19" s="42">
         <v>143200000000</v>
       </c>
-      <c r="AQ19" s="45">
+      <c r="AQ19" s="42">
         <v>160400000000</v>
       </c>
-      <c r="AR19" s="45">
+      <c r="AR19" s="42">
         <v>180100000000</v>
       </c>
-      <c r="AS19" s="28">
+      <c r="AS19" s="26">
         <f>AM40-AM56-AM61</f>
         <v>-2210000000</v>
       </c>
-      <c r="AT19" s="34">
+      <c r="AT19" s="31">
         <f>AU101/AN3</f>
         <v>3.5005815207621787</v>
       </c>
-      <c r="AU19" s="34">
+      <c r="AU19" s="31">
         <f>AU101/AN28</f>
         <v>9.8316197351979699</v>
       </c>
-      <c r="AV19" s="35">
+      <c r="AV19" s="32">
         <f>AU101/AN106</f>
         <v>10.866281648880518</v>
       </c>
@@ -6197,34 +6344,34 @@
       <c r="AL21" s="2">
         <v>0.46439999999999998</v>
       </c>
-      <c r="AM21" s="41">
+      <c r="AM21" s="38">
         <v>0.434</v>
       </c>
-      <c r="AN21" s="46">
+      <c r="AN21" s="43">
         <f>AN19/AN3</f>
         <v>0.47186769728563727</v>
       </c>
-      <c r="AO21" s="46">
+      <c r="AO21" s="43">
         <f t="shared" ref="AO21:AR21" si="9">AO19/AO3</f>
         <v>0.47593167701863354</v>
       </c>
-      <c r="AP21" s="46">
+      <c r="AP21" s="43">
         <f t="shared" si="9"/>
         <v>0.49142072752230609</v>
       </c>
-      <c r="AQ21" s="46">
+      <c r="AQ21" s="43">
         <f t="shared" si="9"/>
         <v>0.49567367119901112</v>
       </c>
-      <c r="AR21" s="46">
+      <c r="AR21" s="43">
         <f t="shared" si="9"/>
         <v>0.49861572535991139</v>
       </c>
       <c r="AU21" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="AV21" s="19" t="s">
         <v>162</v>
-      </c>
-      <c r="AV21" s="19" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="22" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -6342,14 +6489,14 @@
       <c r="AL22" s="10">
         <v>58644000000</v>
       </c>
-      <c r="AM22" s="40">
+      <c r="AM22" s="37">
         <v>74809000000</v>
       </c>
-      <c r="AU22" s="36">
+      <c r="AU22" s="33">
         <f>(-1*AM98)/AU101</f>
         <v>3.248349636061084E-2</v>
       </c>
-      <c r="AV22" s="37">
+      <c r="AV22" s="34">
         <f>AM107/AU101</f>
         <v>8.2333974453282846E-2</v>
       </c>
@@ -7067,19 +7214,19 @@
       <c r="AM28" s="11">
         <v>55525000000</v>
       </c>
-      <c r="AN28" s="42">
+      <c r="AN28" s="39">
         <v>79229000000</v>
       </c>
-      <c r="AO28" s="42">
+      <c r="AO28" s="39">
         <v>91283000000</v>
       </c>
-      <c r="AP28" s="42">
+      <c r="AP28" s="39">
         <v>104400000000</v>
       </c>
-      <c r="AQ28" s="42">
+      <c r="AQ28" s="39">
         <v>116700000000</v>
       </c>
-      <c r="AR28" s="42">
+      <c r="AR28" s="39">
         <v>127000000000</v>
       </c>
     </row>
@@ -7375,23 +7522,23 @@
       <c r="AM30" s="2">
         <v>0.31380000000000002</v>
       </c>
-      <c r="AN30" s="43">
+      <c r="AN30" s="40">
         <f>AN28/AN3</f>
         <v>0.35605338845946433</v>
       </c>
-      <c r="AO30" s="43">
+      <c r="AO30" s="40">
         <f t="shared" ref="AO30:AR30" si="16">AO28/AO3</f>
         <v>0.35435947204968943</v>
       </c>
-      <c r="AP30" s="43">
+      <c r="AP30" s="40">
         <f t="shared" si="16"/>
         <v>0.3582704186684969</v>
       </c>
-      <c r="AQ30" s="43">
+      <c r="AQ30" s="40">
         <f t="shared" si="16"/>
         <v>0.36063040791100126</v>
       </c>
-      <c r="AR30" s="43">
+      <c r="AR30" s="40">
         <f t="shared" si="16"/>
         <v>0.35160575858250276</v>
       </c>
@@ -7514,19 +7661,19 @@
       <c r="AM31" s="12">
         <v>24.51</v>
       </c>
-      <c r="AN31" s="44">
+      <c r="AN31" s="41">
         <v>35.35</v>
       </c>
-      <c r="AO31" s="44">
+      <c r="AO31" s="41">
         <v>40.729999999999997</v>
       </c>
-      <c r="AP31" s="44">
+      <c r="AP31" s="41">
         <v>46.6</v>
       </c>
-      <c r="AQ31" s="44">
+      <c r="AQ31" s="41">
         <v>52.07</v>
       </c>
-      <c r="AR31" s="44">
+      <c r="AR31" s="41">
         <v>56.65</v>
       </c>
     </row>
@@ -13790,10 +13937,10 @@
       <c r="AM83" s="1">
         <v>-4767000000</v>
       </c>
-      <c r="AT83" s="72" t="s">
+      <c r="AT83" s="70" t="s">
         <v>125</v>
       </c>
-      <c r="AU83" s="73"/>
+      <c r="AU83" s="71"/>
     </row>
     <row r="84" spans="1:47" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -13913,10 +14060,10 @@
       <c r="AM84" s="1">
         <v>6717000000</v>
       </c>
-      <c r="AT84" s="74" t="s">
+      <c r="AT84" s="72" t="s">
         <v>126</v>
       </c>
-      <c r="AU84" s="74"/>
+      <c r="AU84" s="72"/>
     </row>
     <row r="85" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -14036,10 +14183,10 @@
       <c r="AM85" s="1">
         <v>1160000000</v>
       </c>
-      <c r="AT85" s="48" t="s">
+      <c r="AT85" s="45" t="s">
         <v>127</v>
       </c>
-      <c r="AU85" s="49">
+      <c r="AU85" s="46">
         <f>AM17</f>
         <v>378000000</v>
       </c>
@@ -14162,10 +14309,10 @@
       <c r="AM86" s="1">
         <v>6260000000</v>
       </c>
-      <c r="AT86" s="48" t="s">
+      <c r="AT86" s="45" t="s">
         <v>128</v>
       </c>
-      <c r="AU86" s="49">
+      <c r="AU86" s="46">
         <f>AM56</f>
         <v>1466000000</v>
       </c>
@@ -14288,10 +14435,10 @@
       <c r="AM87" s="10">
         <v>78887000000</v>
       </c>
-      <c r="AT87" s="48" t="s">
+      <c r="AT87" s="45" t="s">
         <v>129</v>
       </c>
-      <c r="AU87" s="49">
+      <c r="AU87" s="46">
         <f>AM61</f>
         <v>24318000000</v>
       </c>
@@ -14414,10 +14561,10 @@
       <c r="AM88" s="1">
         <v>-12146000000</v>
       </c>
-      <c r="AT88" s="50" t="s">
+      <c r="AT88" s="47" t="s">
         <v>130</v>
       </c>
-      <c r="AU88" s="51">
+      <c r="AU88" s="48">
         <f>AU85/(AU86+AU87)</f>
         <v>1.4660254421346572E-2</v>
       </c>
@@ -14578,10 +14725,10 @@
         <f t="shared" si="19"/>
         <v>6.8639307390621296E-2</v>
       </c>
-      <c r="AT89" s="48" t="s">
+      <c r="AT89" s="45" t="s">
         <v>105</v>
       </c>
-      <c r="AU89" s="49">
+      <c r="AU89" s="46">
         <f>AM27</f>
         <v>13537000000</v>
       </c>
@@ -14704,10 +14851,10 @@
       <c r="AM90" s="1">
         <v>-7075000000</v>
       </c>
-      <c r="AT90" s="48" t="s">
+      <c r="AT90" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="AU90" s="49">
+      <c r="AU90" s="46">
         <f>AM25</f>
         <v>69062000000</v>
       </c>
@@ -14830,10 +14977,10 @@
       <c r="AM91" s="1">
         <v>-9735000000</v>
       </c>
-      <c r="AT91" s="50" t="s">
+      <c r="AT91" s="47" t="s">
         <v>131</v>
       </c>
-      <c r="AU91" s="51">
+      <c r="AU91" s="48">
         <f>AU89/AU90</f>
         <v>0.19601227882192812</v>
       </c>
@@ -14956,10 +15103,10 @@
       <c r="AM92" s="1">
         <v>6645000000</v>
       </c>
-      <c r="AT92" s="50" t="s">
+      <c r="AT92" s="47" t="s">
         <v>132</v>
       </c>
-      <c r="AU92" s="51">
+      <c r="AU92" s="48">
         <f>AU88*(1-AU91)</f>
         <v>1.1786664544109184E-2</v>
       </c>
@@ -15082,10 +15229,10 @@
       <c r="AM93" s="1">
         <v>-2607000000</v>
       </c>
-      <c r="AT93" s="74" t="s">
+      <c r="AT93" s="72" t="s">
         <v>133</v>
       </c>
-      <c r="AU93" s="74"/>
+      <c r="AU93" s="72"/>
     </row>
     <row r="94" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -15205,12 +15352,12 @@
       <c r="AM94" s="10">
         <v>-24918000000</v>
       </c>
-      <c r="AT94" s="48" t="s">
+      <c r="AT94" s="45" t="s">
         <v>134</v>
       </c>
-      <c r="AU94" s="52">
+      <c r="AU94" s="49">
         <f>[1]Treasuries!$C$8</f>
-        <v>4.0480000000000002E-2</v>
+        <v>3.9120000000000002E-2</v>
       </c>
     </row>
     <row r="95" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15331,12 +15478,12 @@
       <c r="AM95" s="1">
         <v>-13623000000</v>
       </c>
-      <c r="AT95" s="53" t="s">
+      <c r="AT95" s="50" t="s">
         <v>135</v>
       </c>
-      <c r="AU95" s="54" cm="1">
+      <c r="AU95" s="51" cm="1">
         <f t="array" ref="AU95">_FV(A1,"Beta")</f>
-        <v>0.76249999999999996</v>
+        <v>0.76149999999999995</v>
       </c>
     </row>
     <row r="96" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15457,10 +15604,10 @@
       <c r="AM96" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AT96" s="48" t="s">
+      <c r="AT96" s="45" t="s">
         <v>136</v>
       </c>
-      <c r="AU96" s="55">
+      <c r="AU96" s="52">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -15582,12 +15729,12 @@
       <c r="AM97" s="1">
         <v>-24086000000</v>
       </c>
-      <c r="AT97" s="50" t="s">
+      <c r="AT97" s="47" t="s">
         <v>137</v>
       </c>
-      <c r="AU97" s="51">
+      <c r="AU97" s="48">
         <f>(AU94)+((AU95)*(AU96-AU94))</f>
-        <v>7.3664000000000007E-2</v>
+        <v>7.3296119999999992E-2</v>
       </c>
     </row>
     <row r="98" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -15708,11 +15855,11 @@
       <c r="AM98" s="1">
         <v>-25303000000</v>
       </c>
-      <c r="AT98" s="74" t="s">
+      <c r="AT98" s="72" t="s">
         <v>138</v>
       </c>
-      <c r="AU98" s="74"/>
-      <c r="AV98" s="32" t="e" vm="2">
+      <c r="AU98" s="72"/>
+      <c r="AV98" s="30" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
     </row>
@@ -15834,15 +15981,15 @@
       <c r="AM99" s="1">
         <v>11215000000</v>
       </c>
-      <c r="AT99" s="48" t="s">
+      <c r="AT99" s="45" t="s">
         <v>139</v>
       </c>
-      <c r="AU99" s="49">
+      <c r="AU99" s="46">
         <f>AU86+AU87</f>
         <v>25784000000</v>
       </c>
-      <c r="AV99" s="32" t="s">
-        <v>158</v>
+      <c r="AV99" s="30" t="e" vm="3">
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="100" spans="1:48" ht="20" x14ac:dyDescent="0.25">
@@ -15963,15 +16110,16 @@
       <c r="AM100" s="10">
         <v>-51797000000</v>
       </c>
-      <c r="AT100" s="50" t="s">
+      <c r="AT100" s="47" t="s">
         <v>140</v>
       </c>
-      <c r="AU100" s="51">
+      <c r="AU100" s="48">
         <f>AU99/AU103</f>
         <v>3.204042481646717E-2</v>
       </c>
-      <c r="AV100" s="33">
-        <v>0.15</v>
+      <c r="AV100" s="68" cm="1">
+        <f t="array" ref="AV100">_FV(AV99,"Open")</f>
+        <v>0.1487</v>
       </c>
     </row>
     <row r="101" spans="1:48" ht="20" x14ac:dyDescent="0.25">
@@ -16092,16 +16240,16 @@
       <c r="AM101" s="1">
         <v>-238000000</v>
       </c>
-      <c r="AT101" s="53" t="s">
+      <c r="AT101" s="50" t="s">
         <v>141</v>
       </c>
-      <c r="AU101" s="56" cm="1">
+      <c r="AU101" s="53" cm="1">
         <f t="array" ref="AU101">_FV(A1,"Market cap",TRUE)</f>
         <v>778949400000</v>
       </c>
-      <c r="AV101" s="32">
+      <c r="AV101" s="30">
         <f>AU101*AV100</f>
-        <v>116842410000</v>
+        <v>115829775780</v>
       </c>
     </row>
     <row r="102" spans="1:48" ht="20" x14ac:dyDescent="0.25">
@@ -16222,10 +16370,10 @@
       <c r="AM102" s="10">
         <v>1934000000</v>
       </c>
-      <c r="AT102" s="50" t="s">
+      <c r="AT102" s="47" t="s">
         <v>142</v>
       </c>
-      <c r="AU102" s="51">
+      <c r="AU102" s="48">
         <f>AU101/AU103</f>
         <v>0.96795957518353282</v>
       </c>
@@ -16348,10 +16496,10 @@
       <c r="AM103" s="1">
         <v>10719000000</v>
       </c>
-      <c r="AT103" s="50" t="s">
+      <c r="AT103" s="47" t="s">
         <v>143</v>
       </c>
-      <c r="AU103" s="57">
+      <c r="AU103" s="54">
         <f>AU99+AU101</f>
         <v>804733400000</v>
       </c>
@@ -16474,14 +16622,14 @@
       <c r="AM104" s="11">
         <v>12653000000</v>
       </c>
-      <c r="AT104" s="74" t="s">
+      <c r="AT104" s="72" t="s">
         <v>144</v>
       </c>
-      <c r="AU104" s="74"/>
+      <c r="AU104" s="72"/>
     </row>
     <row r="105" spans="1:48" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B105" s="1" t="e">
         <f t="shared" ref="B105:AL105" si="20">(B22*(1-$AU$91))+B77+B88+B81</f>
@@ -16635,35 +16783,35 @@
         <f>(AM22*(1-$AU$91))+AM77+AM88+AM81</f>
         <v>50025517433.610382</v>
       </c>
-      <c r="AN105" s="29">
+      <c r="AN105" s="27">
         <f>AM105*(1+$AU$106)</f>
         <v>57760020119.571899</v>
       </c>
-      <c r="AO105" s="29">
+      <c r="AO105" s="27">
         <f t="shared" ref="AO105:AR105" si="21">AN105*(1+$AU$106)</f>
         <v>66690363145.986412</v>
       </c>
-      <c r="AP105" s="29">
+      <c r="AP105" s="27">
         <f t="shared" si="21"/>
         <v>77001436760.865646</v>
       </c>
-      <c r="AQ105" s="29">
+      <c r="AQ105" s="27">
         <f t="shared" si="21"/>
         <v>88906717305.74353</v>
       </c>
-      <c r="AR105" s="29">
+      <c r="AR105" s="27">
         <f t="shared" si="21"/>
         <v>102652686944.41612</v>
       </c>
-      <c r="AS105" s="30" t="s">
-        <v>166</v>
-      </c>
-      <c r="AT105" s="58" t="s">
+      <c r="AS105" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="AT105" s="55" t="s">
         <v>107</v>
       </c>
-      <c r="AU105" s="59">
+      <c r="AU105" s="56">
         <f>(AU100*AU92)+(AU102*AU97)</f>
-        <v>7.1681423885482209E-2</v>
+        <v>7.1325330916963678E-2</v>
       </c>
     </row>
     <row r="106" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -16819,35 +16967,35 @@
         <f t="shared" si="22"/>
         <v>0.34692848892155825</v>
       </c>
-      <c r="AN106" s="39">
+      <c r="AN106" s="36">
         <v>71685000000</v>
       </c>
-      <c r="AO106" s="39">
+      <c r="AO106" s="36">
         <v>82891000000</v>
       </c>
-      <c r="AP106" s="39">
+      <c r="AP106" s="36">
         <v>98217000000</v>
       </c>
-      <c r="AQ106" s="39">
+      <c r="AQ106" s="36">
         <v>112000000000</v>
       </c>
-      <c r="AR106" s="39">
+      <c r="AR106" s="36">
         <v>130400000000</v>
       </c>
-      <c r="AS106" s="30" t="s">
-        <v>167</v>
-      </c>
-      <c r="AT106" s="60" t="s">
+      <c r="AS106" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="AT106" s="57" t="s">
         <v>145</v>
       </c>
-      <c r="AU106" s="61">
+      <c r="AU106" s="58">
         <f>(SUM(AN4:AR4)/5)</f>
         <v>0.15461114812507618</v>
       </c>
     </row>
     <row r="107" spans="1:48" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="38" t="s">
-        <v>165</v>
+      <c r="A107" s="35" t="s">
+        <v>164</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>91</v>
@@ -16963,139 +17111,139 @@
       <c r="AM107" s="1">
         <v>64134000000</v>
       </c>
-      <c r="AN107" s="30"/>
-      <c r="AO107" s="30"/>
-      <c r="AP107" s="30"/>
-      <c r="AQ107" s="30"/>
-      <c r="AR107" s="47">
+      <c r="AN107" s="28"/>
+      <c r="AO107" s="28"/>
+      <c r="AP107" s="28"/>
+      <c r="AQ107" s="28"/>
+      <c r="AR107" s="44">
         <f>AR106*(1+AU107)/(AU108-AU107)</f>
-        <v>2863237426688.0034</v>
-      </c>
-      <c r="AS107" s="31" t="s">
+        <v>2885246523971.5234</v>
+      </c>
+      <c r="AS107" s="29" t="s">
         <v>146</v>
       </c>
-      <c r="AT107" s="62" t="s">
+      <c r="AT107" s="59" t="s">
         <v>147</v>
       </c>
-      <c r="AU107" s="63">
+      <c r="AU107" s="60">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:48" ht="19" x14ac:dyDescent="0.25">
-      <c r="AN108" s="47">
+      <c r="AN108" s="44">
         <f t="shared" ref="AN108:AQ108" si="23">AN107+AN106</f>
         <v>71685000000</v>
       </c>
-      <c r="AO108" s="47">
+      <c r="AO108" s="44">
         <f t="shared" si="23"/>
         <v>82891000000</v>
       </c>
-      <c r="AP108" s="47">
+      <c r="AP108" s="44">
         <f t="shared" si="23"/>
         <v>98217000000</v>
       </c>
-      <c r="AQ108" s="47">
+      <c r="AQ108" s="44">
         <f t="shared" si="23"/>
         <v>112000000000</v>
       </c>
-      <c r="AR108" s="47">
+      <c r="AR108" s="44">
         <f>AR107+AR106</f>
-        <v>2993637426688.0034</v>
-      </c>
-      <c r="AS108" s="31" t="s">
+        <v>3015646523971.5234</v>
+      </c>
+      <c r="AS108" s="29" t="s">
         <v>143</v>
       </c>
-      <c r="AT108" s="64" t="s">
+      <c r="AT108" s="61" t="s">
         <v>148</v>
       </c>
-      <c r="AU108" s="61">
+      <c r="AU108" s="58">
         <f>AU105</f>
-        <v>7.1681423885482209E-2</v>
+        <v>7.1325330916963678E-2</v>
       </c>
     </row>
     <row r="109" spans="1:48" ht="19" x14ac:dyDescent="0.25">
-      <c r="AN109" s="71" t="s">
+      <c r="AN109" s="69" t="s">
         <v>149</v>
       </c>
-      <c r="AO109" s="71"/>
+      <c r="AO109" s="69"/>
     </row>
     <row r="110" spans="1:48" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN110" s="65" t="s">
+      <c r="AN110" s="62" t="s">
         <v>150</v>
       </c>
-      <c r="AO110" s="56">
+      <c r="AO110" s="53">
         <f>NPV(AU108,AN108,AO108,AP108,AQ108,AR108)</f>
-        <v>2421500726451.2061</v>
+        <v>2440880703297.6616</v>
       </c>
     </row>
     <row r="111" spans="1:48" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN111" s="65" t="s">
+      <c r="AN111" s="62" t="s">
         <v>151</v>
       </c>
-      <c r="AO111" s="56">
+      <c r="AO111" s="53">
         <f>AM40</f>
         <v>23574000000</v>
       </c>
     </row>
     <row r="112" spans="1:48" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN112" s="65" t="s">
+      <c r="AN112" s="62" t="s">
         <v>139</v>
       </c>
-      <c r="AO112" s="56">
+      <c r="AO112" s="53">
         <f>AU99</f>
         <v>25784000000</v>
       </c>
     </row>
     <row r="113" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN113" s="65" t="s">
+      <c r="AN113" s="62" t="s">
         <v>152</v>
       </c>
-      <c r="AO113" s="56">
+      <c r="AO113" s="53">
         <f>AO110+AO111-AO112</f>
-        <v>2419290726451.2061</v>
+        <v>2438670703297.6616</v>
       </c>
     </row>
     <row r="114" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN114" s="65" t="s">
+      <c r="AN114" s="62" t="s">
         <v>153</v>
       </c>
-      <c r="AO114" s="65">
+      <c r="AO114" s="62">
         <f>AM34*(1+(5*AS16))</f>
         <v>2077366469.8762372</v>
       </c>
     </row>
     <row r="115" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN115" s="66" t="s">
+      <c r="AN115" s="63" t="s">
         <v>154</v>
       </c>
-      <c r="AO115" s="67">
+      <c r="AO115" s="64">
         <f>AO113/AO114*AV100</f>
-        <v>174.68925884285642</v>
+        <v>174.56252367545272</v>
       </c>
     </row>
     <row r="116" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN116" s="65" t="s">
+      <c r="AN116" s="62" t="s">
         <v>155</v>
       </c>
-      <c r="AO116" s="68" cm="1">
+      <c r="AO116" s="65" cm="1">
         <f t="array" ref="AO116">_FV(AV98,"Price")</f>
-        <v>157.07</v>
+        <v>156.9</v>
       </c>
     </row>
     <row r="117" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN117" s="66" t="s">
+      <c r="AN117" s="63" t="s">
         <v>156</v>
       </c>
-      <c r="AO117" s="69">
+      <c r="AO117" s="66">
         <f>AO115/AO116-1</f>
-        <v>0.1121745644798906</v>
+        <v>0.11257185261601488</v>
       </c>
     </row>
     <row r="118" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN118" s="66" t="s">
+      <c r="AN118" s="63" t="s">
         <v>157</v>
       </c>
-      <c r="AO118" s="70" t="str">
+      <c r="AO118" s="67" t="str">
         <f>IF(AO115&gt;AO116,"BUY","SELL")</f>
         <v>BUY</v>
       </c>

--- a/Healthcare/Novo Nordisk.xlsx
+++ b/Healthcare/Novo Nordisk.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Healthcare/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07E587DF-21D0-284D-BE19-25E91FD39D4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7813005F-3C86-9E4B-810D-CDA52E2C8207}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -93,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1204" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1206" uniqueCount="168">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -530,9 +530,6 @@
     <t>WACC Calculation</t>
   </si>
   <si>
-    <t>FCF Growth Rate</t>
-  </si>
-  <si>
     <t>Terminal Value</t>
   </si>
   <si>
@@ -581,19 +578,25 @@
     <t>Dividend Yield</t>
   </si>
   <si>
-    <t>FCF Yield</t>
-  </si>
-  <si>
     <t>Unlevered FCF</t>
   </si>
   <si>
     <t>Levered FCF</t>
   </si>
   <si>
-    <t>Unlevered FCF Proj</t>
+    <t>Unlevered FCF Forecast</t>
   </si>
   <si>
-    <t>Unlevered FCF Forecast</t>
+    <t>5Y Fwd FCF CAGR</t>
+  </si>
+  <si>
+    <t>Forward FCF Yield</t>
+  </si>
+  <si>
+    <t>5Y Fwd Income CAGR</t>
+  </si>
+  <si>
+    <t>5Y Fwd Revenue CAGR</t>
   </si>
 </sst>
 </file>
@@ -609,7 +612,7 @@
     <numFmt numFmtId="169" formatCode="0.0%"/>
     <numFmt numFmtId="170" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -721,6 +724,13 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -901,7 +911,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -951,11 +961,6 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -974,7 +979,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -982,66 +986,127 @@
     <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="11" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="39" fontId="11" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="16" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="10" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="170" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="11" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1093,16 +1158,19 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="2400"/>
-              <a:t>Novo</a:t>
+              <a:t>Novo Nordisk</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="2400" baseline="0"/>
-              <a:t> Nordisk</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.40637204070421423"/>
+          <c:y val="2.3451816557859623E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1136,15 +1204,15 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="9.2871287128712871E-2"/>
-          <c:y val="0.1451959425859497"/>
-          <c:w val="0.85960396039603948"/>
-          <c:h val="0.68092090969867713"/>
+          <c:x val="0.11017940199335548"/>
+          <c:y val="0.15399049047304575"/>
+          <c:w val="0.81141528239202654"/>
+          <c:h val="0.62946060591091946"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+        <c:grouping val="stacked"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -1193,12 +1261,150 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$AR$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="43"/>
+                <c:pt idx="0">
+                  <c:v>1985</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2027</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$3:$AM$3</c:f>
+              <c:f>'Sheet 1'!$B$3:$AR$3</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>4158399600</c:v>
                 </c:pt>
@@ -1312,13 +1518,28 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>176954000000</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>224600000000</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>263100000000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>301600000000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>347300000000</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>354400000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C52B-9F46-AC4A-9003CA83C811}"/>
+              <c16:uniqueId val="{00000000-48E4-4643-85DF-F42884803B24}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1327,11 +1548,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$19</c:f>
+              <c:f>'Sheet 1'!$A$28</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>EBITDA</c:v>
+                  <c:v>Net Income</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1369,132 +1590,285 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$AR$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="43"/>
+                <c:pt idx="0">
+                  <c:v>1985</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2027</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$19:$AM$19</c:f>
+              <c:f>'Sheet 1'!$B$28:$AR$28</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
-                  <c:v>1076576400</c:v>
+                  <c:v>607759200</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1013265000</c:v>
+                  <c:v>521317500</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>963856650</c:v>
+                  <c:v>480404200</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1229071200</c:v>
+                  <c:v>637907200</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1521046500</c:v>
+                  <c:v>745986750</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1658289600</c:v>
+                  <c:v>760121600</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2054349900</c:v>
+                  <c:v>930193550</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2366614250</c:v>
+                  <c:v>1272690250</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2671114500</c:v>
+                  <c:v>1430347500</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2986329990</c:v>
+                  <c:v>1431443860</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3293056400</c:v>
+                  <c:v>1561735600</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3596721878</c:v>
+                  <c:v>1802530706</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4313622600</c:v>
+                  <c:v>2219119182</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5214316674</c:v>
+                  <c:v>2408763364</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5382111280</c:v>
+                  <c:v>2410121260</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5879539600</c:v>
+                  <c:v>3088162000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7092554490</c:v>
+                  <c:v>3851198610</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7622672130</c:v>
+                  <c:v>4090904820</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>9028692900</c:v>
+                  <c:v>4872064800</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>9411594150</c:v>
+                  <c:v>5048785200</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>10149407800</c:v>
+                  <c:v>5856397420</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>11306850600</c:v>
+                  <c:v>6452985200</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>14002132000</c:v>
+                  <c:v>8535266000</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>15175680400</c:v>
+                  <c:v>9666004400</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>17804000000</c:v>
+                  <c:v>10768000000</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>22810000000</c:v>
+                  <c:v>14403000000</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>22884000000</c:v>
+                  <c:v>17097000000</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>32292000000</c:v>
+                  <c:v>21432000000</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>35393000000</c:v>
+                  <c:v>25184000000</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>37570000000</c:v>
+                  <c:v>26481000000</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>46509000000</c:v>
+                  <c:v>34860000000</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>51056000000</c:v>
+                  <c:v>37925000000</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>51952000000</c:v>
+                  <c:v>38130000000</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>51625000000</c:v>
+                  <c:v>38628000000</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>54434000000</c:v>
+                  <c:v>38951000000</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>59273000000</c:v>
+                  <c:v>42138000000</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>65394000000</c:v>
+                  <c:v>47757000000</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>76802000000</c:v>
+                  <c:v>55525000000</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>80138000000</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>92886000000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>109900000000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>124400000000</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>126500000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-C52B-9F46-AC4A-9003CA83C811}"/>
+              <c16:uniqueId val="{00000001-48E4-4643-85DF-F42884803B24}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1545,12 +1919,150 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$AR$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="43"/>
+                <c:pt idx="0">
+                  <c:v>1985</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2027</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$107:$AM$107</c:f>
+              <c:f>'Sheet 1'!$B$107:$AR$107</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1664,13 +2176,28 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>64134000000</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>71807000000</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>84808000000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>104900000000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>118000000000</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>117900000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-C52B-9F46-AC4A-9003CA83C811}"/>
+              <c16:uniqueId val="{00000002-48E4-4643-85DF-F42884803B24}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1682,13 +2209,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="100"/>
-        <c:overlap val="-24"/>
-        <c:axId val="337707360"/>
-        <c:axId val="337709088"/>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="574153263"/>
+        <c:axId val="573676863"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="337707360"/>
+        <c:axId val="574153263"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1716,7 +2243,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx2"/>
                 </a:solidFill>
@@ -1728,7 +2255,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="337709088"/>
+        <c:crossAx val="573676863"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1736,7 +2263,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="337709088"/>
+        <c:axId val="573676863"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1785,7 +2312,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="337707360"/>
+        <c:crossAx val="574153263"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1803,10 +2330,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.35928421818559808"/>
-          <c:y val="0.91245950552076749"/>
-          <c:w val="0.30255367584002496"/>
-          <c:h val="4.646869279123101E-2"/>
+          <c:x val="0.34099908441677346"/>
+          <c:y val="0.8988684267685868"/>
+          <c:w val="0.31378033448298304"/>
+          <c:h val="6.0090894255158997E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1913,7 +2440,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="207">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="302">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -2151,7 +2678,6 @@
         <a:solidFill>
           <a:schemeClr val="tx2">
             <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2386,22 +2912,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>41</xdr:col>
-      <xdr:colOff>31750</xdr:colOff>
-      <xdr:row>108</xdr:row>
-      <xdr:rowOff>17462</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>47</xdr:col>
-      <xdr:colOff>31750</xdr:colOff>
-      <xdr:row>124</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>1587500</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D14A45A3-0AA5-04A4-BD22-AEEF2E245A02}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{724E9C85-D02D-022C-67B0-F8032B9198C6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2429,38 +2955,38 @@
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
-      <sheetName val="Treasuries"/>
+      <sheetName val="Software"/>
       <sheetName val="Hardware"/>
-      <sheetName val="Software"/>
       <sheetName val="Consumer"/>
-      <sheetName val="Financial Services"/>
       <sheetName val="Healthcare"/>
       <sheetName val="Industrials"/>
-      <sheetName val="Real Estate"/>
-      <sheetName val="Fashion + Beauty"/>
-      <sheetName val="My Stocks"/>
-      <sheetName val="Profitable Software"/>
-      <sheetName val="Compounders"/>
-      <sheetName val="GARP"/>
-      <sheetName val="Value"/>
-      <sheetName val="Aggressive Growth"/>
-      <sheetName val="Other"/>
-      <sheetName val="Short List"/>
+      <sheetName val="Commodities"/>
+      <sheetName val="US Treasury Bonds"/>
+      <sheetName val="Full Portfolio"/>
+      <sheetName val="Full Portfolio (Concentrated)"/>
+      <sheetName val="Growth"/>
+      <sheetName val="Watchlist"/>
+      <sheetName val="Wide Moats"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="GARP HF Buys"/>
+      <sheetName val="Value HF Buys"/>
+      <sheetName val="Aggressive Growth HF Buys"/>
+      <sheetName val="Other HF Buys"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="8">
-          <cell r="C8">
-            <v>3.9120000000000002E-2</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
+      <sheetData sheetId="6">
+        <row r="8">
+          <cell r="C8">
+            <v>4.9020000000000001E-2</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
@@ -2598,12 +3124,12 @@
     <v>Powered by Refinitiv</v>
     <v>50.17</v>
     <v>49.155000000000001</v>
-    <v>0.76149999999999995</v>
+    <v>0.76470000000000005</v>
     <v>0.16</v>
     <v>3.2320000000000001E-3</v>
     <v>CHF</v>
     <v>Novo Nordisk A/S is a global healthcare company engaged in diabetes care. The Company is also engaged in the discovery, development, manufacturing and marketing of pharmaceutical products. The Company operates through two business segments: diabetes and obesity care, and biopharmaceuticals. The Company's diabetes and obesity care segment covers insulin, GLP-1, other protein-related products, such as glucagon, protein-related delivery systems and needles, and oral anti-diabetic drugs. The Company's biopharmaceuticals segment covers the therapy areas of hemophilia care, growth hormone therapy and hormone replacement therapy. The Company also offers Saxenda product to treat obesity. It offers a range of products, including NovoLog/NovoRapid; NovoLog Mix/NovoMix; Prandin/NovoNorm; NovoSeven; Norditropin, and Vagifem. As of December 31, 2016, it marketed its products in over 180 countries. Its regional structure consists of two commercial units: North America and International Operations.</v>
-    <v>57089</v>
+    <v>59337</v>
     <v>SIX Swiss Exchange</v>
     <v>XSWX</v>
     <v>XSWX</v>
@@ -2618,14 +3144,14 @@
     <v>Novo Nordisk A/S</v>
     <v>Novo Nordisk A/S</v>
     <v>49.67</v>
-    <v>13.7972</v>
+    <v>25.341799999999999</v>
     <v>49.51</v>
     <v>49.67</v>
-    <v>1717564000</v>
+    <v>3435128000</v>
     <v>NOVOB</v>
     <v>Novo Nordisk A/S (XSWX:NOVOB)</v>
-    <v>2572</v>
-    <v>965550</v>
+    <v>1113977</v>
+    <v>3451330</v>
     <v>1931</v>
   </rv>
   <rv s="2">
@@ -2647,36 +3173,36 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>172.97</v>
-    <v>95.02</v>
-    <v>0.45739999999999997</v>
-    <v>-1.38</v>
-    <v>-8.7189999999999993E-3</v>
+    <v>104</v>
+    <v>50.445</v>
+    <v>0.41039999999999999</v>
+    <v>-2.91</v>
+    <v>-2.8934999999999999E-2</v>
     <v>USD</v>
     <v>Novo Nordisk A/S is a global healthcare company engaged in diabetes care. The Company is also engaged in the discovery, development, manufacturing and marketing of pharmaceutical products. The Company operates through two business segments: diabetes and obesity care, and biopharmaceuticals. The Company's diabetes and obesity care segment covers insulin, GLP-1, other protein-related products, such as glucagon, protein-related delivery systems and needles, and oral anti-diabetic drugs. The Company's biopharmaceuticals segment covers the therapy areas of hemophilia care, growth hormone therapy and hormone replacement therapy. The Company also offers Saxenda product to treat obesity. It offers a range of products, including NovoLog/NovoRapid; NovoLog Mix/NovoMix; Prandin/NovoNorm; NovoSeven; Norditropin, and Vagifem. As of December 31, 2016, it marketed its products in over 180 countries. Its regional structure consists of two commercial units: North America and International Operations.</v>
-    <v>57089</v>
+    <v>59337</v>
     <v>New York Stock Exchange</v>
     <v>XNYS</v>
     <v>XNYS</v>
     <v>Novo Alle 1, BAGSVAERD, DENMARK-NA, 2880 DK</v>
-    <v>158.75</v>
+    <v>98.96</v>
     <v>Pharmaceuticals</v>
     <v>Stock</v>
-    <v>45134.820334003904</v>
+    <v>45218.99990189766</v>
     <v>3</v>
-    <v>156.84</v>
-    <v>270404300000</v>
+    <v>96.26</v>
+    <v>347165600000</v>
     <v>Novo Nordisk A/S</v>
     <v>Novo Nordisk A/S</v>
-    <v>158.61000000000001</v>
-    <v>40.456200000000003</v>
-    <v>158.28</v>
-    <v>156.9</v>
-    <v>1717564000</v>
+    <v>98.77</v>
+    <v>89.853200000000001</v>
+    <v>100.57</v>
+    <v>97.66</v>
+    <v>3435128000</v>
     <v>NVO</v>
     <v>Novo Nordisk A/S (XNYS:NVO)</v>
-    <v>981135</v>
-    <v>1210311</v>
+    <v>13396</v>
+    <v>5209683</v>
     <v>1931</v>
   </rv>
   <rv s="2">
@@ -2695,19 +3221,19 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>0.15129999999999999</v>
-    <v>0.12820000000000001</v>
-    <v>-1.5E-3</v>
-    <v>-1.0086999999999999E-2</v>
+    <v>0.1305</v>
+    <v>1E-4</v>
+    <v>7.0520000000000001E-4</v>
     <v>USD</v>
     <v>DKK</v>
-    <v>0.14960000000000001</v>
+    <v>0.14199999999999999</v>
     <v>Currency Pair</v>
-    <v>45134.820347222223</v>
-    <v>0.1472</v>
+    <v>45219.413576388892</v>
+    <v>0.1416</v>
     <v>Danish Krone/US Dollar FX Cross Rate</v>
-    <v>0.1487</v>
-    <v>0.1487</v>
-    <v>0.1472</v>
+    <v>0.14180000000000001</v>
+    <v>0.14180000000000001</v>
+    <v>0.1419</v>
     <v>DKKUSD</v>
     <v>DKK/USD</v>
   </rv>
@@ -3423,13 +3949,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AV118"/>
+  <dimension ref="A1:AV119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AJ90" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AJ84" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AM120" sqref="AM120"/>
+      <selection pane="bottomRight" activeCell="AO88" sqref="AO88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3822,19 +4348,19 @@
         <v>176954000000</v>
       </c>
       <c r="AN3" s="24">
-        <v>222520000000</v>
+        <v>224600000000</v>
       </c>
       <c r="AO3" s="24">
-        <v>257600000000</v>
+        <v>263100000000</v>
       </c>
       <c r="AP3" s="24">
-        <v>291400000000</v>
+        <v>301600000000</v>
       </c>
       <c r="AQ3" s="24">
-        <v>323600000000</v>
+        <v>347300000000</v>
       </c>
       <c r="AR3" s="24">
-        <v>361200000000</v>
+        <v>354400000000</v>
       </c>
       <c r="AS3" s="18" t="s">
         <v>108</v>
@@ -3854,173 +4380,173 @@
         <v>93</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="15">
+      <c r="C4" s="47">
         <f>(C3/B3)-1</f>
         <v>6.980606192824812E-3</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="47">
         <f>(D3/C3)-1</f>
         <v>0.20068544466229898</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="47">
         <f>(E3/D3)-1</f>
         <v>0.1197391343547396</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="47">
         <f t="shared" ref="F4:AR4" si="0">(F3/E3)-1</f>
         <v>0.35335182953018274</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="47">
         <f t="shared" si="0"/>
         <v>9.3550547729781997E-2</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="47">
         <f t="shared" si="0"/>
         <v>0.17973610997758005</v>
       </c>
-      <c r="I4" s="16">
+      <c r="I4" s="47">
         <f t="shared" si="0"/>
         <v>8.5595826170694389E-2</v>
       </c>
-      <c r="J4" s="16">
+      <c r="J4" s="47">
         <f t="shared" si="0"/>
         <v>0.23192594128806188</v>
       </c>
-      <c r="K4" s="16">
+      <c r="K4" s="47">
         <f t="shared" si="0"/>
         <v>2.8316204797541822E-2</v>
       </c>
-      <c r="L4" s="16">
+      <c r="L4" s="47">
         <f t="shared" si="0"/>
         <v>1.4446397493055319E-2</v>
       </c>
-      <c r="M4" s="16">
+      <c r="M4" s="47">
         <f t="shared" si="0"/>
         <v>8.683752517150567E-2</v>
       </c>
-      <c r="N4" s="16">
+      <c r="N4" s="47">
         <f t="shared" si="0"/>
         <v>0.13956676439935589</v>
       </c>
-      <c r="O4" s="16">
+      <c r="O4" s="47">
         <f t="shared" si="0"/>
         <v>5.4501255620785782E-2</v>
       </c>
-      <c r="P4" s="16">
+      <c r="P4" s="47">
         <f t="shared" si="0"/>
         <v>0.169445370969868</v>
       </c>
-      <c r="Q4" s="16">
+      <c r="Q4" s="47">
         <f t="shared" si="0"/>
         <v>-6.1774673179387785E-3</v>
       </c>
-      <c r="R4" s="16">
+      <c r="R4" s="47">
         <f t="shared" si="0"/>
         <v>0.13941957425539075</v>
       </c>
-      <c r="S4" s="16">
+      <c r="S4" s="47">
         <f t="shared" si="0"/>
         <v>6.0592561716144688E-2</v>
       </c>
-      <c r="T4" s="16">
+      <c r="T4" s="47">
         <f t="shared" si="0"/>
         <v>5.8000558354871501E-2</v>
       </c>
-      <c r="U4" s="16">
+      <c r="U4" s="47">
         <f t="shared" si="0"/>
         <v>9.846672664247702E-2</v>
       </c>
-      <c r="V4" s="16">
+      <c r="V4" s="47">
         <f t="shared" si="0"/>
         <v>0.15325265129913146</v>
       </c>
-      <c r="W4" s="16">
+      <c r="W4" s="47">
         <f t="shared" si="0"/>
         <v>0.14943871469471381</v>
       </c>
-      <c r="X4" s="16">
+      <c r="X4" s="47">
         <f t="shared" si="0"/>
         <v>8.0949994630961086E-2</v>
       </c>
-      <c r="Y4" s="16">
+      <c r="Y4" s="47">
         <f t="shared" si="0"/>
         <v>9.0175625574527407E-2</v>
       </c>
-      <c r="Z4" s="16">
+      <c r="Z4" s="47">
         <f t="shared" si="0"/>
         <v>0.11850973002733989</v>
       </c>
-      <c r="AA4" s="16">
+      <c r="AA4" s="47">
         <f t="shared" si="0"/>
         <v>0.18986647871882223</v>
       </c>
-      <c r="AB4" s="16">
+      <c r="AB4" s="47">
         <f t="shared" si="0"/>
         <v>9.164801895485053E-2</v>
       </c>
-      <c r="AC4" s="16">
+      <c r="AC4" s="47">
         <f t="shared" si="0"/>
         <v>0.17604678503602322</v>
       </c>
-      <c r="AD4" s="16">
+      <c r="AD4" s="47">
         <f t="shared" si="0"/>
         <v>7.1078871145515699E-2</v>
       </c>
-      <c r="AE4" s="16">
+      <c r="AE4" s="47">
         <f t="shared" si="0"/>
         <v>6.262863159910026E-2</v>
       </c>
-      <c r="AF4" s="16">
+      <c r="AF4" s="47">
         <f t="shared" si="0"/>
         <v>0.21531202846654507</v>
       </c>
-      <c r="AG4" s="16">
+      <c r="AG4" s="47">
         <f t="shared" si="0"/>
         <v>3.5700056519684553E-2</v>
       </c>
-      <c r="AH4" s="16">
+      <c r="AH4" s="47">
         <f t="shared" si="0"/>
         <v>-7.5147611379500212E-4</v>
       </c>
-      <c r="AI4" s="16">
+      <c r="AI4" s="47">
         <f t="shared" si="0"/>
         <v>1.208637730984119E-3</v>
       </c>
-      <c r="AJ4" s="16">
+      <c r="AJ4" s="47">
         <f t="shared" si="0"/>
         <v>9.1119635879139071E-2</v>
       </c>
-      <c r="AK4" s="16">
+      <c r="AK4" s="47">
         <f t="shared" si="0"/>
         <v>4.0361904918005953E-2</v>
       </c>
-      <c r="AL4" s="16">
+      <c r="AL4" s="47">
         <f t="shared" si="0"/>
         <v>0.10913301718841084</v>
       </c>
-      <c r="AM4" s="16">
+      <c r="AM4" s="47">
         <f t="shared" si="0"/>
         <v>0.25677556818181824</v>
       </c>
       <c r="AN4" s="16">
         <f t="shared" si="0"/>
-        <v>0.25750194965923345</v>
+        <v>0.26925641692191182</v>
       </c>
       <c r="AO4" s="16">
         <f t="shared" si="0"/>
-        <v>0.15764875067409667</v>
+        <v>0.17141585040071239</v>
       </c>
       <c r="AP4" s="16">
         <f t="shared" si="0"/>
-        <v>0.1312111801242235</v>
+        <v>0.14633219308247813</v>
       </c>
       <c r="AQ4" s="16">
         <f t="shared" si="0"/>
-        <v>0.11050102951269736</v>
+        <v>0.15152519893899208</v>
       </c>
       <c r="AR4" s="16">
         <f t="shared" si="0"/>
-        <v>0.11619283065512986</v>
+        <v>2.0443420673769142E-2</v>
       </c>
       <c r="AS4" s="17">
         <f>(AM4+AL4+AK4)/3</f>
@@ -4279,13 +4805,13 @@
       <c r="AS6" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="AT6" s="19" t="s">
+      <c r="AT6" s="72" t="s">
         <v>113</v>
       </c>
-      <c r="AU6" s="19" t="s">
+      <c r="AU6" s="72" t="s">
         <v>114</v>
       </c>
-      <c r="AV6" s="19" t="s">
+      <c r="AV6" s="72" t="s">
         <v>115</v>
       </c>
     </row>
@@ -4412,16 +4938,16 @@
         <v>0.83919999999999995</v>
       </c>
       <c r="AT7" s="20">
-        <f>AM21</f>
-        <v>0.434</v>
+        <f>AN21</f>
+        <v>0.46304541406945682</v>
       </c>
       <c r="AU7" s="20">
-        <f>AM30</f>
-        <v>0.31380000000000002</v>
+        <f>AN30</f>
+        <v>0.35680320569902046</v>
       </c>
       <c r="AV7" s="20">
-        <f>AM107/AM3</f>
-        <v>0.36243317472337444</v>
+        <f>AN107/AN3</f>
+        <v>0.3197105966162066</v>
       </c>
     </row>
     <row r="8" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -5642,16 +6168,16 @@
         <f>(AM35+AL35+AK35+AJ35+AI35)/5</f>
         <v>-1.7157376237623801E-2</v>
       </c>
-      <c r="AT16" s="31">
-        <f>AU101/AM3</f>
+      <c r="AT16" s="28">
+        <f>AU102/AM3</f>
         <v>4.4019880872995243</v>
       </c>
-      <c r="AU16" s="31">
-        <f>AU101/AM28</f>
+      <c r="AU16" s="28">
+        <f>AU102/AM28</f>
         <v>14.028805042773525</v>
       </c>
-      <c r="AV16" s="32">
-        <f>AU101/AM107</f>
+      <c r="AV16" s="29">
+        <f>AU102/AM107</f>
         <v>12.145654411076809</v>
       </c>
     </row>
@@ -5896,13 +6422,13 @@
         <v>124</v>
       </c>
       <c r="AT18" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="AU18" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="AU18" s="19" t="s">
+      <c r="AV18" s="19" t="s">
         <v>159</v>
-      </c>
-      <c r="AV18" s="19" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="19" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -6023,36 +6549,36 @@
       <c r="AM19" s="10">
         <v>76802000000</v>
       </c>
-      <c r="AN19" s="42">
-        <v>105000000000</v>
-      </c>
-      <c r="AO19" s="42">
-        <v>122600000000</v>
-      </c>
-      <c r="AP19" s="42">
-        <v>143200000000</v>
-      </c>
-      <c r="AQ19" s="42">
-        <v>160400000000</v>
-      </c>
-      <c r="AR19" s="42">
-        <v>180100000000</v>
+      <c r="AN19" s="38">
+        <v>104000000000</v>
+      </c>
+      <c r="AO19" s="38">
+        <v>125100000000</v>
+      </c>
+      <c r="AP19" s="38">
+        <v>147500000000</v>
+      </c>
+      <c r="AQ19" s="38">
+        <v>163200000000</v>
+      </c>
+      <c r="AR19" s="38">
+        <v>173700000000</v>
       </c>
       <c r="AS19" s="26">
         <f>AM40-AM56-AM61</f>
         <v>-2210000000</v>
       </c>
-      <c r="AT19" s="31">
-        <f>AU101/AN3</f>
-        <v>3.5005815207621787</v>
-      </c>
-      <c r="AU19" s="31">
-        <f>AU101/AN28</f>
-        <v>9.8316197351979699</v>
-      </c>
-      <c r="AV19" s="32">
-        <f>AU101/AN106</f>
-        <v>10.866281648880518</v>
+      <c r="AT19" s="28">
+        <f>AU102/AN3</f>
+        <v>3.4681629563668745</v>
+      </c>
+      <c r="AU19" s="28">
+        <f>AU102/AN28</f>
+        <v>9.720100326936036</v>
+      </c>
+      <c r="AV19" s="29">
+        <f>AU102/AN107</f>
+        <v>10.847819850432408</v>
       </c>
     </row>
     <row r="20" spans="1:48" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -6210,23 +6736,23 @@
       </c>
       <c r="AN20" s="16">
         <f t="shared" ref="AN20" si="4">(AN19/AM19)-1</f>
-        <v>0.36715189708601348</v>
+        <v>0.35413140282805133</v>
       </c>
       <c r="AO20" s="16">
         <f t="shared" ref="AO20" si="5">(AO19/AN19)-1</f>
-        <v>0.16761904761904756</v>
+        <v>0.20288461538461533</v>
       </c>
       <c r="AP20" s="16">
         <f t="shared" ref="AP20" si="6">(AP19/AO19)-1</f>
-        <v>0.16802610114192507</v>
+        <v>0.17905675459632286</v>
       </c>
       <c r="AQ20" s="16">
         <f t="shared" ref="AQ20" si="7">(AQ19/AP19)-1</f>
-        <v>0.12011173184357538</v>
+        <v>0.10644067796610179</v>
       </c>
       <c r="AR20" s="16">
         <f t="shared" ref="AR20" si="8">(AR19/AQ19)-1</f>
-        <v>0.12281795511221949</v>
+        <v>6.4338235294117752E-2</v>
       </c>
     </row>
     <row r="21" spans="1:48" ht="20" x14ac:dyDescent="0.25">
@@ -6344,34 +6870,37 @@
       <c r="AL21" s="2">
         <v>0.46439999999999998</v>
       </c>
-      <c r="AM21" s="38">
+      <c r="AM21" s="34">
         <v>0.434</v>
       </c>
-      <c r="AN21" s="43">
+      <c r="AN21" s="39">
         <f>AN19/AN3</f>
-        <v>0.47186769728563727</v>
-      </c>
-      <c r="AO21" s="43">
+        <v>0.46304541406945682</v>
+      </c>
+      <c r="AO21" s="39">
         <f t="shared" ref="AO21:AR21" si="9">AO19/AO3</f>
-        <v>0.47593167701863354</v>
-      </c>
-      <c r="AP21" s="43">
+        <v>0.47548460661345499</v>
+      </c>
+      <c r="AP21" s="39">
         <f t="shared" si="9"/>
-        <v>0.49142072752230609</v>
-      </c>
-      <c r="AQ21" s="43">
+        <v>0.48905835543766579</v>
+      </c>
+      <c r="AQ21" s="39">
         <f t="shared" si="9"/>
-        <v>0.49567367119901112</v>
-      </c>
-      <c r="AR21" s="43">
+        <v>0.46991073999424127</v>
+      </c>
+      <c r="AR21" s="39">
         <f t="shared" si="9"/>
-        <v>0.49861572535991139</v>
+        <v>0.49012415349887134</v>
+      </c>
+      <c r="AT21" s="48" t="s">
+        <v>166</v>
       </c>
       <c r="AU21" s="18" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AV21" s="19" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="22" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -6489,16 +7018,20 @@
       <c r="AL22" s="10">
         <v>58644000000</v>
       </c>
-      <c r="AM22" s="37">
+      <c r="AM22" s="33">
         <v>74809000000</v>
       </c>
-      <c r="AU22" s="33">
-        <f>(-1*AM98)/AU101</f>
+      <c r="AT22" s="17">
+        <f>SUM(AN29:AR29)/5</f>
+        <v>0.18686866407346661</v>
+      </c>
+      <c r="AU22" s="30">
+        <f>(-1*AM98)/AU102</f>
         <v>3.248349636061084E-2</v>
       </c>
-      <c r="AV22" s="34">
-        <f>AM107/AU101</f>
-        <v>8.2333974453282846E-2</v>
+      <c r="AV22" s="31">
+        <f>AN107/AU102</f>
+        <v>9.2184421735224398E-2</v>
       </c>
     </row>
     <row r="23" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -7214,20 +7747,20 @@
       <c r="AM28" s="11">
         <v>55525000000</v>
       </c>
-      <c r="AN28" s="39">
-        <v>79229000000</v>
-      </c>
-      <c r="AO28" s="39">
-        <v>91283000000</v>
-      </c>
-      <c r="AP28" s="39">
-        <v>104400000000</v>
-      </c>
-      <c r="AQ28" s="39">
-        <v>116700000000</v>
-      </c>
-      <c r="AR28" s="39">
-        <v>127000000000</v>
+      <c r="AN28" s="35">
+        <v>80138000000</v>
+      </c>
+      <c r="AO28" s="35">
+        <v>92886000000</v>
+      </c>
+      <c r="AP28" s="35">
+        <v>109900000000</v>
+      </c>
+      <c r="AQ28" s="35">
+        <v>124400000000</v>
+      </c>
+      <c r="AR28" s="35">
+        <v>126500000000</v>
       </c>
     </row>
     <row r="29" spans="1:48" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -7385,23 +7918,23 @@
       </c>
       <c r="AN29" s="16">
         <f t="shared" ref="AN29" si="11">(AN28/AM28)-1</f>
-        <v>0.4269067987393067</v>
+        <v>0.44327780279153539</v>
       </c>
       <c r="AO29" s="16">
         <f t="shared" ref="AO29" si="12">(AO28/AN28)-1</f>
-        <v>0.15214126140680806</v>
+        <v>0.15907559459931608</v>
       </c>
       <c r="AP29" s="16">
         <f t="shared" ref="AP29" si="13">(AP28/AO28)-1</f>
-        <v>0.1436959784406735</v>
+        <v>0.18317076846887592</v>
       </c>
       <c r="AQ29" s="16">
         <f t="shared" ref="AQ29" si="14">(AQ28/AP28)-1</f>
-        <v>0.11781609195402298</v>
+        <v>0.13193812556869888</v>
       </c>
       <c r="AR29" s="16">
         <f t="shared" ref="AR29" si="15">(AR28/AQ28)-1</f>
-        <v>8.8260497000856919E-2</v>
+        <v>1.688102893890675E-2</v>
       </c>
     </row>
     <row r="30" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -7522,25 +8055,25 @@
       <c r="AM30" s="2">
         <v>0.31380000000000002</v>
       </c>
-      <c r="AN30" s="40">
+      <c r="AN30" s="36">
         <f>AN28/AN3</f>
-        <v>0.35605338845946433</v>
-      </c>
-      <c r="AO30" s="40">
+        <v>0.35680320569902046</v>
+      </c>
+      <c r="AO30" s="36">
         <f t="shared" ref="AO30:AR30" si="16">AO28/AO3</f>
-        <v>0.35435947204968943</v>
-      </c>
-      <c r="AP30" s="40">
+        <v>0.35304446978335235</v>
+      </c>
+      <c r="AP30" s="36">
         <f t="shared" si="16"/>
-        <v>0.3582704186684969</v>
-      </c>
-      <c r="AQ30" s="40">
+        <v>0.36438992042440316</v>
+      </c>
+      <c r="AQ30" s="36">
         <f t="shared" si="16"/>
-        <v>0.36063040791100126</v>
-      </c>
-      <c r="AR30" s="40">
+        <v>0.35819176504463002</v>
+      </c>
+      <c r="AR30" s="36">
         <f t="shared" si="16"/>
-        <v>0.35160575858250276</v>
+        <v>0.356941309255079</v>
       </c>
     </row>
     <row r="31" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -7661,20 +8194,20 @@
       <c r="AM31" s="12">
         <v>24.51</v>
       </c>
-      <c r="AN31" s="41">
-        <v>35.35</v>
-      </c>
-      <c r="AO31" s="41">
-        <v>40.729999999999997</v>
-      </c>
-      <c r="AP31" s="41">
-        <v>46.6</v>
-      </c>
-      <c r="AQ31" s="41">
-        <v>52.07</v>
-      </c>
-      <c r="AR31" s="41">
-        <v>56.65</v>
+      <c r="AN31" s="37">
+        <v>35.81</v>
+      </c>
+      <c r="AO31" s="37">
+        <v>41.51</v>
+      </c>
+      <c r="AP31" s="37">
+        <v>49.1</v>
+      </c>
+      <c r="AQ31" s="37">
+        <v>55.44</v>
+      </c>
+      <c r="AR31" s="37">
+        <v>56.54</v>
       </c>
     </row>
     <row r="32" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -13819,7 +14352,7 @@
         <v>-9917000000</v>
       </c>
     </row>
-    <row r="83" spans="1:47" ht="21" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:47" ht="19" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>34</v>
       </c>
@@ -13937,12 +14470,8 @@
       <c r="AM83" s="1">
         <v>-4767000000</v>
       </c>
-      <c r="AT83" s="70" t="s">
-        <v>125</v>
-      </c>
-      <c r="AU83" s="71"/>
     </row>
-    <row r="84" spans="1:47" ht="19" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:47" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>47</v>
       </c>
@@ -14060,12 +14589,18 @@
       <c r="AM84" s="1">
         <v>6717000000</v>
       </c>
-      <c r="AT84" s="72" t="s">
-        <v>126</v>
-      </c>
-      <c r="AU84" s="72"/>
+      <c r="AN84" s="50"/>
+      <c r="AO84" s="50"/>
+      <c r="AP84" s="50"/>
+      <c r="AQ84" s="50"/>
+      <c r="AR84" s="50"/>
+      <c r="AS84" s="50"/>
+      <c r="AT84" s="77" t="s">
+        <v>125</v>
+      </c>
+      <c r="AU84" s="78"/>
     </row>
-    <row r="85" spans="1:47" ht="20" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:47" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>71</v>
       </c>
@@ -14183,13 +14718,16 @@
       <c r="AM85" s="1">
         <v>1160000000</v>
       </c>
-      <c r="AT85" s="45" t="s">
-        <v>127</v>
-      </c>
-      <c r="AU85" s="46">
-        <f>AM17</f>
-        <v>378000000</v>
-      </c>
+      <c r="AN85" s="50"/>
+      <c r="AO85" s="50"/>
+      <c r="AP85" s="50"/>
+      <c r="AQ85" s="50"/>
+      <c r="AR85" s="50"/>
+      <c r="AS85" s="50"/>
+      <c r="AT85" s="79" t="s">
+        <v>126</v>
+      </c>
+      <c r="AU85" s="79"/>
     </row>
     <row r="86" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
@@ -14309,12 +14847,18 @@
       <c r="AM86" s="1">
         <v>6260000000</v>
       </c>
-      <c r="AT86" s="45" t="s">
-        <v>128</v>
-      </c>
-      <c r="AU86" s="46">
-        <f>AM56</f>
-        <v>1466000000</v>
+      <c r="AN86" s="50"/>
+      <c r="AO86" s="50"/>
+      <c r="AP86" s="50"/>
+      <c r="AQ86" s="50"/>
+      <c r="AR86" s="50"/>
+      <c r="AS86" s="50"/>
+      <c r="AT86" s="40" t="s">
+        <v>127</v>
+      </c>
+      <c r="AU86" s="51">
+        <f>AM17</f>
+        <v>378000000</v>
       </c>
     </row>
     <row r="87" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -14435,12 +14979,18 @@
       <c r="AM87" s="10">
         <v>78887000000</v>
       </c>
-      <c r="AT87" s="45" t="s">
-        <v>129</v>
-      </c>
-      <c r="AU87" s="46">
-        <f>AM61</f>
-        <v>24318000000</v>
+      <c r="AN87" s="50"/>
+      <c r="AO87" s="50"/>
+      <c r="AP87" s="50"/>
+      <c r="AQ87" s="50"/>
+      <c r="AR87" s="50"/>
+      <c r="AS87" s="50"/>
+      <c r="AT87" s="40" t="s">
+        <v>128</v>
+      </c>
+      <c r="AU87" s="51">
+        <f>AM56</f>
+        <v>1466000000</v>
       </c>
     </row>
     <row r="88" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -14561,12 +15111,18 @@
       <c r="AM88" s="1">
         <v>-12146000000</v>
       </c>
-      <c r="AT88" s="47" t="s">
-        <v>130</v>
-      </c>
-      <c r="AU88" s="48">
-        <f>AU85/(AU86+AU87)</f>
-        <v>1.4660254421346572E-2</v>
+      <c r="AN88" s="50"/>
+      <c r="AO88" s="50"/>
+      <c r="AP88" s="50"/>
+      <c r="AQ88" s="50"/>
+      <c r="AR88" s="50"/>
+      <c r="AS88" s="50"/>
+      <c r="AT88" s="40" t="s">
+        <v>129</v>
+      </c>
+      <c r="AU88" s="51">
+        <f>AM61</f>
+        <v>24318000000</v>
       </c>
     </row>
     <row r="89" spans="1:47" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -14725,12 +15281,18 @@
         <f t="shared" si="19"/>
         <v>6.8639307390621296E-2</v>
       </c>
-      <c r="AT89" s="45" t="s">
-        <v>105</v>
-      </c>
-      <c r="AU89" s="46">
-        <f>AM27</f>
-        <v>13537000000</v>
+      <c r="AN89" s="50"/>
+      <c r="AO89" s="50"/>
+      <c r="AP89" s="50"/>
+      <c r="AQ89" s="50"/>
+      <c r="AR89" s="50"/>
+      <c r="AS89" s="50"/>
+      <c r="AT89" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="AU89" s="52">
+        <f>AU86/(AU87+AU88)</f>
+        <v>1.4660254421346572E-2</v>
       </c>
     </row>
     <row r="90" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -14851,12 +15413,18 @@
       <c r="AM90" s="1">
         <v>-7075000000</v>
       </c>
-      <c r="AT90" s="45" t="s">
-        <v>19</v>
-      </c>
-      <c r="AU90" s="46">
-        <f>AM25</f>
-        <v>69062000000</v>
+      <c r="AN90" s="50"/>
+      <c r="AO90" s="50"/>
+      <c r="AP90" s="50"/>
+      <c r="AQ90" s="50"/>
+      <c r="AR90" s="50"/>
+      <c r="AS90" s="50"/>
+      <c r="AT90" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="AU90" s="51">
+        <f>AM27</f>
+        <v>13537000000</v>
       </c>
     </row>
     <row r="91" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -14977,12 +15545,18 @@
       <c r="AM91" s="1">
         <v>-9735000000</v>
       </c>
-      <c r="AT91" s="47" t="s">
-        <v>131</v>
-      </c>
-      <c r="AU91" s="48">
-        <f>AU89/AU90</f>
-        <v>0.19601227882192812</v>
+      <c r="AN91" s="50"/>
+      <c r="AO91" s="50"/>
+      <c r="AP91" s="50"/>
+      <c r="AQ91" s="50"/>
+      <c r="AR91" s="50"/>
+      <c r="AS91" s="50"/>
+      <c r="AT91" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="AU91" s="51">
+        <f>AM25</f>
+        <v>69062000000</v>
       </c>
     </row>
     <row r="92" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15103,15 +15677,21 @@
       <c r="AM92" s="1">
         <v>6645000000</v>
       </c>
-      <c r="AT92" s="47" t="s">
-        <v>132</v>
-      </c>
-      <c r="AU92" s="48">
-        <f>AU88*(1-AU91)</f>
-        <v>1.1786664544109184E-2</v>
+      <c r="AN92" s="50"/>
+      <c r="AO92" s="50"/>
+      <c r="AP92" s="50"/>
+      <c r="AQ92" s="50"/>
+      <c r="AR92" s="50"/>
+      <c r="AS92" s="50"/>
+      <c r="AT92" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="AU92" s="52">
+        <f>AU90/AU91</f>
+        <v>0.19601227882192812</v>
       </c>
     </row>
-    <row r="93" spans="1:47" ht="19" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:47" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>78</v>
       </c>
@@ -15229,12 +15809,21 @@
       <c r="AM93" s="1">
         <v>-2607000000</v>
       </c>
-      <c r="AT93" s="72" t="s">
-        <v>133</v>
-      </c>
-      <c r="AU93" s="72"/>
+      <c r="AN93" s="50"/>
+      <c r="AO93" s="50"/>
+      <c r="AP93" s="50"/>
+      <c r="AQ93" s="50"/>
+      <c r="AR93" s="50"/>
+      <c r="AS93" s="50"/>
+      <c r="AT93" s="41" t="s">
+        <v>132</v>
+      </c>
+      <c r="AU93" s="52">
+        <f>AU89*(1-AU92)</f>
+        <v>1.1786664544109184E-2</v>
+      </c>
     </row>
-    <row r="94" spans="1:47" ht="20" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:47" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
         <v>79</v>
       </c>
@@ -15352,13 +15941,16 @@
       <c r="AM94" s="10">
         <v>-24918000000</v>
       </c>
-      <c r="AT94" s="45" t="s">
-        <v>134</v>
-      </c>
-      <c r="AU94" s="49">
-        <f>[1]Treasuries!$C$8</f>
-        <v>3.9120000000000002E-2</v>
-      </c>
+      <c r="AN94" s="50"/>
+      <c r="AO94" s="50"/>
+      <c r="AP94" s="50"/>
+      <c r="AQ94" s="50"/>
+      <c r="AR94" s="50"/>
+      <c r="AS94" s="50"/>
+      <c r="AT94" s="79" t="s">
+        <v>133</v>
+      </c>
+      <c r="AU94" s="79"/>
     </row>
     <row r="95" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
@@ -15478,12 +16070,18 @@
       <c r="AM95" s="1">
         <v>-13623000000</v>
       </c>
-      <c r="AT95" s="50" t="s">
-        <v>135</v>
-      </c>
-      <c r="AU95" s="51" cm="1">
-        <f t="array" ref="AU95">_FV(A1,"Beta")</f>
-        <v>0.76149999999999995</v>
+      <c r="AN95" s="50"/>
+      <c r="AO95" s="50"/>
+      <c r="AP95" s="50"/>
+      <c r="AQ95" s="50"/>
+      <c r="AR95" s="50"/>
+      <c r="AS95" s="50"/>
+      <c r="AT95" s="40" t="s">
+        <v>134</v>
+      </c>
+      <c r="AU95" s="73">
+        <f>'[1]US Treasury Bonds'!$C$8</f>
+        <v>4.9020000000000001E-2</v>
       </c>
     </row>
     <row r="96" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15604,11 +16202,18 @@
       <c r="AM96" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AT96" s="45" t="s">
-        <v>136</v>
-      </c>
-      <c r="AU96" s="52">
-        <v>8.4000000000000005E-2</v>
+      <c r="AN96" s="50"/>
+      <c r="AO96" s="50"/>
+      <c r="AP96" s="50"/>
+      <c r="AQ96" s="50"/>
+      <c r="AR96" s="50"/>
+      <c r="AS96" s="50"/>
+      <c r="AT96" s="42" t="s">
+        <v>135</v>
+      </c>
+      <c r="AU96" s="53" cm="1">
+        <f t="array" ref="AU96">_FV(A1,"Beta")</f>
+        <v>0.76470000000000005</v>
       </c>
     </row>
     <row r="97" spans="1:48" ht="20" x14ac:dyDescent="0.25">
@@ -15729,15 +16334,20 @@
       <c r="AM97" s="1">
         <v>-24086000000</v>
       </c>
-      <c r="AT97" s="47" t="s">
-        <v>137</v>
-      </c>
-      <c r="AU97" s="48">
-        <f>(AU94)+((AU95)*(AU96-AU94))</f>
-        <v>7.3296119999999992E-2</v>
+      <c r="AN97" s="50"/>
+      <c r="AO97" s="50"/>
+      <c r="AP97" s="50"/>
+      <c r="AQ97" s="50"/>
+      <c r="AR97" s="50"/>
+      <c r="AS97" s="50"/>
+      <c r="AT97" s="40" t="s">
+        <v>136</v>
+      </c>
+      <c r="AU97" s="54">
+        <v>8.4000000000000005E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:48" ht="19" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:48" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
         <v>83</v>
       </c>
@@ -15855,15 +16465,24 @@
       <c r="AM98" s="1">
         <v>-25303000000</v>
       </c>
-      <c r="AT98" s="72" t="s">
-        <v>138</v>
-      </c>
-      <c r="AU98" s="72"/>
-      <c r="AV98" s="30" t="e" vm="2">
+      <c r="AN98" s="50"/>
+      <c r="AO98" s="50"/>
+      <c r="AP98" s="50"/>
+      <c r="AQ98" s="50"/>
+      <c r="AR98" s="50"/>
+      <c r="AS98" s="50"/>
+      <c r="AT98" s="41" t="s">
+        <v>137</v>
+      </c>
+      <c r="AU98" s="52">
+        <f>(AU95)+((AU96)*(AU97-AU95))</f>
+        <v>7.5769206000000006E-2</v>
+      </c>
+      <c r="AV98" s="27" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="99" spans="1:48" ht="20" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:48" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>84</v>
       </c>
@@ -15981,14 +16600,17 @@
       <c r="AM99" s="1">
         <v>11215000000</v>
       </c>
-      <c r="AT99" s="45" t="s">
-        <v>139</v>
-      </c>
-      <c r="AU99" s="46">
-        <f>AU86+AU87</f>
-        <v>25784000000</v>
-      </c>
-      <c r="AV99" s="30" t="e" vm="3">
+      <c r="AN99" s="50"/>
+      <c r="AO99" s="50"/>
+      <c r="AP99" s="50"/>
+      <c r="AQ99" s="50"/>
+      <c r="AR99" s="50"/>
+      <c r="AS99" s="50"/>
+      <c r="AT99" s="79" t="s">
+        <v>138</v>
+      </c>
+      <c r="AU99" s="79"/>
+      <c r="AV99" s="27" t="e" vm="3">
         <v>#VALUE!</v>
       </c>
     </row>
@@ -16110,16 +16732,22 @@
       <c r="AM100" s="10">
         <v>-51797000000</v>
       </c>
-      <c r="AT100" s="47" t="s">
-        <v>140</v>
-      </c>
-      <c r="AU100" s="48">
-        <f>AU99/AU103</f>
-        <v>3.204042481646717E-2</v>
-      </c>
-      <c r="AV100" s="68" cm="1">
-        <f t="array" ref="AV100">_FV(AV99,"Open")</f>
-        <v>0.1487</v>
+      <c r="AN100" s="50"/>
+      <c r="AO100" s="50"/>
+      <c r="AP100" s="50"/>
+      <c r="AQ100" s="50"/>
+      <c r="AR100" s="50"/>
+      <c r="AS100" s="50"/>
+      <c r="AT100" s="40" t="s">
+        <v>139</v>
+      </c>
+      <c r="AU100" s="51">
+        <f>AU87+AU88</f>
+        <v>25784000000</v>
+      </c>
+      <c r="AV100" s="46" cm="1">
+        <f t="array" ref="AV100">_FV(AV99,"Price")</f>
+        <v>0.1419</v>
       </c>
     </row>
     <row r="101" spans="1:48" ht="20" x14ac:dyDescent="0.25">
@@ -16240,16 +16868,22 @@
       <c r="AM101" s="1">
         <v>-238000000</v>
       </c>
-      <c r="AT101" s="50" t="s">
-        <v>141</v>
-      </c>
-      <c r="AU101" s="53" cm="1">
-        <f t="array" ref="AU101">_FV(A1,"Market cap",TRUE)</f>
-        <v>778949400000</v>
-      </c>
-      <c r="AV101" s="30">
-        <f>AU101*AV100</f>
-        <v>115829775780</v>
+      <c r="AN101" s="50"/>
+      <c r="AO101" s="50"/>
+      <c r="AP101" s="50"/>
+      <c r="AQ101" s="50"/>
+      <c r="AR101" s="50"/>
+      <c r="AS101" s="50"/>
+      <c r="AT101" s="41" t="s">
+        <v>140</v>
+      </c>
+      <c r="AU101" s="52">
+        <f>AU100/AU104</f>
+        <v>3.204042481646717E-2</v>
+      </c>
+      <c r="AV101" s="27" cm="1">
+        <f t="array" ref="AV101">_FV(AV98,"Market cap",TRUE)</f>
+        <v>347165600000</v>
       </c>
     </row>
     <row r="102" spans="1:48" ht="20" x14ac:dyDescent="0.25">
@@ -16370,12 +17004,18 @@
       <c r="AM102" s="10">
         <v>1934000000</v>
       </c>
-      <c r="AT102" s="47" t="s">
-        <v>142</v>
-      </c>
-      <c r="AU102" s="48">
-        <f>AU101/AU103</f>
-        <v>0.96795957518353282</v>
+      <c r="AN102" s="50"/>
+      <c r="AO102" s="50"/>
+      <c r="AP102" s="50"/>
+      <c r="AQ102" s="50"/>
+      <c r="AR102" s="50"/>
+      <c r="AS102" s="50"/>
+      <c r="AT102" s="42" t="s">
+        <v>141</v>
+      </c>
+      <c r="AU102" s="55" cm="1">
+        <f t="array" ref="AU102">_FV(A1,"Market cap",TRUE)</f>
+        <v>778949400000</v>
       </c>
     </row>
     <row r="103" spans="1:48" ht="20" x14ac:dyDescent="0.25">
@@ -16496,15 +17136,21 @@
       <c r="AM103" s="1">
         <v>10719000000</v>
       </c>
-      <c r="AT103" s="47" t="s">
-        <v>143</v>
-      </c>
-      <c r="AU103" s="54">
-        <f>AU99+AU101</f>
-        <v>804733400000</v>
+      <c r="AN103" s="50"/>
+      <c r="AO103" s="50"/>
+      <c r="AP103" s="50"/>
+      <c r="AQ103" s="50"/>
+      <c r="AR103" s="50"/>
+      <c r="AS103" s="50"/>
+      <c r="AT103" s="41" t="s">
+        <v>142</v>
+      </c>
+      <c r="AU103" s="52">
+        <f>AU102/AU104</f>
+        <v>0.96795957518353282</v>
       </c>
     </row>
-    <row r="104" spans="1:48" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:48" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="7" t="s">
         <v>89</v>
       </c>
@@ -16622,17 +17268,28 @@
       <c r="AM104" s="11">
         <v>12653000000</v>
       </c>
-      <c r="AT104" s="72" t="s">
-        <v>144</v>
-      </c>
-      <c r="AU104" s="72"/>
+      <c r="AN104" s="81" t="s">
+        <v>115</v>
+      </c>
+      <c r="AO104" s="81"/>
+      <c r="AP104" s="81"/>
+      <c r="AQ104" s="81"/>
+      <c r="AR104" s="81"/>
+      <c r="AS104" s="50"/>
+      <c r="AT104" s="41" t="s">
+        <v>143</v>
+      </c>
+      <c r="AU104" s="56">
+        <f>AU100+AU102</f>
+        <v>804733400000</v>
+      </c>
     </row>
-    <row r="105" spans="1:48" ht="21" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:48" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B105" s="1" t="e">
-        <f t="shared" ref="B105:AL105" si="20">(B22*(1-$AU$91))+B77+B88+B81</f>
+        <f t="shared" ref="B105:AM105" si="20">(B22*(1-$AU$92))+B77+B88+B81</f>
         <v>#VALUE!</v>
       </c>
       <c r="C105" s="1" t="e">
@@ -16780,222 +17437,225 @@
         <v>38183055920.766853</v>
       </c>
       <c r="AM105" s="1">
-        <f>(AM22*(1-$AU$91))+AM77+AM88+AM81</f>
+        <f t="shared" si="20"/>
         <v>50025517433.610382</v>
       </c>
-      <c r="AN105" s="27">
-        <f>AM105*(1+$AU$106)</f>
-        <v>57760020119.571899</v>
-      </c>
-      <c r="AO105" s="27">
-        <f t="shared" ref="AO105:AR105" si="21">AN105*(1+$AU$106)</f>
-        <v>66690363145.986412</v>
-      </c>
-      <c r="AP105" s="27">
-        <f t="shared" si="21"/>
-        <v>77001436760.865646</v>
-      </c>
-      <c r="AQ105" s="27">
-        <f t="shared" si="21"/>
-        <v>88906717305.74353</v>
-      </c>
-      <c r="AR105" s="27">
-        <f t="shared" si="21"/>
-        <v>102652686944.41612</v>
-      </c>
-      <c r="AS105" s="28" t="s">
-        <v>165</v>
-      </c>
-      <c r="AT105" s="55" t="s">
-        <v>107</v>
-      </c>
-      <c r="AU105" s="56">
-        <f>(AU100*AU92)+(AU102*AU97)</f>
-        <v>7.1325330916963678E-2</v>
-      </c>
+      <c r="AN105" s="75">
+        <f>AN107/AN3</f>
+        <v>0.3197105966162066</v>
+      </c>
+      <c r="AO105" s="75">
+        <f>AO107/AO3</f>
+        <v>0.32234131508931962</v>
+      </c>
+      <c r="AP105" s="75">
+        <f>AP107/AP3</f>
+        <v>0.34781167108753314</v>
+      </c>
+      <c r="AQ105" s="75">
+        <f>AQ107/AQ3</f>
+        <v>0.33976389288799308</v>
+      </c>
+      <c r="AR105" s="75">
+        <f>AR107/AR3</f>
+        <v>0.33267494356659144</v>
+      </c>
+      <c r="AS105" s="74" t="s">
+        <v>164</v>
+      </c>
+      <c r="AT105" s="79" t="s">
+        <v>144</v>
+      </c>
+      <c r="AU105" s="79"/>
     </row>
-    <row r="106" spans="1:48" ht="19" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:48" ht="20" x14ac:dyDescent="0.25">
       <c r="A106" s="14" t="s">
         <v>106</v>
       </c>
       <c r="B106" s="1"/>
       <c r="C106" s="15" t="e">
-        <f t="shared" ref="C106:AM106" si="22">(C107/B107)-1</f>
+        <f t="shared" ref="C106:AM106" si="21">(C107/B107)-1</f>
         <v>#VALUE!</v>
       </c>
       <c r="D106" s="15" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>#VALUE!</v>
       </c>
       <c r="E106" s="15" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>#VALUE!</v>
       </c>
       <c r="F106" s="15" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>#VALUE!</v>
       </c>
       <c r="G106" s="15" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>#VALUE!</v>
       </c>
       <c r="H106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>-1.4923508615631733</v>
       </c>
       <c r="I106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>2.8101263736314053</v>
       </c>
       <c r="J106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>-0.21937066760666624</v>
       </c>
       <c r="K106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>-2.8996513352278264</v>
       </c>
       <c r="L106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0.11557009173442379</v>
       </c>
       <c r="M106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>-1.1223123280708309</v>
       </c>
       <c r="N106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>-4.3398941240330196</v>
       </c>
       <c r="O106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>2.1695874794635279</v>
       </c>
       <c r="P106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0.27193254100034836</v>
       </c>
       <c r="Q106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0.70293243506219127</v>
       </c>
       <c r="R106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>-0.8701742149232512</v>
       </c>
       <c r="S106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>1.4663535236371517</v>
       </c>
       <c r="T106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>2.9538000381998097</v>
       </c>
       <c r="U106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0.22304824715743088</v>
       </c>
       <c r="V106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>7.1392679674461945E-2</v>
       </c>
       <c r="W106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>-7.8942953998839882E-2</v>
       </c>
       <c r="X106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0.710669498405192</v>
       </c>
       <c r="Y106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0.4339976640700145</v>
       </c>
       <c r="Z106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0.13446994943615942</v>
       </c>
       <c r="AA106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0.28173475188824826</v>
       </c>
       <c r="AB106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0.14320111519452539</v>
       </c>
       <c r="AC106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>3.048442523001893E-2</v>
       </c>
       <c r="AD106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0.19933304647160077</v>
       </c>
       <c r="AE106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0.22688133464884741</v>
       </c>
       <c r="AF106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0.16536900975984214</v>
       </c>
       <c r="AG106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0.25614002070198549</v>
       </c>
       <c r="AH106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>-0.18795415386920367</v>
       </c>
       <c r="AI106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>-9.6555965559655954E-3</v>
       </c>
       <c r="AJ106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0.1038626342917468</v>
       </c>
       <c r="AK106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>-0.15979859919552197</v>
       </c>
       <c r="AL106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0.59407432206226973</v>
       </c>
       <c r="AM106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0.34692848892155825</v>
       </c>
-      <c r="AN106" s="36">
-        <v>71685000000</v>
-      </c>
-      <c r="AO106" s="36">
-        <v>82891000000</v>
-      </c>
-      <c r="AP106" s="36">
-        <v>98217000000</v>
-      </c>
-      <c r="AQ106" s="36">
-        <v>112000000000</v>
-      </c>
-      <c r="AR106" s="36">
-        <v>130400000000</v>
-      </c>
-      <c r="AS106" s="28" t="s">
-        <v>166</v>
-      </c>
-      <c r="AT106" s="57" t="s">
-        <v>145</v>
-      </c>
-      <c r="AU106" s="58">
-        <f>(SUM(AN4:AR4)/5)</f>
-        <v>0.15461114812507618</v>
+      <c r="AN106" s="58">
+        <f>(AN107/AM105)/4</f>
+        <v>0.35885186042951056</v>
+      </c>
+      <c r="AO106" s="58">
+        <f>(AO107/AN107)-1</f>
+        <v>0.1810547718189035</v>
+      </c>
+      <c r="AP106" s="58">
+        <f>(AP107/AO107)-1</f>
+        <v>0.23691161211206491</v>
+      </c>
+      <c r="AQ106" s="58">
+        <f>(AQ107/AP107)-1</f>
+        <v>0.12488083889418489</v>
+      </c>
+      <c r="AR106" s="58">
+        <f>(AR107/AQ107)-1</f>
+        <v>-8.4745762711868622E-4</v>
+      </c>
+      <c r="AS106" s="49">
+        <f>SUM(AN106:AR106)/5</f>
+        <v>0.18017032512550904</v>
+      </c>
+      <c r="AT106" s="43" t="s">
+        <v>107</v>
+      </c>
+      <c r="AU106" s="59">
+        <f>(AU101*AU93)+(AU103*AU98)</f>
+        <v>7.3719178190916043E-2</v>
       </c>
     </row>
     <row r="107" spans="1:48" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="35" t="s">
-        <v>164</v>
+      <c r="A107" s="32" t="s">
+        <v>162</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>91</v>
@@ -17111,151 +17771,239 @@
       <c r="AM107" s="1">
         <v>64134000000</v>
       </c>
-      <c r="AN107" s="28"/>
-      <c r="AO107" s="28"/>
-      <c r="AP107" s="28"/>
-      <c r="AQ107" s="28"/>
-      <c r="AR107" s="44">
-        <f>AR106*(1+AU107)/(AU108-AU107)</f>
-        <v>2885246523971.5234</v>
-      </c>
-      <c r="AS107" s="29" t="s">
+      <c r="AN107" s="60">
+        <v>71807000000</v>
+      </c>
+      <c r="AO107" s="60">
+        <v>84808000000</v>
+      </c>
+      <c r="AP107" s="60">
+        <v>104900000000</v>
+      </c>
+      <c r="AQ107" s="60">
+        <v>118000000000</v>
+      </c>
+      <c r="AR107" s="60">
+        <v>117900000000</v>
+      </c>
+      <c r="AS107" s="57" t="s">
+        <v>163</v>
+      </c>
+      <c r="AT107" s="61" t="s">
+        <v>167</v>
+      </c>
+      <c r="AU107" s="44">
+        <f>(SUM(AN4:AR4)/5)</f>
+        <v>0.15179461600357272</v>
+      </c>
+    </row>
+    <row r="108" spans="1:48" ht="19" x14ac:dyDescent="0.2">
+      <c r="AN108" s="76"/>
+      <c r="AO108" s="76"/>
+      <c r="AP108" s="76"/>
+      <c r="AQ108" s="76"/>
+      <c r="AR108" s="62">
+        <f>AR107*(1+AU108)/(AU109-AU108)</f>
+        <v>2480491348323.5371</v>
+      </c>
+      <c r="AS108" s="63" t="s">
+        <v>145</v>
+      </c>
+      <c r="AT108" s="64" t="s">
         <v>146</v>
       </c>
-      <c r="AT107" s="59" t="s">
+      <c r="AU108" s="45">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:48" ht="19" x14ac:dyDescent="0.2">
+      <c r="AN109" s="62">
+        <f t="shared" ref="AN109:AQ109" si="22">AN108+AN107</f>
+        <v>71807000000</v>
+      </c>
+      <c r="AO109" s="62">
+        <f t="shared" si="22"/>
+        <v>84808000000</v>
+      </c>
+      <c r="AP109" s="62">
+        <f t="shared" si="22"/>
+        <v>104900000000</v>
+      </c>
+      <c r="AQ109" s="62">
+        <f t="shared" si="22"/>
+        <v>118000000000</v>
+      </c>
+      <c r="AR109" s="62">
+        <f>AR108+AR107</f>
+        <v>2598391348323.5371</v>
+      </c>
+      <c r="AS109" s="63" t="s">
+        <v>143</v>
+      </c>
+      <c r="AT109" s="65" t="s">
         <v>147</v>
       </c>
-      <c r="AU107" s="60">
-        <v>2.5000000000000001E-2</v>
+      <c r="AU109" s="44">
+        <f>AU106</f>
+        <v>7.3719178190916043E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:48" ht="19" x14ac:dyDescent="0.25">
-      <c r="AN108" s="44">
-        <f t="shared" ref="AN108:AQ108" si="23">AN107+AN106</f>
-        <v>71685000000</v>
-      </c>
-      <c r="AO108" s="44">
-        <f t="shared" si="23"/>
-        <v>82891000000</v>
-      </c>
-      <c r="AP108" s="44">
-        <f t="shared" si="23"/>
-        <v>98217000000</v>
-      </c>
-      <c r="AQ108" s="44">
-        <f t="shared" si="23"/>
-        <v>112000000000</v>
-      </c>
-      <c r="AR108" s="44">
-        <f>AR107+AR106</f>
-        <v>3015646523971.5234</v>
-      </c>
-      <c r="AS108" s="29" t="s">
-        <v>143</v>
-      </c>
-      <c r="AT108" s="61" t="s">
+    <row r="110" spans="1:48" ht="19" x14ac:dyDescent="0.2">
+      <c r="AN110" s="80" t="s">
         <v>148</v>
       </c>
-      <c r="AU108" s="58">
-        <f>AU105</f>
-        <v>7.1325330916963678E-2</v>
-      </c>
+      <c r="AO110" s="80"/>
+      <c r="AP110" s="50"/>
+      <c r="AQ110" s="50"/>
+      <c r="AR110" s="50"/>
+      <c r="AS110" s="50"/>
+      <c r="AT110" s="50"/>
+      <c r="AU110" s="50"/>
     </row>
-    <row r="109" spans="1:48" ht="19" x14ac:dyDescent="0.25">
-      <c r="AN109" s="69" t="s">
+    <row r="111" spans="1:48" ht="20" x14ac:dyDescent="0.2">
+      <c r="AN111" s="66" t="s">
         <v>149</v>
       </c>
-      <c r="AO109" s="69"/>
+      <c r="AO111" s="55">
+        <f>NPV(AU109,AN109,AO109,AP109,AQ109,AR109)</f>
+        <v>2134715835927.4583</v>
+      </c>
+      <c r="AP111" s="50"/>
+      <c r="AQ111" s="50"/>
+      <c r="AR111" s="50"/>
+      <c r="AS111" s="50"/>
+      <c r="AT111" s="50"/>
+      <c r="AU111" s="50"/>
     </row>
-    <row r="110" spans="1:48" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN110" s="62" t="s">
+    <row r="112" spans="1:48" ht="20" x14ac:dyDescent="0.2">
+      <c r="AN112" s="66" t="s">
         <v>150</v>
       </c>
-      <c r="AO110" s="53">
-        <f>NPV(AU108,AN108,AO108,AP108,AQ108,AR108)</f>
-        <v>2440880703297.6616</v>
-      </c>
-    </row>
-    <row r="111" spans="1:48" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN111" s="62" t="s">
-        <v>151</v>
-      </c>
-      <c r="AO111" s="53">
+      <c r="AO112" s="55">
         <f>AM40</f>
         <v>23574000000</v>
       </c>
+      <c r="AP112" s="50"/>
+      <c r="AQ112" s="50"/>
+      <c r="AR112" s="50"/>
+      <c r="AS112" s="50"/>
+      <c r="AT112" s="50"/>
+      <c r="AU112" s="50"/>
     </row>
-    <row r="112" spans="1:48" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN112" s="62" t="s">
+    <row r="113" spans="40:47" ht="20" x14ac:dyDescent="0.2">
+      <c r="AN113" s="66" t="s">
         <v>139</v>
       </c>
-      <c r="AO112" s="53">
-        <f>AU99</f>
+      <c r="AO113" s="55">
+        <f>AU100</f>
         <v>25784000000</v>
       </c>
+      <c r="AP113" s="50"/>
+      <c r="AQ113" s="50"/>
+      <c r="AR113" s="50"/>
+      <c r="AS113" s="50"/>
+      <c r="AT113" s="50"/>
+      <c r="AU113" s="50"/>
     </row>
-    <row r="113" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN113" s="62" t="s">
+    <row r="114" spans="40:47" ht="20" x14ac:dyDescent="0.2">
+      <c r="AN114" s="66" t="s">
+        <v>151</v>
+      </c>
+      <c r="AO114" s="55">
+        <f>AO111+AO112-AO113</f>
+        <v>2132505835927.4583</v>
+      </c>
+      <c r="AP114" s="50"/>
+      <c r="AQ114" s="50"/>
+      <c r="AR114" s="50"/>
+      <c r="AS114" s="50"/>
+      <c r="AT114" s="50"/>
+      <c r="AU114" s="50"/>
+    </row>
+    <row r="115" spans="40:47" ht="20" x14ac:dyDescent="0.2">
+      <c r="AN115" s="66" t="s">
         <v>152</v>
       </c>
-      <c r="AO113" s="53">
-        <f>AO110+AO111-AO112</f>
-        <v>2438670703297.6616</v>
-      </c>
+      <c r="AO115" s="66" cm="1">
+        <f t="array" ref="AO115">_FV(AV98,"Shares outstanding",TRUE)*(1+(5*AS16))</f>
+        <v>3140439082.3980188</v>
+      </c>
+      <c r="AP115" s="50"/>
+      <c r="AQ115" s="50"/>
+      <c r="AR115" s="50"/>
+      <c r="AS115" s="50"/>
+      <c r="AT115" s="50"/>
+      <c r="AU115" s="50"/>
     </row>
-    <row r="114" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN114" s="62" t="s">
+    <row r="116" spans="40:47" ht="20" x14ac:dyDescent="0.2">
+      <c r="AN116" s="67" t="s">
         <v>153</v>
       </c>
-      <c r="AO114" s="62">
-        <f>AM34*(1+(5*AS16))</f>
-        <v>2077366469.8762372</v>
-      </c>
+      <c r="AO116" s="68">
+        <f>AO114/AO115*AV100</f>
+        <v>96.356773743575047</v>
+      </c>
+      <c r="AP116" s="50"/>
+      <c r="AQ116" s="50"/>
+      <c r="AR116" s="50"/>
+      <c r="AS116" s="50"/>
+      <c r="AT116" s="50"/>
+      <c r="AU116" s="50"/>
     </row>
-    <row r="115" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN115" s="63" t="s">
+    <row r="117" spans="40:47" ht="20" x14ac:dyDescent="0.2">
+      <c r="AN117" s="66" t="s">
         <v>154</v>
       </c>
-      <c r="AO115" s="64">
-        <f>AO113/AO114*AV100</f>
-        <v>174.56252367545272</v>
-      </c>
+      <c r="AO117" s="69" cm="1">
+        <f t="array" ref="AO117">_FV(AV98,"Price")</f>
+        <v>97.66</v>
+      </c>
+      <c r="AP117" s="50"/>
+      <c r="AQ117" s="50"/>
+      <c r="AR117" s="50"/>
+      <c r="AS117" s="50"/>
+      <c r="AT117" s="50"/>
+      <c r="AU117" s="50"/>
     </row>
-    <row r="116" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN116" s="62" t="s">
+    <row r="118" spans="40:47" ht="20" x14ac:dyDescent="0.2">
+      <c r="AN118" s="67" t="s">
         <v>155</v>
       </c>
-      <c r="AO116" s="65" cm="1">
-        <f t="array" ref="AO116">_FV(AV98,"Price")</f>
-        <v>156.9</v>
-      </c>
+      <c r="AO118" s="70">
+        <f>AO116/AO117-1</f>
+        <v>-1.3344524436053162E-2</v>
+      </c>
+      <c r="AP118" s="50"/>
+      <c r="AQ118" s="50"/>
+      <c r="AR118" s="50"/>
+      <c r="AS118" s="50"/>
+      <c r="AT118" s="50"/>
+      <c r="AU118" s="50"/>
     </row>
-    <row r="117" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN117" s="63" t="s">
+    <row r="119" spans="40:47" ht="20" x14ac:dyDescent="0.2">
+      <c r="AN119" s="67" t="s">
         <v>156</v>
       </c>
-      <c r="AO117" s="66">
-        <f>AO115/AO116-1</f>
-        <v>0.11257185261601488</v>
-      </c>
-    </row>
-    <row r="118" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN118" s="63" t="s">
-        <v>157</v>
-      </c>
-      <c r="AO118" s="67" t="str">
-        <f>IF(AO115&gt;AO116,"BUY","SELL")</f>
-        <v>BUY</v>
-      </c>
+      <c r="AO119" s="71" t="str">
+        <f>IF(AO116&gt;AO117,"BUY","SELL")</f>
+        <v>SELL</v>
+      </c>
+      <c r="AP119" s="50"/>
+      <c r="AQ119" s="50"/>
+      <c r="AR119" s="50"/>
+      <c r="AS119" s="50"/>
+      <c r="AT119" s="50"/>
+      <c r="AU119" s="50"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="AN109:AO109"/>
-    <mergeCell ref="AT83:AU83"/>
+  <mergeCells count="7">
     <mergeCell ref="AT84:AU84"/>
-    <mergeCell ref="AT93:AU93"/>
-    <mergeCell ref="AT98:AU98"/>
-    <mergeCell ref="AT104:AU104"/>
+    <mergeCell ref="AT85:AU85"/>
+    <mergeCell ref="AN110:AO110"/>
+    <mergeCell ref="AN104:AR104"/>
+    <mergeCell ref="AT105:AU105"/>
+    <mergeCell ref="AT99:AU99"/>
+    <mergeCell ref="AT94:AU94"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" tooltip="https://roic.ai/company/NVO" display="ROIC.AI | NVO" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -17336,7 +18084,7 @@
     <hyperlink ref="AM36" r:id="rId76" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
     <hyperlink ref="AM74" r:id="rId77" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
     <hyperlink ref="AN1" r:id="rId78" display="https://finbox.com/LSE:0QIU/explorer/revenue_proj" xr:uid="{EF63146E-FF0E-094E-820B-2E4BDF0ACBC8}"/>
-    <hyperlink ref="AS106" r:id="rId79" xr:uid="{2B3EE0AD-F45A-9344-B2CA-26AF82D62DD5}"/>
+    <hyperlink ref="AS107" r:id="rId79" xr:uid="{2B3EE0AD-F45A-9344-B2CA-26AF82D62DD5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId80"/>

--- a/Healthcare/Novo Nordisk.xlsx
+++ b/Healthcare/Novo Nordisk.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Healthcare/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7813005F-3C86-9E4B-810D-CDA52E2C8207}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0445C49-B1BD-164A-9F3C-7371B12511D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2983,7 +2983,7 @@
       <sheetData sheetId="6">
         <row r="8">
           <cell r="C8">
-            <v>4.9020000000000001E-2</v>
+            <v>4.9880000000000008E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -3124,7 +3124,7 @@
     <v>Powered by Refinitiv</v>
     <v>50.17</v>
     <v>49.155000000000001</v>
-    <v>0.76470000000000005</v>
+    <v>0.75560000000000005</v>
     <v>0.16</v>
     <v>3.2320000000000001E-3</v>
     <v>CHF</v>
@@ -3151,7 +3151,7 @@
     <v>NOVOB</v>
     <v>Novo Nordisk A/S (XSWX:NOVOB)</v>
     <v>1113977</v>
-    <v>3451330</v>
+    <v>3613530</v>
     <v>1931</v>
   </rv>
   <rv s="2">
@@ -3161,13 +3161,13 @@
     <v>https://www.bing.com/financeapi/forcetrigger?t=a1yvxm&amp;q=XNYS%3aNVO&amp;form=skydnc</v>
     <v>Learn more on Bing</v>
   </rv>
-  <rv s="1">
-    <v>0</v>
+  <rv s="3">
+    <v>5</v>
     <v>Novo Nordisk A/S (XNYS:NVO)</v>
     <v>2</v>
-    <v>5</v>
+    <v>6</v>
     <v>Finance</v>
-    <v>6</v>
+    <v>7</v>
     <v>en-US</v>
     <v>a1yvxm</v>
     <v>268435456</v>
@@ -3175,9 +3175,11 @@
     <v>Powered by Refinitiv</v>
     <v>104</v>
     <v>50.445</v>
-    <v>0.41039999999999999</v>
-    <v>-2.91</v>
-    <v>-2.8934999999999999E-2</v>
+    <v>0.4083</v>
+    <v>-1.37</v>
+    <v>-1.4028000000000001E-2</v>
+    <v>0.21</v>
+    <v>2.1809999999999998E-3</v>
     <v>USD</v>
     <v>Novo Nordisk A/S is a global healthcare company engaged in diabetes care. The Company is also engaged in the discovery, development, manufacturing and marketing of pharmaceutical products. The Company operates through two business segments: diabetes and obesity care, and biopharmaceuticals. The Company's diabetes and obesity care segment covers insulin, GLP-1, other protein-related products, such as glucagon, protein-related delivery systems and needles, and oral anti-diabetic drugs. The Company's biopharmaceuticals segment covers the therapy areas of hemophilia care, growth hormone therapy and hormone replacement therapy. The Company also offers Saxenda product to treat obesity. It offers a range of products, including NovoLog/NovoRapid; NovoLog Mix/NovoMix; Prandin/NovoNorm; NovoSeven; Norditropin, and Vagifem. As of December 31, 2016, it marketed its products in over 180 countries. Its regional structure consists of two commercial units: North America and International Operations.</v>
     <v>59337</v>
@@ -3185,36 +3187,37 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>Novo Alle 1, BAGSVAERD, DENMARK-NA, 2880 DK</v>
-    <v>98.96</v>
+    <v>98.23</v>
     <v>Pharmaceuticals</v>
     <v>Stock</v>
-    <v>45218.99990189766</v>
+    <v>45219.999971596873</v>
     <v>3</v>
-    <v>96.26</v>
-    <v>347165600000</v>
+    <v>96.06</v>
+    <v>331932500000</v>
     <v>Novo Nordisk A/S</v>
     <v>Novo Nordisk A/S</v>
-    <v>98.77</v>
+    <v>97.5</v>
     <v>89.853200000000001</v>
-    <v>100.57</v>
     <v>97.66</v>
+    <v>96.29</v>
+    <v>96.5</v>
     <v>3435128000</v>
     <v>NVO</v>
     <v>Novo Nordisk A/S (XNYS:NVO)</v>
-    <v>13396</v>
-    <v>5209683</v>
+    <v>3945024</v>
+    <v>5251163</v>
     <v>1931</v>
   </rv>
   <rv s="2">
     <v>4</v>
   </rv>
-  <rv s="3">
-    <v>7</v>
+  <rv s="4">
+    <v>8</v>
     <v>DKK/USD</v>
-    <v>8</v>
     <v>9</v>
+    <v>10</v>
     <v>Finance</v>
-    <v>10</v>
+    <v>11</v>
     <v>en-US</v>
     <v>av79ec</v>
     <v>268435456</v>
@@ -3222,18 +3225,15 @@
     <v>Powered by Refinitiv</v>
     <v>0.15129999999999999</v>
     <v>0.1305</v>
-    <v>1E-4</v>
-    <v>7.0520000000000001E-4</v>
+    <v>2.0000000000000001E-4</v>
+    <v>1.4099999999999998E-3</v>
     <v>USD</v>
     <v>DKK</v>
-    <v>0.14199999999999999</v>
     <v>Currency Pair</v>
-    <v>45219.413576388892</v>
-    <v>0.1416</v>
+    <v>45219.874976851854</v>
     <v>Danish Krone/US Dollar FX Cross Rate</v>
     <v>0.14180000000000001</v>
-    <v>0.14180000000000001</v>
-    <v>0.1419</v>
+    <v>0.14199999999999999</v>
     <v>DKKUSD</v>
     <v>DKK/USD</v>
   </rv>
@@ -3244,7 +3244,7 @@
 </file>
 
 <file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
-<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="4">
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="5">
   <s t="_hyperlink">
     <k n="Address" t="s"/>
     <k n="Text" t="s"/>
@@ -3310,16 +3310,60 @@
     <k n="%ProviderInfo" t="s"/>
     <k n="52 week high"/>
     <k n="52 week low"/>
+    <k n="Beta"/>
+    <k n="Change"/>
+    <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
+    <k n="Currency" t="s"/>
+    <k n="Description" t="s"/>
+    <k n="Employees"/>
+    <k n="Exchange" t="s"/>
+    <k n="Exchange abbreviation" t="s"/>
+    <k n="ExchangeID" t="s"/>
+    <k n="Headquarters" t="s"/>
+    <k n="High"/>
+    <k n="Industry" t="s"/>
+    <k n="Instrument type" t="s"/>
+    <k n="Last trade time"/>
+    <k n="LearnMoreOnLink" t="r"/>
+    <k n="Low"/>
+    <k n="Market cap"/>
+    <k n="Name" t="s"/>
+    <k n="Official name" t="s"/>
+    <k n="Open"/>
+    <k n="P/E"/>
+    <k n="Previous close"/>
+    <k n="Price"/>
+    <k n="Price (Extended hours)"/>
+    <k n="Shares outstanding"/>
+    <k n="Ticker symbol" t="s"/>
+    <k n="UniqueName" t="s"/>
+    <k n="Volume"/>
+    <k n="Volume average"/>
+    <k n="Year incorporated"/>
+  </s>
+  <s t="_linkedentitycore">
+    <k n="_Display" t="spb"/>
+    <k n="_DisplayString" t="s"/>
+    <k n="_Flags" t="spb"/>
+    <k n="_Format" t="spb"/>
+    <k n="_Icon" t="s"/>
+    <k n="_SubLabel" t="spb"/>
+    <k n="%EntityCulture" t="s"/>
+    <k n="%EntityId" t="s"/>
+    <k n="%EntityServiceId"/>
+    <k n="%IsRefreshable" t="b"/>
+    <k n="%ProviderInfo" t="s"/>
+    <k n="52 week high"/>
+    <k n="52 week low"/>
     <k n="Change"/>
     <k n="Change (%)"/>
     <k n="Currency" t="s"/>
     <k n="From currency" t="s"/>
-    <k n="High"/>
     <k n="Instrument type" t="s"/>
     <k n="Last trade time"/>
-    <k n="Low"/>
     <k n="Name" t="s"/>
-    <k n="Open"/>
     <k n="Previous close"/>
     <k n="Price"/>
     <k n="Ticker symbol" t="s"/>
@@ -3330,7 +3374,7 @@
 
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
-  <spbArrays count="2">
+  <spbArrays count="3">
     <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
@@ -3375,7 +3419,54 @@
       <v t="s">ExchangeID</v>
       <v t="s">%ProviderInfo</v>
     </a>
-    <a count="27">
+    <a count="45">
+      <v t="s">%EntityServiceId</v>
+      <v t="s">_Format</v>
+      <v t="s">%IsRefreshable</v>
+      <v t="s">%EntityCulture</v>
+      <v t="s">%EntityId</v>
+      <v t="s">_Icon</v>
+      <v t="s">_Display</v>
+      <v t="s">Name</v>
+      <v t="s">_SubLabel</v>
+      <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
+      <v t="s">Exchange</v>
+      <v t="s">Official name</v>
+      <v t="s">Last trade time</v>
+      <v t="s">Ticker symbol</v>
+      <v t="s">Exchange abbreviation</v>
+      <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
+      <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
+      <v t="s">Currency</v>
+      <v t="s">Previous close</v>
+      <v t="s">Open</v>
+      <v t="s">High</v>
+      <v t="s">Low</v>
+      <v t="s">52 week high</v>
+      <v t="s">52 week low</v>
+      <v t="s">Volume</v>
+      <v t="s">Volume average</v>
+      <v t="s">Market cap</v>
+      <v t="s">Beta</v>
+      <v t="s">P/E</v>
+      <v t="s">Shares outstanding</v>
+      <v t="s">Description</v>
+      <v t="s">Employees</v>
+      <v t="s">Headquarters</v>
+      <v t="s">Industry</v>
+      <v t="s">Instrument type</v>
+      <v t="s">Year incorporated</v>
+      <v t="s">_Flags</v>
+      <v t="s">UniqueName</v>
+      <v t="s">_DisplayString</v>
+      <v t="s">LearnMoreOnLink</v>
+      <v t="s">ExchangeID</v>
+      <v t="s">%ProviderInfo</v>
+    </a>
+    <a count="24">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -3393,9 +3484,6 @@
       <v t="s">Currency</v>
       <v t="s">From currency</v>
       <v t="s">Previous close</v>
-      <v t="s">Open</v>
-      <v t="s">High</v>
-      <v t="s">Low</v>
       <v t="s">52 week high</v>
       <v t="s">52 week low</v>
       <v t="s">Instrument type</v>
@@ -3405,7 +3493,7 @@
       <v t="s">%ProviderInfo</v>
     </a>
   </spbArrays>
-  <spbData count="11">
+  <spbData count="12">
     <spb s="0">
       <v>0</v>
       <v>Name</v>
@@ -3450,7 +3538,12 @@
       <v>from previous close</v>
       <v>GMT</v>
     </spb>
-    <spb s="3">
+    <spb s="0">
+      <v>1</v>
+      <v>Name</v>
+      <v>LearnMoreOnLink</v>
+    </spb>
+    <spb s="5">
       <v>10</v>
       <v>2</v>
       <v>2</v>
@@ -3471,27 +3564,30 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>10</v>
+      <v>10</v>
+      <v>5</v>
     </spb>
-    <spb s="5">
-      <v>Real-Time Nasdaq Last Sale</v>
+    <spb s="6">
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
-    <spb s="6">
-      <v>1</v>
+    <spb s="7">
+      <v>2</v>
       <v>Name</v>
     </spb>
-    <spb s="7">
+    <spb s="8">
       <v>1</v>
       <v>1</v>
     </spb>
-    <spb s="8">
-      <v>10</v>
-      <v>10</v>
+    <spb s="9">
       <v>3</v>
-      <v>10</v>
       <v>10</v>
       <v>10</v>
       <v>5</v>
@@ -3501,7 +3597,7 @@
       <v>7</v>
       <v>9</v>
     </spb>
-    <spb s="9">
+    <spb s="10">
       <v>GMT</v>
     </spb>
   </spbData>
@@ -3509,7 +3605,7 @@
 </file>
 
 <file path=xl/richData/rdsupportingpropertybagstructure.xml><?xml version="1.0" encoding="utf-8"?>
-<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="10">
+<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="11">
   <s>
     <k n="^Order" t="spba"/>
     <k n="TitleProperty" t="s"/>
@@ -3555,11 +3651,39 @@
     <k n="Last trade time" t="s"/>
   </s>
   <s>
+    <k n="Low" t="i"/>
+    <k n="P/E" t="i"/>
+    <k n="Beta" t="i"/>
+    <k n="High" t="i"/>
+    <k n="Name" t="i"/>
+    <k n="Open" t="i"/>
+    <k n="Price" t="i"/>
+    <k n="Change" t="i"/>
+    <k n="Volume" t="i"/>
+    <k n="Employees" t="i"/>
+    <k n="Change (%)" t="i"/>
+    <k n="Market cap" t="i"/>
+    <k n="52 week low" t="i"/>
+    <k n="52 week high" t="i"/>
+    <k n="Previous close" t="i"/>
+    <k n="Volume average" t="i"/>
+    <k n="Last trade time" t="i"/>
+    <k n="Year incorporated" t="i"/>
+    <k n="`%EntityServiceId" t="i"/>
+    <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
+  </s>
+  <s>
     <k n="Price" t="s"/>
     <k n="Change" t="s"/>
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
   <s>
     <k n="^Order" t="spba"/>
@@ -3570,10 +3694,7 @@
     <k n="`%ProviderInfo" t="spb"/>
   </s>
   <s>
-    <k n="Low" t="i"/>
-    <k n="High" t="i"/>
     <k n="Name" t="i"/>
-    <k n="Open" t="i"/>
     <k n="Price" t="i"/>
     <k n="Change" t="i"/>
     <k n="Change (%)" t="i"/>
@@ -3952,10 +4073,10 @@
   <dimension ref="A1:AV119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AJ84" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AJ90" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AO88" sqref="AO88"/>
+      <selection pane="bottomRight" activeCell="AN97" sqref="AN97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16081,7 +16202,7 @@
       </c>
       <c r="AU95" s="73">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.9020000000000001E-2</v>
+        <v>4.9880000000000008E-2</v>
       </c>
     </row>
     <row r="96" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -16213,7 +16334,7 @@
       </c>
       <c r="AU96" s="53" cm="1">
         <f t="array" ref="AU96">_FV(A1,"Beta")</f>
-        <v>0.76470000000000005</v>
+        <v>0.75560000000000005</v>
       </c>
     </row>
     <row r="97" spans="1:48" ht="20" x14ac:dyDescent="0.25">
@@ -16476,7 +16597,7 @@
       </c>
       <c r="AU98" s="52">
         <f>(AU95)+((AU96)*(AU97-AU95))</f>
-        <v>7.5769206000000006E-2</v>
+        <v>7.566107200000001E-2</v>
       </c>
       <c r="AV98" s="27" t="e" vm="2">
         <v>#VALUE!</v>
@@ -16747,7 +16868,7 @@
       </c>
       <c r="AV100" s="46" cm="1">
         <f t="array" ref="AV100">_FV(AV99,"Price")</f>
-        <v>0.1419</v>
+        <v>0.14199999999999999</v>
       </c>
     </row>
     <row r="101" spans="1:48" ht="20" x14ac:dyDescent="0.25">
@@ -16883,7 +17004,7 @@
       </c>
       <c r="AV101" s="27" cm="1">
         <f t="array" ref="AV101">_FV(AV98,"Market cap",TRUE)</f>
-        <v>347165600000</v>
+        <v>331932500000</v>
       </c>
     </row>
     <row r="102" spans="1:48" ht="20" x14ac:dyDescent="0.25">
@@ -17650,7 +17771,7 @@
       </c>
       <c r="AU106" s="59">
         <f>(AU101*AU93)+(AU103*AU98)</f>
-        <v>7.3719178190916043E-2</v>
+        <v>7.3614508850213145E-2</v>
       </c>
     </row>
     <row r="107" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -17804,7 +17925,7 @@
       <c r="AQ108" s="76"/>
       <c r="AR108" s="62">
         <f>AR107*(1+AU108)/(AU109-AU108)</f>
-        <v>2480491348323.5371</v>
+        <v>2485831963711.5938</v>
       </c>
       <c r="AS108" s="63" t="s">
         <v>145</v>
@@ -17835,7 +17956,7 @@
       </c>
       <c r="AR109" s="62">
         <f>AR108+AR107</f>
-        <v>2598391348323.5371</v>
+        <v>2603731963711.5938</v>
       </c>
       <c r="AS109" s="63" t="s">
         <v>143</v>
@@ -17845,7 +17966,7 @@
       </c>
       <c r="AU109" s="44">
         <f>AU106</f>
-        <v>7.3719178190916043E-2</v>
+        <v>7.3614508850213145E-2</v>
       </c>
     </row>
     <row r="110" spans="1:48" ht="19" x14ac:dyDescent="0.2">
@@ -17866,7 +17987,7 @@
       </c>
       <c r="AO111" s="55">
         <f>NPV(AU109,AN109,AO109,AP109,AQ109,AR109)</f>
-        <v>2134715835927.4583</v>
+        <v>2139427953806.9565</v>
       </c>
       <c r="AP111" s="50"/>
       <c r="AQ111" s="50"/>
@@ -17911,7 +18032,7 @@
       </c>
       <c r="AO114" s="55">
         <f>AO111+AO112-AO113</f>
-        <v>2132505835927.4583</v>
+        <v>2137217953806.9565</v>
       </c>
       <c r="AP114" s="50"/>
       <c r="AQ114" s="50"/>
@@ -17941,7 +18062,7 @@
       </c>
       <c r="AO116" s="68">
         <f>AO114/AO115*AV100</f>
-        <v>96.356773743575047</v>
+        <v>96.637744429307219</v>
       </c>
       <c r="AP116" s="50"/>
       <c r="AQ116" s="50"/>
@@ -17956,7 +18077,7 @@
       </c>
       <c r="AO117" s="69" cm="1">
         <f t="array" ref="AO117">_FV(AV98,"Price")</f>
-        <v>97.66</v>
+        <v>96.29</v>
       </c>
       <c r="AP117" s="50"/>
       <c r="AQ117" s="50"/>
@@ -17971,7 +18092,7 @@
       </c>
       <c r="AO118" s="70">
         <f>AO116/AO117-1</f>
-        <v>-1.3344524436053162E-2</v>
+        <v>3.6114282823471733E-3</v>
       </c>
       <c r="AP118" s="50"/>
       <c r="AQ118" s="50"/>
@@ -17986,7 +18107,7 @@
       </c>
       <c r="AO119" s="71" t="str">
         <f>IF(AO116&gt;AO117,"BUY","SELL")</f>
-        <v>SELL</v>
+        <v>BUY</v>
       </c>
       <c r="AP119" s="50"/>
       <c r="AQ119" s="50"/>

--- a/Healthcare/Novo Nordisk.xlsx
+++ b/Healthcare/Novo Nordisk.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Healthcare/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0445C49-B1BD-164A-9F3C-7371B12511D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C91438A9-9BBA-484B-89C9-7FF883F508AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2958,13 +2958,15 @@
       <sheetName val="Software"/>
       <sheetName val="Hardware"/>
       <sheetName val="Consumer"/>
+      <sheetName val="Financials"/>
       <sheetName val="Healthcare"/>
       <sheetName val="Industrials"/>
       <sheetName val="Commodities"/>
       <sheetName val="US Treasury Bonds"/>
-      <sheetName val="Full Portfolio"/>
+      <sheetName val="Growth"/>
       <sheetName val="Full Portfolio (Concentrated)"/>
-      <sheetName val="Growth"/>
+      <sheetName val="Value"/>
+      <sheetName val="Concentrated"/>
       <sheetName val="Watchlist"/>
       <sheetName val="Wide Moats"/>
       <sheetName val="Sheet2"/>
@@ -2980,14 +2982,14 @@
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
-      <sheetData sheetId="6">
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.9880000000000008E-2</v>
+            <v>4.845E-2</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
@@ -2997,6 +2999,8 @@
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3124,7 +3128,7 @@
     <v>Powered by Refinitiv</v>
     <v>50.17</v>
     <v>49.155000000000001</v>
-    <v>0.75560000000000005</v>
+    <v>0.74680000000000002</v>
     <v>0.16</v>
     <v>3.2320000000000001E-3</v>
     <v>CHF</v>
@@ -3151,7 +3155,7 @@
     <v>NOVOB</v>
     <v>Novo Nordisk A/S (XSWX:NOVOB)</v>
     <v>1113977</v>
-    <v>3613530</v>
+    <v>2814650</v>
     <v>1931</v>
   </rv>
   <rv s="2">
@@ -3174,12 +3178,12 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>104</v>
-    <v>50.445</v>
-    <v>0.4083</v>
-    <v>-1.37</v>
-    <v>-1.4028000000000001E-2</v>
-    <v>0.21</v>
-    <v>2.1809999999999998E-3</v>
+    <v>52.97</v>
+    <v>0.40570000000000001</v>
+    <v>-1.7</v>
+    <v>-1.7857000000000001E-2</v>
+    <v>0.8</v>
+    <v>8.5560000000000011E-3</v>
     <v>USD</v>
     <v>Novo Nordisk A/S is a global healthcare company engaged in diabetes care. The Company is also engaged in the discovery, development, manufacturing and marketing of pharmaceutical products. The Company operates through two business segments: diabetes and obesity care, and biopharmaceuticals. The Company's diabetes and obesity care segment covers insulin, GLP-1, other protein-related products, such as glucagon, protein-related delivery systems and needles, and oral anti-diabetic drugs. The Company's biopharmaceuticals segment covers the therapy areas of hemophilia care, growth hormone therapy and hormone replacement therapy. The Company also offers Saxenda product to treat obesity. It offers a range of products, including NovoLog/NovoRapid; NovoLog Mix/NovoMix; Prandin/NovoNorm; NovoSeven; Norditropin, and Vagifem. As of December 31, 2016, it marketed its products in over 180 countries. Its regional structure consists of two commercial units: North America and International Operations.</v>
     <v>59337</v>
@@ -3187,25 +3191,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>Novo Alle 1, BAGSVAERD, DENMARK-NA, 2880 DK</v>
-    <v>98.23</v>
+    <v>94.5</v>
     <v>Pharmaceuticals</v>
     <v>Stock</v>
-    <v>45219.999971596873</v>
+    <v>45226.998981492972</v>
     <v>3</v>
-    <v>96.06</v>
-    <v>331932500000</v>
+    <v>92.94</v>
+    <v>320937300000</v>
     <v>Novo Nordisk A/S</v>
     <v>Novo Nordisk A/S</v>
-    <v>97.5</v>
-    <v>89.853200000000001</v>
-    <v>97.66</v>
-    <v>96.29</v>
-    <v>96.5</v>
+    <v>93.77</v>
+    <v>86.025800000000004</v>
+    <v>95.2</v>
+    <v>93.5</v>
+    <v>94.3</v>
     <v>3435128000</v>
     <v>NVO</v>
     <v>Novo Nordisk A/S (XNYS:NVO)</v>
-    <v>3945024</v>
-    <v>5251163</v>
+    <v>3297080</v>
+    <v>4845946</v>
     <v>1931</v>
   </rv>
   <rv s="2">
@@ -3224,16 +3228,19 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>0.15129999999999999</v>
-    <v>0.1305</v>
-    <v>2.0000000000000001E-4</v>
-    <v>1.4099999999999998E-3</v>
+    <v>0.13070000000000001</v>
+    <v>0</v>
+    <v>0</v>
     <v>USD</v>
     <v>DKK</v>
+    <v>0.1416</v>
     <v>Currency Pair</v>
-    <v>45219.874976851854</v>
+    <v>45229.288402777776</v>
+    <v>0.1414</v>
     <v>Danish Krone/US Dollar FX Cross Rate</v>
-    <v>0.14180000000000001</v>
-    <v>0.14199999999999999</v>
+    <v>0.14149999999999999</v>
+    <v>0.14149999999999999</v>
+    <v>0.14149999999999999</v>
     <v>DKKUSD</v>
     <v>DKK/USD</v>
   </rv>
@@ -3361,9 +3368,12 @@
     <k n="Change (%)"/>
     <k n="Currency" t="s"/>
     <k n="From currency" t="s"/>
+    <k n="High"/>
     <k n="Instrument type" t="s"/>
     <k n="Last trade time"/>
+    <k n="Low"/>
     <k n="Name" t="s"/>
+    <k n="Open"/>
     <k n="Previous close"/>
     <k n="Price"/>
     <k n="Ticker symbol" t="s"/>
@@ -3466,7 +3476,7 @@
       <v t="s">ExchangeID</v>
       <v t="s">%ProviderInfo</v>
     </a>
-    <a count="24">
+    <a count="27">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -3484,6 +3494,9 @@
       <v t="s">Currency</v>
       <v t="s">From currency</v>
       <v t="s">Previous close</v>
+      <v t="s">Open</v>
+      <v t="s">High</v>
+      <v t="s">Low</v>
       <v t="s">52 week high</v>
       <v t="s">52 week low</v>
       <v t="s">Instrument type</v>
@@ -3572,9 +3585,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -3587,7 +3600,10 @@
       <v>1</v>
     </spb>
     <spb s="9">
+      <v>10</v>
+      <v>10</v>
       <v>3</v>
+      <v>10</v>
       <v>10</v>
       <v>10</v>
       <v>5</v>
@@ -3694,7 +3710,10 @@
     <k n="`%ProviderInfo" t="spb"/>
   </s>
   <s>
+    <k n="Low" t="i"/>
+    <k n="High" t="i"/>
     <k n="Name" t="i"/>
+    <k n="Open" t="i"/>
     <k n="Price" t="i"/>
     <k n="Change" t="i"/>
     <k n="Change (%)" t="i"/>
@@ -4073,10 +4092,10 @@
   <dimension ref="A1:AV119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AJ90" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AJ98" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AN97" sqref="AN97"/>
+      <selection pane="bottomRight" activeCell="AN127" sqref="AN127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16202,7 +16221,7 @@
       </c>
       <c r="AU95" s="73">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.9880000000000008E-2</v>
+        <v>4.845E-2</v>
       </c>
     </row>
     <row r="96" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -16334,7 +16353,7 @@
       </c>
       <c r="AU96" s="53" cm="1">
         <f t="array" ref="AU96">_FV(A1,"Beta")</f>
-        <v>0.75560000000000005</v>
+        <v>0.74680000000000002</v>
       </c>
     </row>
     <row r="97" spans="1:48" ht="20" x14ac:dyDescent="0.25">
@@ -16597,7 +16616,7 @@
       </c>
       <c r="AU98" s="52">
         <f>(AU95)+((AU96)*(AU97-AU95))</f>
-        <v>7.566107200000001E-2</v>
+        <v>7.4998740000000008E-2</v>
       </c>
       <c r="AV98" s="27" t="e" vm="2">
         <v>#VALUE!</v>
@@ -16868,7 +16887,7 @@
       </c>
       <c r="AV100" s="46" cm="1">
         <f t="array" ref="AV100">_FV(AV99,"Price")</f>
-        <v>0.14199999999999999</v>
+        <v>0.14149999999999999</v>
       </c>
     </row>
     <row r="101" spans="1:48" ht="20" x14ac:dyDescent="0.25">
@@ -17004,7 +17023,7 @@
       </c>
       <c r="AV101" s="27" cm="1">
         <f t="array" ref="AV101">_FV(AV98,"Market cap",TRUE)</f>
-        <v>331932500000</v>
+        <v>320937300000</v>
       </c>
     </row>
     <row r="102" spans="1:48" ht="20" x14ac:dyDescent="0.25">
@@ -17771,7 +17790,7 @@
       </c>
       <c r="AU106" s="59">
         <f>(AU101*AU93)+(AU103*AU98)</f>
-        <v>7.3614508850213145E-2</v>
+        <v>7.2973398248862689E-2</v>
       </c>
     </row>
     <row r="107" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -17925,7 +17944,7 @@
       <c r="AQ108" s="76"/>
       <c r="AR108" s="62">
         <f>AR107*(1+AU108)/(AU109-AU108)</f>
-        <v>2485831963711.5938</v>
+        <v>2519052316725.6538</v>
       </c>
       <c r="AS108" s="63" t="s">
         <v>145</v>
@@ -17956,7 +17975,7 @@
       </c>
       <c r="AR109" s="62">
         <f>AR108+AR107</f>
-        <v>2603731963711.5938</v>
+        <v>2636952316725.6538</v>
       </c>
       <c r="AS109" s="63" t="s">
         <v>143</v>
@@ -17966,7 +17985,7 @@
       </c>
       <c r="AU109" s="44">
         <f>AU106</f>
-        <v>7.3614508850213145E-2</v>
+        <v>7.2973398248862689E-2</v>
       </c>
     </row>
     <row r="110" spans="1:48" ht="19" x14ac:dyDescent="0.2">
@@ -17987,7 +18006,7 @@
       </c>
       <c r="AO111" s="55">
         <f>NPV(AU109,AN109,AO109,AP109,AQ109,AR109)</f>
-        <v>2139427953806.9565</v>
+        <v>2168739585210.9873</v>
       </c>
       <c r="AP111" s="50"/>
       <c r="AQ111" s="50"/>
@@ -18032,7 +18051,7 @@
       </c>
       <c r="AO114" s="55">
         <f>AO111+AO112-AO113</f>
-        <v>2137217953806.9565</v>
+        <v>2166529585210.9873</v>
       </c>
       <c r="AP114" s="50"/>
       <c r="AQ114" s="50"/>
@@ -18062,7 +18081,7 @@
       </c>
       <c r="AO116" s="68">
         <f>AO114/AO115*AV100</f>
-        <v>96.637744429307219</v>
+        <v>97.618176396296931</v>
       </c>
       <c r="AP116" s="50"/>
       <c r="AQ116" s="50"/>
@@ -18077,7 +18096,7 @@
       </c>
       <c r="AO117" s="69" cm="1">
         <f t="array" ref="AO117">_FV(AV98,"Price")</f>
-        <v>96.29</v>
+        <v>93.5</v>
       </c>
       <c r="AP117" s="50"/>
       <c r="AQ117" s="50"/>
@@ -18092,7 +18111,7 @@
       </c>
       <c r="AO118" s="70">
         <f>AO116/AO117-1</f>
-        <v>3.6114282823471733E-3</v>
+        <v>4.4044667340074062E-2</v>
       </c>
       <c r="AP118" s="50"/>
       <c r="AQ118" s="50"/>

--- a/Healthcare/Novo Nordisk.xlsx
+++ b/Healthcare/Novo Nordisk.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Healthcare/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C91438A9-9BBA-484B-89C9-7FF883F508AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BE5D2BF-21E0-D343-8773-D907181766CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="22540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -2963,13 +2963,9 @@
       <sheetName val="Industrials"/>
       <sheetName val="Commodities"/>
       <sheetName val="US Treasury Bonds"/>
-      <sheetName val="Growth"/>
-      <sheetName val="Full Portfolio (Concentrated)"/>
-      <sheetName val="Value"/>
-      <sheetName val="Concentrated"/>
-      <sheetName val="Watchlist"/>
-      <sheetName val="Wide Moats"/>
-      <sheetName val="Sheet2"/>
+      <sheetName val="High Growth"/>
+      <sheetName val="GARP"/>
+      <sheetName val="Highest Quality"/>
       <sheetName val="GARP HF Buys"/>
       <sheetName val="Value HF Buys"/>
       <sheetName val="Aggressive Growth HF Buys"/>
@@ -2986,7 +2982,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.845E-2</v>
+            <v>4.8750000000000002E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2997,10 +2993,6 @@
       <sheetData sheetId="12"/>
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3128,7 +3120,7 @@
     <v>Powered by Refinitiv</v>
     <v>50.17</v>
     <v>49.155000000000001</v>
-    <v>0.74680000000000002</v>
+    <v>0.74519999999999997</v>
     <v>0.16</v>
     <v>3.2320000000000001E-3</v>
     <v>CHF</v>
@@ -3148,14 +3140,14 @@
     <v>Novo Nordisk A/S</v>
     <v>Novo Nordisk A/S</v>
     <v>49.67</v>
-    <v>25.341799999999999</v>
+    <v>22.889399999999998</v>
     <v>49.51</v>
     <v>49.67</v>
     <v>3435128000</v>
     <v>NOVOB</v>
     <v>Novo Nordisk A/S (XSWX:NOVOB)</v>
     <v>1113977</v>
-    <v>2814650</v>
+    <v>2609070</v>
     <v>1931</v>
   </rv>
   <rv s="2">
@@ -3178,12 +3170,12 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>104</v>
-    <v>52.97</v>
-    <v>0.40570000000000001</v>
-    <v>-1.7</v>
-    <v>-1.7857000000000001E-2</v>
-    <v>0.8</v>
-    <v>8.5560000000000011E-3</v>
+    <v>54.85</v>
+    <v>0.74519999999999997</v>
+    <v>3.25</v>
+    <v>3.3271999999999996E-2</v>
+    <v>-0.03</v>
+    <v>-2.9720000000000001E-4</v>
     <v>USD</v>
     <v>Novo Nordisk A/S is a global healthcare company engaged in diabetes care. The Company is also engaged in the discovery, development, manufacturing and marketing of pharmaceutical products. The Company operates through two business segments: diabetes and obesity care, and biopharmaceuticals. The Company's diabetes and obesity care segment covers insulin, GLP-1, other protein-related products, such as glucagon, protein-related delivery systems and needles, and oral anti-diabetic drugs. The Company's biopharmaceuticals segment covers the therapy areas of hemophilia care, growth hormone therapy and hormone replacement therapy. The Company also offers Saxenda product to treat obesity. It offers a range of products, including NovoLog/NovoRapid; NovoLog Mix/NovoMix; Prandin/NovoNorm; NovoSeven; Norditropin, and Vagifem. As of December 31, 2016, it marketed its products in over 180 countries. Its regional structure consists of two commercial units: North America and International Operations.</v>
     <v>59337</v>
@@ -3191,25 +3183,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>Novo Alle 1, BAGSVAERD, DENMARK-NA, 2880 DK</v>
-    <v>94.5</v>
+    <v>102.25</v>
     <v>Pharmaceuticals</v>
     <v>Stock</v>
-    <v>45226.998981492972</v>
+    <v>45232.99913009219</v>
     <v>3</v>
-    <v>92.94</v>
-    <v>320937300000</v>
+    <v>100.3</v>
+    <v>2362338000000</v>
     <v>Novo Nordisk A/S</v>
     <v>Novo Nordisk A/S</v>
-    <v>93.77</v>
-    <v>86.025800000000004</v>
-    <v>95.2</v>
-    <v>93.5</v>
-    <v>94.3</v>
+    <v>101.28</v>
+    <v>65.430899999999994</v>
+    <v>97.68</v>
+    <v>100.93</v>
+    <v>100.9</v>
     <v>3435128000</v>
     <v>NVO</v>
     <v>Novo Nordisk A/S (XNYS:NVO)</v>
-    <v>3297080</v>
-    <v>4845946</v>
+    <v>5377687</v>
+    <v>4923814</v>
     <v>1931</v>
   </rv>
   <rv s="2">
@@ -3229,18 +3221,18 @@
     <v>Powered by Refinitiv</v>
     <v>0.15129999999999999</v>
     <v>0.13070000000000001</v>
-    <v>0</v>
-    <v>0</v>
+    <v>1E-4</v>
+    <v>7.027E-4</v>
     <v>USD</v>
     <v>DKK</v>
-    <v>0.1416</v>
+    <v>0.14249999999999999</v>
     <v>Currency Pair</v>
-    <v>45229.288402777776</v>
-    <v>0.1414</v>
+    <v>45233.297002314815</v>
+    <v>0.14219999999999999</v>
     <v>Danish Krone/US Dollar FX Cross Rate</v>
-    <v>0.14149999999999999</v>
-    <v>0.14149999999999999</v>
-    <v>0.14149999999999999</v>
+    <v>0.14230000000000001</v>
+    <v>0.14230000000000001</v>
+    <v>0.1424</v>
     <v>DKKUSD</v>
     <v>DKK/USD</v>
   </rv>
@@ -3568,7 +3560,7 @@
       <v>4</v>
       <v>4</v>
       <v>5</v>
-      <v>11</v>
+      <v>6</v>
       <v>10</v>
       <v>10</v>
       <v>10</v>
@@ -3784,9 +3776,6 @@
     </rSty>
     <rSty dxfid="1">
       <rpv i="0">_([$$-en-US]* #,##0.00_);_([$$-en-US]* (#,##0.00);_([$$-en-US]* "-"??_);_(@_)</rpv>
-    </rSty>
-    <rSty dxfid="1">
-      <rpv i="0">_([$$-en-US]* #,##0_);_([$$-en-US]* (#,##0);_([$$-en-US]* "-"_);_(@_)</rpv>
     </rSty>
   </richStyles>
 </richStyleSheet>
@@ -4092,10 +4081,10 @@
   <dimension ref="A1:AV119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AJ98" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AJ87" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AN127" sqref="AN127"/>
+      <selection pane="bottomRight" activeCell="AN128" sqref="AN128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16221,7 +16210,7 @@
       </c>
       <c r="AU95" s="73">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.845E-2</v>
+        <v>4.8750000000000002E-2</v>
       </c>
     </row>
     <row r="96" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -16353,7 +16342,7 @@
       </c>
       <c r="AU96" s="53" cm="1">
         <f t="array" ref="AU96">_FV(A1,"Beta")</f>
-        <v>0.74680000000000002</v>
+        <v>0.74519999999999997</v>
       </c>
     </row>
     <row r="97" spans="1:48" ht="20" x14ac:dyDescent="0.25">
@@ -16616,7 +16605,7 @@
       </c>
       <c r="AU98" s="52">
         <f>(AU95)+((AU96)*(AU97-AU95))</f>
-        <v>7.4998740000000008E-2</v>
+        <v>7.501830000000001E-2</v>
       </c>
       <c r="AV98" s="27" t="e" vm="2">
         <v>#VALUE!</v>
@@ -16887,7 +16876,7 @@
       </c>
       <c r="AV100" s="46" cm="1">
         <f t="array" ref="AV100">_FV(AV99,"Price")</f>
-        <v>0.14149999999999999</v>
+        <v>0.1424</v>
       </c>
     </row>
     <row r="101" spans="1:48" ht="20" x14ac:dyDescent="0.25">
@@ -17023,7 +17012,7 @@
       </c>
       <c r="AV101" s="27" cm="1">
         <f t="array" ref="AV101">_FV(AV98,"Market cap",TRUE)</f>
-        <v>320937300000</v>
+        <v>2362338000000</v>
       </c>
     </row>
     <row r="102" spans="1:48" ht="20" x14ac:dyDescent="0.25">
@@ -17790,7 +17779,7 @@
       </c>
       <c r="AU106" s="59">
         <f>(AU101*AU93)+(AU103*AU98)</f>
-        <v>7.2973398248862689E-2</v>
+        <v>7.2992331538153279E-2</v>
       </c>
     </row>
     <row r="107" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -17944,7 +17933,7 @@
       <c r="AQ108" s="76"/>
       <c r="AR108" s="62">
         <f>AR107*(1+AU108)/(AU109-AU108)</f>
-        <v>2519052316725.6538</v>
+        <v>2518058534079.0913</v>
       </c>
       <c r="AS108" s="63" t="s">
         <v>145</v>
@@ -17975,7 +17964,7 @@
       </c>
       <c r="AR109" s="62">
         <f>AR108+AR107</f>
-        <v>2636952316725.6538</v>
+        <v>2635958534079.0913</v>
       </c>
       <c r="AS109" s="63" t="s">
         <v>143</v>
@@ -17985,7 +17974,7 @@
       </c>
       <c r="AU109" s="44">
         <f>AU106</f>
-        <v>7.2973398248862689E-2</v>
+        <v>7.2992331538153279E-2</v>
       </c>
     </row>
     <row r="110" spans="1:48" ht="19" x14ac:dyDescent="0.2">
@@ -18006,7 +17995,7 @@
       </c>
       <c r="AO111" s="55">
         <f>NPV(AU109,AN109,AO109,AP109,AQ109,AR109)</f>
-        <v>2168739585210.9873</v>
+        <v>2167862713335.135</v>
       </c>
       <c r="AP111" s="50"/>
       <c r="AQ111" s="50"/>
@@ -18051,7 +18040,7 @@
       </c>
       <c r="AO114" s="55">
         <f>AO111+AO112-AO113</f>
-        <v>2166529585210.9873</v>
+        <v>2165652713335.135</v>
       </c>
       <c r="AP114" s="50"/>
       <c r="AQ114" s="50"/>
@@ -18081,7 +18070,7 @@
       </c>
       <c r="AO116" s="68">
         <f>AO114/AO115*AV100</f>
-        <v>97.618176396296931</v>
+        <v>98.199308532181249</v>
       </c>
       <c r="AP116" s="50"/>
       <c r="AQ116" s="50"/>
@@ -18096,7 +18085,7 @@
       </c>
       <c r="AO117" s="69" cm="1">
         <f t="array" ref="AO117">_FV(AV98,"Price")</f>
-        <v>93.5</v>
+        <v>100.93</v>
       </c>
       <c r="AP117" s="50"/>
       <c r="AQ117" s="50"/>
@@ -18111,7 +18100,7 @@
       </c>
       <c r="AO118" s="70">
         <f>AO116/AO117-1</f>
-        <v>4.4044667340074062E-2</v>
+        <v>-2.7055300384610681E-2</v>
       </c>
       <c r="AP118" s="50"/>
       <c r="AQ118" s="50"/>
@@ -18126,7 +18115,7 @@
       </c>
       <c r="AO119" s="71" t="str">
         <f>IF(AO116&gt;AO117,"BUY","SELL")</f>
-        <v>BUY</v>
+        <v>SELL</v>
       </c>
       <c r="AP119" s="50"/>
       <c r="AQ119" s="50"/>

--- a/Healthcare/Novo Nordisk.xlsx
+++ b/Healthcare/Novo Nordisk.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Healthcare/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Healthcare/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BE5D2BF-21E0-D343-8773-D907181766CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42DC913C-1013-4A44-945D-68D5D66C6819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="22540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4140" yWindow="500" windowWidth="36820" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -2965,6 +2965,7 @@
       <sheetName val="US Treasury Bonds"/>
       <sheetName val="High Growth"/>
       <sheetName val="GARP"/>
+      <sheetName val="Watchlist"/>
       <sheetName val="Highest Quality"/>
       <sheetName val="GARP HF Buys"/>
       <sheetName val="Value HF Buys"/>
@@ -2982,7 +2983,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.8750000000000002E-2</v>
+            <v>4.5710000000000001E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2993,6 +2994,7 @@
       <sheetData sheetId="12"/>
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3120,12 +3122,12 @@
     <v>Powered by Refinitiv</v>
     <v>50.17</v>
     <v>49.155000000000001</v>
-    <v>0.74519999999999997</v>
+    <v>0.74560000000000004</v>
     <v>0.16</v>
     <v>3.2320000000000001E-3</v>
     <v>CHF</v>
     <v>Novo Nordisk A/S is a global healthcare company engaged in diabetes care. The Company is also engaged in the discovery, development, manufacturing and marketing of pharmaceutical products. The Company operates through two business segments: diabetes and obesity care, and biopharmaceuticals. The Company's diabetes and obesity care segment covers insulin, GLP-1, other protein-related products, such as glucagon, protein-related delivery systems and needles, and oral anti-diabetic drugs. The Company's biopharmaceuticals segment covers the therapy areas of hemophilia care, growth hormone therapy and hormone replacement therapy. The Company also offers Saxenda product to treat obesity. It offers a range of products, including NovoLog/NovoRapid; NovoLog Mix/NovoMix; Prandin/NovoNorm; NovoSeven; Norditropin, and Vagifem. As of December 31, 2016, it marketed its products in over 180 countries. Its regional structure consists of two commercial units: North America and International Operations.</v>
-    <v>59337</v>
+    <v>61412</v>
     <v>SIX Swiss Exchange</v>
     <v>XSWX</v>
     <v>XSWX</v>
@@ -3147,7 +3149,7 @@
     <v>NOVOB</v>
     <v>Novo Nordisk A/S (XSWX:NOVOB)</v>
     <v>1113977</v>
-    <v>2609070</v>
+    <v>3374980</v>
     <v>1931</v>
   </rv>
   <rv s="2">
@@ -3171,37 +3173,37 @@
     <v>Powered by Refinitiv</v>
     <v>104</v>
     <v>54.85</v>
-    <v>0.74519999999999997</v>
-    <v>3.25</v>
-    <v>3.3271999999999996E-2</v>
-    <v>-0.03</v>
-    <v>-2.9720000000000001E-4</v>
+    <v>0.4032</v>
+    <v>-1.74</v>
+    <v>-1.7099E-2</v>
+    <v>-0.05</v>
+    <v>-4.9989999999999995E-4</v>
     <v>USD</v>
     <v>Novo Nordisk A/S is a global healthcare company engaged in diabetes care. The Company is also engaged in the discovery, development, manufacturing and marketing of pharmaceutical products. The Company operates through two business segments: diabetes and obesity care, and biopharmaceuticals. The Company's diabetes and obesity care segment covers insulin, GLP-1, other protein-related products, such as glucagon, protein-related delivery systems and needles, and oral anti-diabetic drugs. The Company's biopharmaceuticals segment covers the therapy areas of hemophilia care, growth hormone therapy and hormone replacement therapy. The Company also offers Saxenda product to treat obesity. It offers a range of products, including NovoLog/NovoRapid; NovoLog Mix/NovoMix; Prandin/NovoNorm; NovoSeven; Norditropin, and Vagifem. As of December 31, 2016, it marketed its products in over 180 countries. Its regional structure consists of two commercial units: North America and International Operations.</v>
-    <v>59337</v>
+    <v>61412</v>
     <v>New York Stock Exchange</v>
     <v>XNYS</v>
     <v>XNYS</v>
     <v>Novo Alle 1, BAGSVAERD, DENMARK-NA, 2880 DK</v>
-    <v>102.25</v>
+    <v>101.65</v>
     <v>Pharmaceuticals</v>
     <v>Stock</v>
-    <v>45232.99913009219</v>
+    <v>45239.965270774999</v>
     <v>3</v>
-    <v>100.3</v>
-    <v>2362338000000</v>
+    <v>99.75</v>
+    <v>352516700000</v>
     <v>Novo Nordisk A/S</v>
     <v>Novo Nordisk A/S</v>
-    <v>101.28</v>
-    <v>65.430899999999994</v>
-    <v>97.68</v>
-    <v>100.93</v>
-    <v>100.9</v>
+    <v>100.87</v>
+    <v>65.968999999999994</v>
+    <v>101.76</v>
+    <v>100.02</v>
+    <v>99.98</v>
     <v>3435128000</v>
     <v>NVO</v>
     <v>Novo Nordisk A/S (XNYS:NVO)</v>
-    <v>5377687</v>
-    <v>4923814</v>
+    <v>4479066</v>
+    <v>5009932</v>
     <v>1931</v>
   </rv>
   <rv s="2">
@@ -3220,19 +3222,19 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>0.15129999999999999</v>
-    <v>0.13070000000000001</v>
-    <v>1E-4</v>
-    <v>7.027E-4</v>
+    <v>0.13089999999999999</v>
+    <v>0</v>
+    <v>0</v>
     <v>USD</v>
     <v>DKK</v>
-    <v>0.14249999999999999</v>
+    <v>0.1431</v>
     <v>Currency Pair</v>
-    <v>45233.297002314815</v>
-    <v>0.14219999999999999</v>
+    <v>45239.965729166666</v>
+    <v>0.14299999999999999</v>
     <v>Danish Krone/US Dollar FX Cross Rate</v>
-    <v>0.14230000000000001</v>
-    <v>0.14230000000000001</v>
-    <v>0.1424</v>
+    <v>0.14299999999999999</v>
+    <v>0.14299999999999999</v>
+    <v>0.14299999999999999</v>
     <v>DKKUSD</v>
     <v>DKK/USD</v>
   </rv>
@@ -3560,7 +3562,7 @@
       <v>4</v>
       <v>4</v>
       <v>5</v>
-      <v>6</v>
+      <v>11</v>
       <v>10</v>
       <v>10</v>
       <v>10</v>
@@ -3776,6 +3778,9 @@
     </rSty>
     <rSty dxfid="1">
       <rpv i="0">_([$$-en-US]* #,##0.00_);_([$$-en-US]* (#,##0.00);_([$$-en-US]* "-"??_);_(@_)</rpv>
+    </rSty>
+    <rSty dxfid="1">
+      <rpv i="0">_([$$-en-US]* #,##0_);_([$$-en-US]* (#,##0);_([$$-en-US]* "-"_);_(@_)</rpv>
     </rSty>
   </richStyles>
 </richStyleSheet>
@@ -4084,7 +4089,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="AJ87" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AN128" sqref="AN128"/>
+      <selection pane="bottomRight" activeCell="AL117" sqref="AL117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16210,7 +16215,7 @@
       </c>
       <c r="AU95" s="73">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.8750000000000002E-2</v>
+        <v>4.5710000000000001E-2</v>
       </c>
     </row>
     <row r="96" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -16342,7 +16347,7 @@
       </c>
       <c r="AU96" s="53" cm="1">
         <f t="array" ref="AU96">_FV(A1,"Beta")</f>
-        <v>0.74519999999999997</v>
+        <v>0.74560000000000004</v>
       </c>
     </row>
     <row r="97" spans="1:48" ht="20" x14ac:dyDescent="0.25">
@@ -16605,7 +16610,7 @@
       </c>
       <c r="AU98" s="52">
         <f>(AU95)+((AU96)*(AU97-AU95))</f>
-        <v>7.501830000000001E-2</v>
+        <v>7.4259024000000007E-2</v>
       </c>
       <c r="AV98" s="27" t="e" vm="2">
         <v>#VALUE!</v>
@@ -16876,7 +16881,7 @@
       </c>
       <c r="AV100" s="46" cm="1">
         <f t="array" ref="AV100">_FV(AV99,"Price")</f>
-        <v>0.1424</v>
+        <v>0.14299999999999999</v>
       </c>
     </row>
     <row r="101" spans="1:48" ht="20" x14ac:dyDescent="0.25">
@@ -17012,7 +17017,7 @@
       </c>
       <c r="AV101" s="27" cm="1">
         <f t="array" ref="AV101">_FV(AV98,"Market cap",TRUE)</f>
-        <v>2362338000000</v>
+        <v>352516700000</v>
       </c>
     </row>
     <row r="102" spans="1:48" ht="20" x14ac:dyDescent="0.25">
@@ -17779,7 +17784,7 @@
       </c>
       <c r="AU106" s="59">
         <f>(AU101*AU93)+(AU103*AU98)</f>
-        <v>7.2992331538153279E-2</v>
+        <v>7.2257383063746225E-2</v>
       </c>
     </row>
     <row r="107" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -17933,7 +17938,7 @@
       <c r="AQ108" s="76"/>
       <c r="AR108" s="62">
         <f>AR107*(1+AU108)/(AU109-AU108)</f>
-        <v>2518058534079.0913</v>
+        <v>2557219468479.3887</v>
       </c>
       <c r="AS108" s="63" t="s">
         <v>145</v>
@@ -17964,7 +17969,7 @@
       </c>
       <c r="AR109" s="62">
         <f>AR108+AR107</f>
-        <v>2635958534079.0913</v>
+        <v>2675119468479.3887</v>
       </c>
       <c r="AS109" s="63" t="s">
         <v>143</v>
@@ -17974,7 +17979,7 @@
       </c>
       <c r="AU109" s="44">
         <f>AU106</f>
-        <v>7.2992331538153279E-2</v>
+        <v>7.2257383063746225E-2</v>
       </c>
     </row>
     <row r="110" spans="1:48" ht="19" x14ac:dyDescent="0.2">
@@ -17995,7 +18000,7 @@
       </c>
       <c r="AO111" s="55">
         <f>NPV(AU109,AN109,AO109,AP109,AQ109,AR109)</f>
-        <v>2167862713335.135</v>
+        <v>2202417493847.0615</v>
       </c>
       <c r="AP111" s="50"/>
       <c r="AQ111" s="50"/>
@@ -18040,7 +18045,7 @@
       </c>
       <c r="AO114" s="55">
         <f>AO111+AO112-AO113</f>
-        <v>2165652713335.135</v>
+        <v>2200207493847.0615</v>
       </c>
       <c r="AP114" s="50"/>
       <c r="AQ114" s="50"/>
@@ -18070,7 +18075,7 @@
       </c>
       <c r="AO116" s="68">
         <f>AO114/AO115*AV100</f>
-        <v>98.199308532181249</v>
+        <v>100.18652276479779</v>
       </c>
       <c r="AP116" s="50"/>
       <c r="AQ116" s="50"/>
@@ -18085,7 +18090,7 @@
       </c>
       <c r="AO117" s="69" cm="1">
         <f t="array" ref="AO117">_FV(AV98,"Price")</f>
-        <v>100.93</v>
+        <v>100.02</v>
       </c>
       <c r="AP117" s="50"/>
       <c r="AQ117" s="50"/>
@@ -18100,7 +18105,7 @@
       </c>
       <c r="AO118" s="70">
         <f>AO116/AO117-1</f>
-        <v>-2.7055300384610681E-2</v>
+        <v>1.6648946690440702E-3</v>
       </c>
       <c r="AP118" s="50"/>
       <c r="AQ118" s="50"/>
@@ -18115,7 +18120,7 @@
       </c>
       <c r="AO119" s="71" t="str">
         <f>IF(AO116&gt;AO117,"BUY","SELL")</f>
-        <v>SELL</v>
+        <v>BUY</v>
       </c>
       <c r="AP119" s="50"/>
       <c r="AQ119" s="50"/>

--- a/Healthcare/Novo Nordisk.xlsx
+++ b/Healthcare/Novo Nordisk.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Healthcare/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA9A279A-F724-7B45-841B-E3CC57629E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F80084FA-A5B5-3242-A4ED-3710B660A7F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1796,10 +1796,12 @@
       <sheetName val="Financials"/>
       <sheetName val="Healthcare"/>
       <sheetName val="Industrials"/>
-      <sheetName val="Commodities"/>
+      <sheetName val="Basic Materials"/>
       <sheetName val="US Treasury Bonds"/>
-      <sheetName val="High Growth"/>
-      <sheetName val="GARP"/>
+      <sheetName val="Fidelity"/>
+      <sheetName val="Schwab"/>
+      <sheetName val="Top Consumer Stocks"/>
+      <sheetName val="Dividend Portfolio"/>
       <sheetName val="Watchlist"/>
       <sheetName val="Small + Speculative"/>
       <sheetName val="Highest Quality"/>
@@ -1819,7 +1821,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.2709999999999998E-2</v>
+            <v>4.1210000000000004E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1832,6 +1834,8 @@
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1958,12 +1962,12 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>105.69</v>
-    <v>62.41</v>
-    <v>0.40150000000000002</v>
-    <v>-1.44</v>
-    <v>-1.414E-2</v>
-    <v>0.5</v>
-    <v>4.9800000000000001E-3</v>
+    <v>63.15</v>
+    <v>0.40179999999999999</v>
+    <v>-0.18</v>
+    <v>-1.8590000000000002E-3</v>
+    <v>0.23</v>
+    <v>2.3799999999999997E-3</v>
     <v>USD</v>
     <v>Novo Nordisk A/S is a global healthcare company engaged in diabetes care. The Company is also engaged in the discovery, development, manufacturing and marketing of pharmaceutical products. The Company operates through two business segments: diabetes and obesity care, and biopharmaceuticals. The Company's diabetes and obesity care segment covers insulin, GLP-1, other protein-related products, such as glucagon, protein-related delivery systems and needles, and oral anti-diabetic drugs. The Company's biopharmaceuticals segment covers the therapy areas of hemophilia care, growth hormone therapy and hormone replacement therapy. The Company also offers Saxenda product to treat obesity. It offers a range of products, including NovoLog/NovoRapid; NovoLog Mix/NovoMix; Prandin/NovoNorm; NovoSeven; Norditropin, and Vagifem. As of December 31, 2016, it marketed its products in over 180 countries. Its regional structure consists of two commercial units: North America and International Operations.</v>
     <v>61412</v>
@@ -1971,25 +1975,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>Novo Alle 1, BAGSVAERD, DENMARK-NA, 2880 DK</v>
-    <v>101.76</v>
+    <v>97.05</v>
     <v>Pharmaceuticals</v>
     <v>Stock</v>
-    <v>45262.036769860941</v>
+    <v>45269.040467615625</v>
     <v>0</v>
-    <v>100.31</v>
-    <v>350521200000</v>
+    <v>96.215000000000003</v>
+    <v>332564900000</v>
     <v>Novo Nordisk A/S</v>
     <v>Novo Nordisk A/S</v>
-    <v>101.1</v>
-    <v>43.033700000000003</v>
-    <v>101.84</v>
-    <v>100.4</v>
-    <v>100.9</v>
+    <v>96.4</v>
+    <v>40.908200000000001</v>
+    <v>96.81</v>
+    <v>96.63</v>
+    <v>96.87</v>
     <v>3435128000</v>
     <v>NVO</v>
     <v>Novo Nordisk A/S (XNYS:NVO)</v>
-    <v>4567522</v>
-    <v>4554543</v>
+    <v>3599759</v>
+    <v>4548891</v>
     <v>1931</v>
   </rv>
   <rv s="2">
@@ -2008,16 +2012,16 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>0.15129999999999999</v>
-    <v>0.13830000000000001</v>
-    <v>0</v>
-    <v>0</v>
+    <v>0.1401</v>
+    <v>-4.0000000000000002E-4</v>
+    <v>-2.7620000000000001E-3</v>
     <v>USD</v>
     <v>DKK</v>
     <v>Currency Pair</v>
-    <v>45261.916666666664</v>
+    <v>45268.916666666664</v>
     <v>Danish Krone/US Dollar FX Cross Rate</v>
-    <v>0.14599999999999999</v>
-    <v>0.14599999999999999</v>
+    <v>0.14480000000000001</v>
+    <v>0.1444</v>
     <v>DKKUSD</v>
     <v>DKK/USD</v>
   </rv>
@@ -14228,7 +14232,7 @@
   <dimension ref="A1:R110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="D21" sqref="D21:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14281,7 +14285,7 @@
     <row r="3" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="35" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>350521200000</v>
+        <v>332564900000</v>
       </c>
       <c r="B3" s="36" t="s">
         <v>201</v>
@@ -14309,14 +14313,14 @@
       </c>
       <c r="I3" s="97">
         <f>J15*(1+I7)/(I6-I7)</f>
-        <v>288671332834.37335</v>
+        <v>287108982146.45386</v>
       </c>
       <c r="J3" s="39" t="s">
         <v>205</v>
       </c>
       <c r="K3" s="106">
         <f>(Financials!O172*-1)/Model!A3</f>
-        <v>1.168353922958155E-2</v>
+        <v>1.2314372896839083E-2</v>
       </c>
       <c r="L3" s="40" t="s">
         <v>206</v>
@@ -14361,14 +14365,14 @@
       </c>
       <c r="I4" s="98">
         <f>NPV(I6,F15,G15,H15,I15,(J15+I3))</f>
-        <v>241356557457.59717</v>
+        <v>239984835752.76443</v>
       </c>
       <c r="J4" s="44" t="s">
         <v>212</v>
       </c>
       <c r="K4" s="99" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>-1.414E-2</v>
+        <v>-1.8590000000000002E-3</v>
       </c>
       <c r="L4" s="46" t="s">
         <v>213</v>
@@ -14413,14 +14417,14 @@
       </c>
       <c r="I5" s="98">
         <f>I4+G5-G6</f>
-        <v>242924943609.59717</v>
+        <v>241553221904.76443</v>
       </c>
       <c r="J5" s="44" t="s">
         <v>219</v>
       </c>
       <c r="K5" s="109" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>100.4</v>
+        <v>96.63</v>
       </c>
       <c r="L5" s="48" t="s">
         <v>220</v>
@@ -14440,7 +14444,7 @@
     <row r="6" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="51">
         <f>O20/F10</f>
-        <v>10.449594562365847</v>
+        <v>9.9142886954447889</v>
       </c>
       <c r="B6" s="43" t="s">
         <v>222</v>
@@ -14468,14 +14472,14 @@
       </c>
       <c r="I6" s="101">
         <f>N25</f>
-        <v>9.5659943263930444E-2</v>
+        <v>9.604445095206135E-2</v>
       </c>
       <c r="J6" s="44" t="s">
         <v>225</v>
       </c>
       <c r="K6" s="107">
         <f>I5/G4</f>
-        <v>72.523731731644773</v>
+        <v>72.114212744201311</v>
       </c>
       <c r="L6" s="52" t="s">
         <v>226</v>
@@ -14495,14 +14499,14 @@
     <row r="7" spans="1:18" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="53">
         <f>O20/F12</f>
-        <v>28.83286995146829</v>
+        <v>27.355836143785474</v>
       </c>
       <c r="B7" s="54" t="s">
         <v>228</v>
       </c>
       <c r="C7" s="105">
         <f>F15/A3</f>
-        <v>3.2500174026563869E-2</v>
+        <v>3.4254967977678942E-2</v>
       </c>
       <c r="D7" s="54" t="s">
         <v>229</v>
@@ -14529,7 +14533,7 @@
       </c>
       <c r="K7" s="108">
         <f>K6/K5-1</f>
-        <v>-0.27765207438600825</v>
+        <v>-0.25370782630444666</v>
       </c>
       <c r="L7" s="58" t="s">
         <v>232</v>
@@ -14559,7 +14563,7 @@
       <c r="J8" s="111"/>
       <c r="K8" s="112" cm="1">
         <f t="array" ref="K8">_FV(L8,"Previous close",TRUE)</f>
-        <v>0.14599999999999999</v>
+        <v>0.14480000000000001</v>
       </c>
       <c r="L8" s="113" t="e" vm="2">
         <v>#VALUE!</v>
@@ -14861,7 +14865,7 @@
       </c>
       <c r="O14" s="77">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.2709999999999998E-2</v>
+        <v>4.1210000000000004E-2</v>
       </c>
       <c r="P14" s="41"/>
       <c r="Q14" s="41"/>
@@ -15013,7 +15017,7 @@
       </c>
       <c r="O17" s="87">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>9.762570000000001E-2</v>
+        <v>9.8120700000000005E-2</v>
       </c>
       <c r="P17" s="41"/>
       <c r="Q17" s="41"/>
@@ -15096,7 +15100,7 @@
       </c>
       <c r="O20" s="93">
         <f>A3</f>
-        <v>350521200000</v>
+        <v>332564900000</v>
       </c>
       <c r="P20" s="41"/>
       <c r="Q20" s="41"/>
@@ -15126,7 +15130,7 @@
       </c>
       <c r="O21" s="93">
         <f>O19+O20</f>
-        <v>354287436703</v>
+        <v>336331136703</v>
       </c>
       <c r="P21" s="41"/>
       <c r="Q21" s="41"/>
@@ -15154,7 +15158,7 @@
       </c>
       <c r="O22" s="95">
         <f>(O19/O21)</f>
-        <v>1.0630455141307326E-2</v>
+        <v>1.1198001885641075E-2</v>
       </c>
       <c r="P22" s="41"/>
       <c r="Q22" s="41"/>
@@ -15179,7 +15183,7 @@
       </c>
       <c r="O23" s="96">
         <f>O20/O21</f>
-        <v>0.98936954485869266</v>
+        <v>0.98880199811435887</v>
       </c>
       <c r="P23" s="41"/>
       <c r="Q23" s="41"/>
@@ -15223,7 +15227,7 @@
       <c r="M25" s="60"/>
       <c r="N25" s="117">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>9.5659943263930444E-2</v>
+        <v>9.604445095206135E-2</v>
       </c>
       <c r="O25" s="118"/>
       <c r="P25" s="41"/>
